--- a/CALCULADORA DOLARES Y SOLES.xlsx
+++ b/CALCULADORA DOLARES Y SOLES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\auroco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD86E51-0755-419C-BB27-999A3857C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94FAFB-A64E-4C18-BA48-E77BFF3BB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CALCULADORA" sheetId="25" r:id="rId1"/>
@@ -5858,12 +5858,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;???_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -6295,7 +6295,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6351,68 +6351,68 @@
     <xf numFmtId="14" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6420,28 +6420,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6451,8 +6451,8 @@
     <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6469,45 +6469,45 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6524,19 +6524,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6546,9 +6546,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6560,8 +6560,8 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6588,7 +6588,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6600,7 +6600,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6612,10 +6612,10 @@
     <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6627,8 +6627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6638,18 +6638,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6658,55 +6658,55 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6720,7 +6720,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6744,7 +6744,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6753,13 +6753,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6774,10 +6774,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6786,49 +6786,49 @@
     <xf numFmtId="2" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6841,7 +6841,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6855,18 +6855,18 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6902,28 +6902,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6936,52 +6936,52 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="17" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="18" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="17" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="23" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="23" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7002,11 +7002,107 @@
     <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7014,7 +7110,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7029,194 +7137,41 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7230,19 +7185,64 @@
     <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7542,8 +7542,8 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -8116,8 +8116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4B907-A7C5-4BEF-87AA-7748B45249EE}">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9233,36 +9233,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="327" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="292" t="s">
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="328" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="292"/>
-      <c r="M1" s="293" t="s">
+      <c r="L1" s="328"/>
+      <c r="M1" s="329" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="293"/>
-      <c r="O1" s="293"/>
-      <c r="P1" s="293"/>
-      <c r="Q1" s="294" t="s">
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="330" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="294"/>
-      <c r="S1" s="286" t="s">
+      <c r="R1" s="330"/>
+      <c r="S1" s="325" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="287" t="s">
+      <c r="T1" s="326" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9321,8 +9321,8 @@
       <c r="R2" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="S2" s="286"/>
-      <c r="T2" s="287"/>
+      <c r="S2" s="325"/>
+      <c r="T2" s="326"/>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -9363,14 +9363,14 @@
         <f>+(J3*12%)*G3</f>
         <v>2027.4500399999997</v>
       </c>
-      <c r="M3" s="300" t="s">
+      <c r="M3" s="322" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="323"/>
+      <c r="Q3" s="323"/>
+      <c r="R3" s="324"/>
       <c r="S3" s="1"/>
       <c r="T3" s="3"/>
     </row>
@@ -9413,14 +9413,14 @@
         <f t="shared" ref="L4:L23" si="3">+(J4*12%)*G4</f>
         <v>1481.6885005439999</v>
       </c>
-      <c r="M4" s="300" t="s">
+      <c r="M4" s="322" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="302"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="323"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="324"/>
       <c r="S4" s="8"/>
       <c r="T4" s="7"/>
       <c r="U4" s="9"/>
@@ -9535,10 +9535,10 @@
       <c r="P6" s="6">
         <v>45334</v>
       </c>
-      <c r="Q6" s="298" t="s">
+      <c r="Q6" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R6" s="299"/>
+      <c r="R6" s="288"/>
       <c r="S6" s="1"/>
       <c r="T6" s="3" t="s">
         <v>205</v>
@@ -9589,10 +9589,10 @@
       <c r="P7" s="6">
         <v>45334</v>
       </c>
-      <c r="Q7" s="298" t="s">
+      <c r="Q7" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="299"/>
+      <c r="R7" s="288"/>
       <c r="S7" s="1"/>
       <c r="T7" s="3" t="s">
         <v>205</v>
@@ -9738,7 +9738,7 @@
       <c r="C10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="288"/>
+      <c r="D10" s="320"/>
       <c r="E10" s="181" t="s">
         <v>15</v>
       </c>
@@ -9779,13 +9779,13 @@
       <c r="P10" s="6">
         <v>45359</v>
       </c>
-      <c r="Q10" s="295">
+      <c r="Q10" s="307">
         <v>56236</v>
       </c>
-      <c r="R10" s="296">
+      <c r="R10" s="306">
         <v>45329</v>
       </c>
-      <c r="S10" s="297">
+      <c r="S10" s="292">
         <v>45330</v>
       </c>
       <c r="T10" s="3" t="s">
@@ -9802,7 +9802,7 @@
       <c r="C11" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="289"/>
+      <c r="D11" s="321"/>
       <c r="E11" s="181" t="s">
         <v>15</v>
       </c>
@@ -9843,9 +9843,9 @@
       <c r="P11" s="6">
         <v>45366</v>
       </c>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="289"/>
+      <c r="Q11" s="307"/>
+      <c r="R11" s="306"/>
+      <c r="S11" s="321"/>
       <c r="T11" s="3" t="s">
         <v>206</v>
       </c>
@@ -9860,7 +9860,7 @@
       <c r="C12" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="289"/>
+      <c r="D12" s="321"/>
       <c r="E12" s="181" t="s">
         <v>15</v>
       </c>
@@ -9901,9 +9901,9 @@
       <c r="P12" s="20">
         <v>45393</v>
       </c>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="289"/>
+      <c r="Q12" s="307"/>
+      <c r="R12" s="306"/>
+      <c r="S12" s="321"/>
       <c r="T12" s="3" t="s">
         <v>207</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="C13" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="290"/>
+      <c r="D13" s="301"/>
       <c r="E13" s="181" t="s">
         <v>15</v>
       </c>
@@ -9959,9 +9959,9 @@
       <c r="P13" s="108">
         <v>45426</v>
       </c>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="290"/>
+      <c r="Q13" s="307"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="301"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10001,10 +10001,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="298" t="s">
+      <c r="Q14" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="299"/>
+      <c r="R14" s="288"/>
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
     </row>
@@ -10045,10 +10045,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="298" t="s">
+      <c r="Q15" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R15" s="299"/>
+      <c r="R15" s="288"/>
       <c r="S15" s="1"/>
       <c r="T15" s="3"/>
     </row>
@@ -10089,10 +10089,10 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="298" t="s">
+      <c r="Q16" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="299"/>
+      <c r="R16" s="288"/>
       <c r="S16" s="1"/>
       <c r="T16" s="3"/>
     </row>
@@ -10135,14 +10135,14 @@
         <f>+(J17*12%)</f>
         <v>18478.8</v>
       </c>
-      <c r="M17" s="298" t="s">
+      <c r="M17" s="286" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="303"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="303"/>
-      <c r="Q17" s="303"/>
-      <c r="R17" s="299"/>
+      <c r="N17" s="287"/>
+      <c r="O17" s="287"/>
+      <c r="P17" s="287"/>
+      <c r="Q17" s="287"/>
+      <c r="R17" s="288"/>
       <c r="S17" s="1"/>
       <c r="T17" s="3"/>
     </row>
@@ -10255,10 +10255,10 @@
       <c r="P19" s="15">
         <v>45348</v>
       </c>
-      <c r="Q19" s="298" t="s">
+      <c r="Q19" s="286" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="299"/>
+      <c r="R19" s="288"/>
       <c r="S19" s="11"/>
       <c r="T19" s="10" t="s">
         <v>205</v>
@@ -10330,7 +10330,7 @@
       <c r="C21" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="304"/>
+      <c r="D21" s="310"/>
       <c r="E21" s="126" t="s">
         <v>27</v>
       </c>
@@ -10359,16 +10359,16 @@
         <f t="shared" si="3"/>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M21" s="306">
+      <c r="M21" s="289">
         <v>12808.66</v>
       </c>
-      <c r="N21" s="304" t="s">
+      <c r="N21" s="310" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="304" t="s">
+      <c r="O21" s="310" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="308">
+      <c r="P21" s="314">
         <v>45372</v>
       </c>
       <c r="Q21" s="36">
@@ -10380,7 +10380,7 @@
       <c r="S21" s="20">
         <v>45390</v>
       </c>
-      <c r="T21" s="304" t="s">
+      <c r="T21" s="310" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="C22" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="305"/>
+      <c r="D22" s="311"/>
       <c r="E22" s="126" t="s">
         <v>27</v>
       </c>
@@ -10423,10 +10423,10 @@
         <f t="shared" ref="L22" si="11">+(J22*12%)*G22</f>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M22" s="307"/>
-      <c r="N22" s="305"/>
-      <c r="O22" s="305"/>
-      <c r="P22" s="309"/>
+      <c r="M22" s="291"/>
+      <c r="N22" s="311"/>
+      <c r="O22" s="311"/>
+      <c r="P22" s="305"/>
       <c r="Q22" s="36">
         <v>75</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>45420</v>
       </c>
       <c r="S22" s="20"/>
-      <c r="T22" s="305"/>
+      <c r="T22" s="311"/>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
@@ -11153,7 +11153,7 @@
       <c r="C35" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="310"/>
+      <c r="D35" s="312"/>
       <c r="E35" s="185" t="s">
         <v>43</v>
       </c>
@@ -11194,13 +11194,13 @@
       <c r="P35" s="20">
         <v>45338</v>
       </c>
-      <c r="Q35" s="313">
+      <c r="Q35" s="299">
         <v>33993.040000000001</v>
       </c>
-      <c r="R35" s="308">
+      <c r="R35" s="314">
         <v>45358</v>
       </c>
-      <c r="S35" s="308">
+      <c r="S35" s="314">
         <v>45359</v>
       </c>
       <c r="T35" s="3" t="s">
@@ -11217,7 +11217,7 @@
       <c r="C36" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="310"/>
+      <c r="D36" s="312"/>
       <c r="E36" s="185" t="s">
         <v>43</v>
       </c>
@@ -11258,9 +11258,9 @@
       <c r="P36" s="20">
         <v>45338</v>
       </c>
-      <c r="Q36" s="314"/>
-      <c r="R36" s="311"/>
-      <c r="S36" s="311"/>
+      <c r="Q36" s="316"/>
+      <c r="R36" s="315"/>
+      <c r="S36" s="315"/>
       <c r="T36" s="3" t="s">
         <v>205</v>
       </c>
@@ -11275,7 +11275,7 @@
       <c r="C37" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="310"/>
+      <c r="D37" s="312"/>
       <c r="E37" s="185" t="s">
         <v>43</v>
       </c>
@@ -11316,9 +11316,9 @@
       <c r="P37" s="20">
         <v>45338</v>
       </c>
-      <c r="Q37" s="314"/>
-      <c r="R37" s="311"/>
-      <c r="S37" s="311"/>
+      <c r="Q37" s="316"/>
+      <c r="R37" s="315"/>
+      <c r="S37" s="315"/>
       <c r="T37" s="3" t="s">
         <v>205</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="C38" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="310"/>
+      <c r="D38" s="312"/>
       <c r="E38" s="185" t="s">
         <v>43</v>
       </c>
@@ -11374,9 +11374,9 @@
       <c r="P38" s="20">
         <v>45338</v>
       </c>
-      <c r="Q38" s="314"/>
-      <c r="R38" s="311"/>
-      <c r="S38" s="311"/>
+      <c r="Q38" s="316"/>
+      <c r="R38" s="315"/>
+      <c r="S38" s="315"/>
       <c r="T38" s="3" t="s">
         <v>205</v>
       </c>
@@ -11391,7 +11391,7 @@
       <c r="C39" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="310"/>
+      <c r="D39" s="312"/>
       <c r="E39" s="185" t="s">
         <v>43</v>
       </c>
@@ -11432,9 +11432,9 @@
       <c r="P39" s="20">
         <v>45338</v>
       </c>
-      <c r="Q39" s="314"/>
-      <c r="R39" s="311"/>
-      <c r="S39" s="311"/>
+      <c r="Q39" s="316"/>
+      <c r="R39" s="315"/>
+      <c r="S39" s="315"/>
       <c r="T39" s="3" t="s">
         <v>205</v>
       </c>
@@ -11449,7 +11449,7 @@
       <c r="C40" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="310"/>
+      <c r="D40" s="312"/>
       <c r="E40" s="185" t="s">
         <v>43</v>
       </c>
@@ -11490,9 +11490,9 @@
       <c r="P40" s="20">
         <v>45338</v>
       </c>
-      <c r="Q40" s="314"/>
-      <c r="R40" s="311"/>
-      <c r="S40" s="311"/>
+      <c r="Q40" s="316"/>
+      <c r="R40" s="315"/>
+      <c r="S40" s="315"/>
       <c r="T40" s="3" t="s">
         <v>205</v>
       </c>
@@ -11507,7 +11507,7 @@
       <c r="C41" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="310"/>
+      <c r="D41" s="312"/>
       <c r="E41" s="185" t="s">
         <v>43</v>
       </c>
@@ -11548,9 +11548,9 @@
       <c r="P41" s="20">
         <v>45338</v>
       </c>
-      <c r="Q41" s="315"/>
-      <c r="R41" s="312"/>
-      <c r="S41" s="312"/>
+      <c r="Q41" s="300"/>
+      <c r="R41" s="313"/>
+      <c r="S41" s="313"/>
       <c r="T41" s="3" t="s">
         <v>205</v>
       </c>
@@ -11594,14 +11594,14 @@
         <f t="shared" si="18"/>
         <v>415.01482970400002</v>
       </c>
-      <c r="M42" s="298" t="s">
+      <c r="M42" s="286" t="s">
         <v>212</v>
       </c>
-      <c r="N42" s="303"/>
-      <c r="O42" s="303"/>
-      <c r="P42" s="303"/>
-      <c r="Q42" s="303"/>
-      <c r="R42" s="299"/>
+      <c r="N42" s="287"/>
+      <c r="O42" s="287"/>
+      <c r="P42" s="287"/>
+      <c r="Q42" s="287"/>
+      <c r="R42" s="288"/>
       <c r="S42" s="16"/>
       <c r="T42" s="3"/>
     </row>
@@ -11644,14 +11644,14 @@
         <f t="shared" si="18"/>
         <v>8763.3974399999988</v>
       </c>
-      <c r="M43" s="298" t="s">
+      <c r="M43" s="286" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="303"/>
-      <c r="O43" s="303"/>
-      <c r="P43" s="303"/>
-      <c r="Q43" s="303"/>
-      <c r="R43" s="299"/>
+      <c r="N43" s="287"/>
+      <c r="O43" s="287"/>
+      <c r="P43" s="287"/>
+      <c r="Q43" s="287"/>
+      <c r="R43" s="288"/>
       <c r="S43" s="22"/>
       <c r="T43" s="7"/>
     </row>
@@ -11694,14 +11694,14 @@
         <f t="shared" si="18"/>
         <v>16764.760319999998</v>
       </c>
-      <c r="M44" s="298" t="s">
+      <c r="M44" s="286" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="303"/>
-      <c r="O44" s="303"/>
-      <c r="P44" s="303"/>
-      <c r="Q44" s="303"/>
-      <c r="R44" s="299"/>
+      <c r="N44" s="287"/>
+      <c r="O44" s="287"/>
+      <c r="P44" s="287"/>
+      <c r="Q44" s="287"/>
+      <c r="R44" s="288"/>
       <c r="S44" s="22"/>
       <c r="T44" s="7"/>
     </row>
@@ -11744,14 +11744,14 @@
         <f>+(J45*12%)</f>
         <v>155.34652800000001</v>
       </c>
-      <c r="M45" s="298" t="s">
+      <c r="M45" s="286" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="303"/>
-      <c r="O45" s="303"/>
-      <c r="P45" s="303"/>
-      <c r="Q45" s="303"/>
-      <c r="R45" s="299"/>
+      <c r="N45" s="287"/>
+      <c r="O45" s="287"/>
+      <c r="P45" s="287"/>
+      <c r="Q45" s="287"/>
+      <c r="R45" s="288"/>
       <c r="S45" s="56"/>
       <c r="T45" s="7"/>
     </row>
@@ -11765,7 +11765,7 @@
       <c r="C46" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="310"/>
+      <c r="D46" s="312"/>
       <c r="E46" s="185" t="s">
         <v>52</v>
       </c>
@@ -11806,14 +11806,14 @@
       <c r="P46" s="20">
         <v>45358</v>
       </c>
-      <c r="Q46" s="313">
+      <c r="Q46" s="299">
         <v>630</v>
       </c>
-      <c r="R46" s="308">
+      <c r="R46" s="314">
         <v>45421</v>
       </c>
-      <c r="S46" s="316"/>
-      <c r="T46" s="288" t="s">
+      <c r="S46" s="317"/>
+      <c r="T46" s="320" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
       <c r="C47" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="310"/>
+      <c r="D47" s="312"/>
       <c r="E47" s="185" t="s">
         <v>52</v>
       </c>
@@ -11868,10 +11868,10 @@
       <c r="P47" s="20">
         <v>45369</v>
       </c>
-      <c r="Q47" s="314"/>
-      <c r="R47" s="311"/>
-      <c r="S47" s="317"/>
-      <c r="T47" s="289"/>
+      <c r="Q47" s="316"/>
+      <c r="R47" s="315"/>
+      <c r="S47" s="318"/>
+      <c r="T47" s="321"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
@@ -11883,7 +11883,7 @@
       <c r="C48" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="310"/>
+      <c r="D48" s="312"/>
       <c r="E48" s="185" t="s">
         <v>52</v>
       </c>
@@ -11924,10 +11924,10 @@
       <c r="P48" s="20">
         <v>45377</v>
       </c>
-      <c r="Q48" s="315"/>
-      <c r="R48" s="312"/>
-      <c r="S48" s="318"/>
-      <c r="T48" s="290"/>
+      <c r="Q48" s="300"/>
+      <c r="R48" s="313"/>
+      <c r="S48" s="319"/>
+      <c r="T48" s="301"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
@@ -12127,7 +12127,7 @@
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="310"/>
+      <c r="D52" s="312"/>
       <c r="E52" s="185" t="s">
         <v>58</v>
       </c>
@@ -12168,13 +12168,13 @@
       <c r="P52" s="20">
         <v>45377</v>
       </c>
-      <c r="Q52" s="295">
+      <c r="Q52" s="307">
         <v>5147</v>
       </c>
-      <c r="R52" s="322">
+      <c r="R52" s="304">
         <v>45358</v>
       </c>
-      <c r="S52" s="322">
+      <c r="S52" s="304">
         <v>45359</v>
       </c>
       <c r="T52" s="3" t="s">
@@ -12191,7 +12191,7 @@
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="312"/>
+      <c r="D53" s="313"/>
       <c r="E53" s="185" t="s">
         <v>58</v>
       </c>
@@ -12232,9 +12232,9 @@
       <c r="P53" s="67">
         <v>45377</v>
       </c>
-      <c r="Q53" s="315"/>
-      <c r="R53" s="309"/>
-      <c r="S53" s="309"/>
+      <c r="Q53" s="300"/>
+      <c r="R53" s="305"/>
+      <c r="S53" s="305"/>
       <c r="T53" s="183" t="s">
         <v>206</v>
       </c>
@@ -12976,14 +12976,14 @@
         <f t="shared" si="32"/>
         <v>111.9260208</v>
       </c>
-      <c r="M65" s="319" t="s">
+      <c r="M65" s="295" t="s">
         <v>219</v>
       </c>
-      <c r="N65" s="320"/>
-      <c r="O65" s="320"/>
-      <c r="P65" s="320"/>
-      <c r="Q65" s="320"/>
-      <c r="R65" s="321"/>
+      <c r="N65" s="296"/>
+      <c r="O65" s="296"/>
+      <c r="P65" s="296"/>
+      <c r="Q65" s="296"/>
+      <c r="R65" s="297"/>
       <c r="S65" s="1"/>
       <c r="T65" s="3"/>
     </row>
@@ -13026,14 +13026,14 @@
         <f t="shared" si="32"/>
         <v>109.06092888000001</v>
       </c>
-      <c r="M66" s="319" t="s">
+      <c r="M66" s="295" t="s">
         <v>220</v>
       </c>
-      <c r="N66" s="320"/>
-      <c r="O66" s="320"/>
-      <c r="P66" s="320"/>
-      <c r="Q66" s="320"/>
-      <c r="R66" s="321"/>
+      <c r="N66" s="296"/>
+      <c r="O66" s="296"/>
+      <c r="P66" s="296"/>
+      <c r="Q66" s="296"/>
+      <c r="R66" s="297"/>
       <c r="S66" s="1"/>
       <c r="T66" s="3"/>
     </row>
@@ -13070,14 +13070,14 @@
       </c>
       <c r="K67" s="89"/>
       <c r="L67" s="89"/>
-      <c r="M67" s="319" t="s">
+      <c r="M67" s="295" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="320"/>
-      <c r="O67" s="320"/>
-      <c r="P67" s="320"/>
-      <c r="Q67" s="320"/>
-      <c r="R67" s="321"/>
+      <c r="N67" s="296"/>
+      <c r="O67" s="296"/>
+      <c r="P67" s="296"/>
+      <c r="Q67" s="296"/>
+      <c r="R67" s="297"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
     </row>
@@ -13114,14 +13114,14 @@
       </c>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="319" t="s">
+      <c r="M68" s="295" t="s">
         <v>222</v>
       </c>
-      <c r="N68" s="320"/>
-      <c r="O68" s="320"/>
-      <c r="P68" s="320"/>
-      <c r="Q68" s="320"/>
-      <c r="R68" s="321"/>
+      <c r="N68" s="296"/>
+      <c r="O68" s="296"/>
+      <c r="P68" s="296"/>
+      <c r="Q68" s="296"/>
+      <c r="R68" s="297"/>
       <c r="S68" s="1"/>
       <c r="T68" s="3"/>
     </row>
@@ -13158,14 +13158,14 @@
       </c>
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
-      <c r="M69" s="319" t="s">
+      <c r="M69" s="295" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="320"/>
-      <c r="O69" s="320"/>
-      <c r="P69" s="320"/>
-      <c r="Q69" s="320"/>
-      <c r="R69" s="321"/>
+      <c r="N69" s="296"/>
+      <c r="O69" s="296"/>
+      <c r="P69" s="296"/>
+      <c r="Q69" s="296"/>
+      <c r="R69" s="297"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
     </row>
@@ -13202,14 +13202,14 @@
       </c>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="319" t="s">
+      <c r="M70" s="295" t="s">
         <v>224</v>
       </c>
-      <c r="N70" s="320"/>
-      <c r="O70" s="320"/>
-      <c r="P70" s="320"/>
-      <c r="Q70" s="320"/>
-      <c r="R70" s="321"/>
+      <c r="N70" s="296"/>
+      <c r="O70" s="296"/>
+      <c r="P70" s="296"/>
+      <c r="Q70" s="296"/>
+      <c r="R70" s="297"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
     </row>
@@ -13510,8 +13510,8 @@
       <c r="P75" s="6">
         <v>45387</v>
       </c>
-      <c r="Q75" s="323"/>
-      <c r="R75" s="324"/>
+      <c r="Q75" s="308"/>
+      <c r="R75" s="309"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3" t="s">
         <v>207</v>
@@ -13562,8 +13562,8 @@
       <c r="P76" s="6">
         <v>45387</v>
       </c>
-      <c r="Q76" s="323"/>
-      <c r="R76" s="324"/>
+      <c r="Q76" s="308"/>
+      <c r="R76" s="309"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3" t="s">
         <v>207</v>
@@ -13614,8 +13614,8 @@
       <c r="P77" s="6">
         <v>45387</v>
       </c>
-      <c r="Q77" s="323"/>
-      <c r="R77" s="324"/>
+      <c r="Q77" s="308"/>
+      <c r="R77" s="309"/>
       <c r="S77" s="1"/>
       <c r="T77" s="3" t="s">
         <v>207</v>
@@ -13666,8 +13666,8 @@
       <c r="P78" s="6">
         <v>45387</v>
       </c>
-      <c r="Q78" s="323"/>
-      <c r="R78" s="324"/>
+      <c r="Q78" s="308"/>
+      <c r="R78" s="309"/>
       <c r="S78" s="1"/>
       <c r="T78" s="3" t="s">
         <v>207</v>
@@ -13683,7 +13683,7 @@
       <c r="C79" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="304"/>
+      <c r="D79" s="310"/>
       <c r="E79" s="148" t="s">
         <v>88</v>
       </c>
@@ -13724,13 +13724,13 @@
       <c r="P79" s="6">
         <v>45363</v>
       </c>
-      <c r="Q79" s="295">
+      <c r="Q79" s="307">
         <v>8102</v>
       </c>
-      <c r="R79" s="322">
+      <c r="R79" s="304">
         <v>45387</v>
       </c>
-      <c r="S79" s="296">
+      <c r="S79" s="306">
         <v>45390</v>
       </c>
       <c r="T79" s="3" t="s">
@@ -13747,7 +13747,7 @@
       <c r="C80" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="305"/>
+      <c r="D80" s="311"/>
       <c r="E80" s="148" t="s">
         <v>88</v>
       </c>
@@ -13788,9 +13788,9 @@
       <c r="P80" s="135">
         <v>45363</v>
       </c>
-      <c r="Q80" s="315"/>
-      <c r="R80" s="309"/>
-      <c r="S80" s="328"/>
+      <c r="Q80" s="300"/>
+      <c r="R80" s="305"/>
+      <c r="S80" s="294"/>
       <c r="T80" s="183" t="s">
         <v>206</v>
       </c>
@@ -13865,7 +13865,7 @@
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="325"/>
+      <c r="D82" s="298"/>
       <c r="E82" s="185" t="s">
         <v>90</v>
       </c>
@@ -13906,13 +13906,13 @@
       <c r="P82" s="174">
         <v>45393</v>
       </c>
-      <c r="Q82" s="313">
+      <c r="Q82" s="299">
         <v>2723</v>
       </c>
-      <c r="R82" s="297">
+      <c r="R82" s="292">
         <v>45433</v>
       </c>
-      <c r="S82" s="326"/>
+      <c r="S82" s="302"/>
       <c r="T82" s="3" t="s">
         <v>207</v>
       </c>
@@ -13927,7 +13927,7 @@
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="325"/>
+      <c r="D83" s="298"/>
       <c r="E83" s="185" t="s">
         <v>90</v>
       </c>
@@ -13968,9 +13968,9 @@
       <c r="P83" s="90">
         <v>45432</v>
       </c>
-      <c r="Q83" s="315"/>
-      <c r="R83" s="290"/>
-      <c r="S83" s="327"/>
+      <c r="Q83" s="300"/>
+      <c r="R83" s="301"/>
+      <c r="S83" s="303"/>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14064,14 +14064,14 @@
         <f t="shared" ref="L85:L94" si="51">+(J85*12%)*G85</f>
         <v>313383.11412096</v>
       </c>
-      <c r="M85" s="319" t="s">
+      <c r="M85" s="295" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="320"/>
-      <c r="O85" s="320"/>
-      <c r="P85" s="320"/>
-      <c r="Q85" s="320"/>
-      <c r="R85" s="321"/>
+      <c r="N85" s="296"/>
+      <c r="O85" s="296"/>
+      <c r="P85" s="296"/>
+      <c r="Q85" s="296"/>
+      <c r="R85" s="297"/>
       <c r="S85" s="1"/>
       <c r="T85" s="3"/>
     </row>
@@ -14085,7 +14085,7 @@
       <c r="C86" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="325"/>
+      <c r="D86" s="298"/>
       <c r="E86" s="185" t="s">
         <v>94</v>
       </c>
@@ -14126,13 +14126,13 @@
       <c r="P86" s="20">
         <v>45415</v>
       </c>
-      <c r="Q86" s="306">
+      <c r="Q86" s="289">
         <v>313383</v>
       </c>
-      <c r="R86" s="297">
+      <c r="R86" s="292">
         <v>45405</v>
       </c>
-      <c r="S86" s="297">
+      <c r="S86" s="292">
         <v>45406</v>
       </c>
       <c r="T86" s="3"/>
@@ -14147,7 +14147,7 @@
       <c r="C87" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="325"/>
+      <c r="D87" s="298"/>
       <c r="E87" s="185" t="s">
         <v>94</v>
       </c>
@@ -14188,9 +14188,9 @@
       <c r="P87" s="20">
         <v>45440</v>
       </c>
-      <c r="Q87" s="329"/>
-      <c r="R87" s="330"/>
-      <c r="S87" s="330"/>
+      <c r="Q87" s="290"/>
+      <c r="R87" s="293"/>
+      <c r="S87" s="293"/>
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14203,7 +14203,7 @@
       <c r="C88" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="325"/>
+      <c r="D88" s="298"/>
       <c r="E88" s="185" t="s">
         <v>94</v>
       </c>
@@ -14236,9 +14236,9 @@
       <c r="N88" s="3"/>
       <c r="O88" s="181"/>
       <c r="P88" s="17"/>
-      <c r="Q88" s="329"/>
-      <c r="R88" s="330"/>
-      <c r="S88" s="330"/>
+      <c r="Q88" s="290"/>
+      <c r="R88" s="293"/>
+      <c r="S88" s="293"/>
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14251,7 @@
       <c r="C89" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="325"/>
+      <c r="D89" s="298"/>
       <c r="E89" s="185" t="s">
         <v>94</v>
       </c>
@@ -14284,9 +14284,9 @@
       <c r="N89" s="3"/>
       <c r="O89" s="181"/>
       <c r="P89" s="17"/>
-      <c r="Q89" s="329"/>
-      <c r="R89" s="330"/>
-      <c r="S89" s="330"/>
+      <c r="Q89" s="290"/>
+      <c r="R89" s="293"/>
+      <c r="S89" s="293"/>
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14299,7 +14299,7 @@
       <c r="C90" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="325"/>
+      <c r="D90" s="298"/>
       <c r="E90" s="185" t="s">
         <v>94</v>
       </c>
@@ -14332,9 +14332,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="181"/>
       <c r="P90" s="17"/>
-      <c r="Q90" s="329"/>
-      <c r="R90" s="330"/>
-      <c r="S90" s="330"/>
+      <c r="Q90" s="290"/>
+      <c r="R90" s="293"/>
+      <c r="S90" s="293"/>
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14347,7 +14347,7 @@
       <c r="C91" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="325"/>
+      <c r="D91" s="298"/>
       <c r="E91" s="185" t="s">
         <v>94</v>
       </c>
@@ -14380,9 +14380,9 @@
       <c r="N91" s="3"/>
       <c r="O91" s="181"/>
       <c r="P91" s="17"/>
-      <c r="Q91" s="307"/>
-      <c r="R91" s="328"/>
-      <c r="S91" s="328"/>
+      <c r="Q91" s="291"/>
+      <c r="R91" s="294"/>
+      <c r="S91" s="294"/>
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15516,14 +15516,14 @@
         <f>+(J111*12%)*G111</f>
         <v>2615.0673839999999</v>
       </c>
-      <c r="M111" s="298" t="s">
+      <c r="M111" s="286" t="s">
         <v>228</v>
       </c>
-      <c r="N111" s="303"/>
-      <c r="O111" s="303"/>
-      <c r="P111" s="303"/>
-      <c r="Q111" s="303"/>
-      <c r="R111" s="299"/>
+      <c r="N111" s="287"/>
+      <c r="O111" s="287"/>
+      <c r="P111" s="287"/>
+      <c r="Q111" s="287"/>
+      <c r="R111" s="288"/>
       <c r="S111" s="53"/>
       <c r="T111" s="53"/>
     </row>
@@ -16084,14 +16084,14 @@
         <f>+(J122*12%)</f>
         <v>28764.939768</v>
       </c>
-      <c r="M122" s="298" t="s">
+      <c r="M122" s="286" t="s">
         <v>231</v>
       </c>
-      <c r="N122" s="303"/>
-      <c r="O122" s="303"/>
-      <c r="P122" s="303"/>
-      <c r="Q122" s="303"/>
-      <c r="R122" s="299"/>
+      <c r="N122" s="287"/>
+      <c r="O122" s="287"/>
+      <c r="P122" s="287"/>
+      <c r="Q122" s="287"/>
+      <c r="R122" s="288"/>
       <c r="S122" s="92"/>
       <c r="T122" s="92"/>
     </row>
@@ -16552,14 +16552,14 @@
         <f t="shared" si="70"/>
         <v>13126.320000000002</v>
       </c>
-      <c r="M131" s="298" t="s">
+      <c r="M131" s="286" t="s">
         <v>234</v>
       </c>
-      <c r="N131" s="303"/>
-      <c r="O131" s="303"/>
-      <c r="P131" s="303"/>
-      <c r="Q131" s="303"/>
-      <c r="R131" s="299"/>
+      <c r="N131" s="287"/>
+      <c r="O131" s="287"/>
+      <c r="P131" s="287"/>
+      <c r="Q131" s="287"/>
+      <c r="R131" s="288"/>
       <c r="S131" s="92"/>
       <c r="T131" s="92"/>
     </row>
@@ -16698,14 +16698,14 @@
         <f t="shared" si="70"/>
         <v>48572.901220272004</v>
       </c>
-      <c r="M134" s="298" t="s">
+      <c r="M134" s="286" t="s">
         <v>235</v>
       </c>
-      <c r="N134" s="303"/>
-      <c r="O134" s="303"/>
-      <c r="P134" s="303"/>
-      <c r="Q134" s="303"/>
-      <c r="R134" s="299"/>
+      <c r="N134" s="287"/>
+      <c r="O134" s="287"/>
+      <c r="P134" s="287"/>
+      <c r="Q134" s="287"/>
+      <c r="R134" s="288"/>
       <c r="S134" s="92"/>
       <c r="T134" s="92"/>
     </row>
@@ -16800,14 +16800,14 @@
         <f t="shared" si="70"/>
         <v>1558.579872</v>
       </c>
-      <c r="M136" s="298" t="s">
+      <c r="M136" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="N136" s="303"/>
-      <c r="O136" s="303"/>
-      <c r="P136" s="303"/>
-      <c r="Q136" s="303"/>
-      <c r="R136" s="299"/>
+      <c r="N136" s="287"/>
+      <c r="O136" s="287"/>
+      <c r="P136" s="287"/>
+      <c r="Q136" s="287"/>
+      <c r="R136" s="288"/>
       <c r="S136" s="95"/>
       <c r="T136" s="95"/>
     </row>
@@ -17284,14 +17284,14 @@
         <f t="shared" ref="L146:L148" si="71">+(J146*12%)*G146</f>
         <v>1564.8509819999997</v>
       </c>
-      <c r="M146" s="298" t="s">
+      <c r="M146" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="N146" s="303"/>
-      <c r="O146" s="303"/>
-      <c r="P146" s="303"/>
-      <c r="Q146" s="303"/>
-      <c r="R146" s="299"/>
+      <c r="N146" s="287"/>
+      <c r="O146" s="287"/>
+      <c r="P146" s="287"/>
+      <c r="Q146" s="287"/>
+      <c r="R146" s="288"/>
       <c r="S146" s="95"/>
       <c r="T146" s="95"/>
     </row>
@@ -18042,39 +18042,30 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="71">
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="R86:R91"/>
-    <mergeCell ref="S86:S91"/>
-    <mergeCell ref="M85:R85"/>
-    <mergeCell ref="M111:R111"/>
-    <mergeCell ref="M122:R122"/>
-    <mergeCell ref="M131:R131"/>
-    <mergeCell ref="M134:R134"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="M67:R67"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
     <mergeCell ref="T21:T22"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="R35:R41"/>
@@ -18089,30 +18080,39 @@
     <mergeCell ref="S46:S48"/>
     <mergeCell ref="T46:T48"/>
     <mergeCell ref="M45:R45"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="R86:R91"/>
+    <mergeCell ref="S86:S91"/>
+    <mergeCell ref="M85:R85"/>
+    <mergeCell ref="M111:R111"/>
+    <mergeCell ref="M122:R122"/>
+    <mergeCell ref="M131:R131"/>
+    <mergeCell ref="M134:R134"/>
+    <mergeCell ref="M136:R136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18234,14 +18234,14 @@
         <f>+(J3*12%)*G3</f>
         <v>2027.4500399999997</v>
       </c>
-      <c r="M3" s="336" t="s">
+      <c r="M3" s="366" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="336"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="366"/>
+      <c r="R3" s="366"/>
       <c r="S3" s="3"/>
       <c r="T3" s="1"/>
     </row>
@@ -18284,14 +18284,14 @@
         <f t="shared" ref="L4:L23" si="3">+(J4*12%)*G4</f>
         <v>1481.6885005439999</v>
       </c>
-      <c r="M4" s="336" t="s">
+      <c r="M4" s="366" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="336"/>
-      <c r="O4" s="336"/>
-      <c r="P4" s="336"/>
-      <c r="Q4" s="336"/>
-      <c r="R4" s="336"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="366"/>
+      <c r="P4" s="366"/>
+      <c r="Q4" s="366"/>
+      <c r="R4" s="366"/>
       <c r="S4" s="7"/>
       <c r="T4" s="1"/>
     </row>
@@ -18402,10 +18402,10 @@
       <c r="P6" s="6">
         <v>45334</v>
       </c>
-      <c r="Q6" s="337" t="s">
+      <c r="Q6" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R6" s="337"/>
+      <c r="R6" s="342"/>
       <c r="S6" s="3"/>
       <c r="T6" s="1"/>
     </row>
@@ -18454,10 +18454,10 @@
       <c r="P7" s="6">
         <v>45334</v>
       </c>
-      <c r="Q7" s="337" t="s">
+      <c r="Q7" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="337"/>
+      <c r="R7" s="342"/>
       <c r="S7" s="3"/>
       <c r="T7" s="1"/>
     </row>
@@ -18589,38 +18589,38 @@
       <c r="A10" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="310">
+      <c r="B10" s="312">
         <v>20250406941</v>
       </c>
-      <c r="C10" s="342" t="s">
+      <c r="C10" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325" t="s">
+      <c r="D10" s="298"/>
+      <c r="E10" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="296">
+      <c r="F10" s="306">
         <v>45309</v>
       </c>
-      <c r="G10" s="325">
+      <c r="G10" s="298">
         <v>3.7389999999999999</v>
       </c>
-      <c r="H10" s="338">
+      <c r="H10" s="335">
         <v>106218</v>
       </c>
-      <c r="I10" s="338">
+      <c r="I10" s="335">
         <f t="shared" si="0"/>
         <v>19119.239999999998</v>
       </c>
-      <c r="J10" s="338">
+      <c r="J10" s="335">
         <f t="shared" si="1"/>
         <v>125337.23999999999</v>
       </c>
-      <c r="K10" s="339">
+      <c r="K10" s="336">
         <f t="shared" si="2"/>
         <v>110296.77119999999</v>
       </c>
-      <c r="L10" s="339">
+      <c r="L10" s="336">
         <f t="shared" si="3"/>
         <v>56236.312843199994</v>
       </c>
@@ -18636,13 +18636,13 @@
       <c r="P10" s="6">
         <v>45359</v>
       </c>
-      <c r="Q10" s="295">
+      <c r="Q10" s="307">
         <v>56236</v>
       </c>
-      <c r="R10" s="296">
+      <c r="R10" s="306">
         <v>45329</v>
       </c>
-      <c r="S10" s="296">
+      <c r="S10" s="306">
         <v>45330</v>
       </c>
       <c r="T10" s="1"/>
@@ -18651,17 +18651,17 @@
       <c r="A11" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="310"/>
-      <c r="C11" s="342"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="296"/>
-      <c r="G11" s="325"/>
-      <c r="H11" s="338"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
+      <c r="B11" s="312"/>
+      <c r="C11" s="339"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="335"/>
+      <c r="I11" s="335"/>
+      <c r="J11" s="335"/>
+      <c r="K11" s="336"/>
+      <c r="L11" s="336"/>
       <c r="M11" s="47">
         <v>27574.19</v>
       </c>
@@ -18674,26 +18674,26 @@
       <c r="P11" s="6">
         <v>45366</v>
       </c>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
+      <c r="Q11" s="307"/>
+      <c r="R11" s="306"/>
+      <c r="S11" s="306"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="310"/>
-      <c r="C12" s="342"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="338"/>
-      <c r="I12" s="338"/>
-      <c r="J12" s="338"/>
-      <c r="K12" s="339"/>
-      <c r="L12" s="339"/>
+      <c r="B12" s="312"/>
+      <c r="C12" s="339"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="335"/>
+      <c r="I12" s="335"/>
+      <c r="J12" s="335"/>
+      <c r="K12" s="336"/>
+      <c r="L12" s="336"/>
       <c r="M12" s="36">
         <v>27574.19</v>
       </c>
@@ -18706,26 +18706,26 @@
       <c r="P12" s="20">
         <v>45393</v>
       </c>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
+      <c r="Q12" s="307"/>
+      <c r="R12" s="306"/>
+      <c r="S12" s="306"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="310"/>
-      <c r="C13" s="342"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="325"/>
-      <c r="H13" s="338"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="338"/>
-      <c r="K13" s="339"/>
-      <c r="L13" s="339"/>
+      <c r="B13" s="312"/>
+      <c r="C13" s="339"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="335"/>
+      <c r="I13" s="335"/>
+      <c r="J13" s="335"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="336"/>
       <c r="M13" s="47">
         <v>27574.19</v>
       </c>
@@ -18738,9 +18738,9 @@
       <c r="P13" s="20">
         <v>45426</v>
       </c>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="296"/>
+      <c r="Q13" s="307"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="306"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -18788,10 +18788,10 @@
       <c r="P14" s="6">
         <v>45483</v>
       </c>
-      <c r="Q14" s="337" t="s">
+      <c r="Q14" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="337"/>
+      <c r="R14" s="342"/>
       <c r="S14" s="3"/>
       <c r="T14" s="1"/>
     </row>
@@ -18840,10 +18840,10 @@
       <c r="P15" s="6">
         <v>45483</v>
       </c>
-      <c r="Q15" s="337" t="s">
+      <c r="Q15" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R15" s="337"/>
+      <c r="R15" s="342"/>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
     </row>
@@ -18892,10 +18892,10 @@
       <c r="P16" s="6">
         <v>45483</v>
       </c>
-      <c r="Q16" s="337" t="s">
+      <c r="Q16" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="337"/>
+      <c r="R16" s="342"/>
       <c r="S16" s="3"/>
       <c r="T16" s="1"/>
     </row>
@@ -18938,14 +18938,14 @@
         <f>+(J17*12%)</f>
         <v>18478.8</v>
       </c>
-      <c r="M17" s="337" t="s">
+      <c r="M17" s="342" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="337"/>
-      <c r="O17" s="337"/>
-      <c r="P17" s="337"/>
-      <c r="Q17" s="337"/>
-      <c r="R17" s="337"/>
+      <c r="N17" s="342"/>
+      <c r="O17" s="342"/>
+      <c r="P17" s="342"/>
+      <c r="Q17" s="342"/>
+      <c r="R17" s="342"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
     </row>
@@ -19056,10 +19056,10 @@
       <c r="P19" s="20">
         <v>45348</v>
       </c>
-      <c r="Q19" s="337" t="s">
+      <c r="Q19" s="342" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="337"/>
+      <c r="R19" s="342"/>
       <c r="S19" s="16"/>
       <c r="T19" s="1"/>
     </row>
@@ -19129,51 +19129,51 @@
       <c r="A21" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="310">
+      <c r="B21" s="312">
         <v>20250406941</v>
       </c>
-      <c r="C21" s="350" t="s">
+      <c r="C21" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="340"/>
-      <c r="E21" s="340" t="s">
+      <c r="D21" s="352"/>
+      <c r="E21" s="352" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="322">
+      <c r="F21" s="304">
         <v>45320</v>
       </c>
-      <c r="G21" s="340">
+      <c r="G21" s="352">
         <v>3.786</v>
       </c>
-      <c r="H21" s="341">
+      <c r="H21" s="360">
         <v>12335</v>
       </c>
-      <c r="I21" s="347">
+      <c r="I21" s="351">
         <f t="shared" si="4"/>
         <v>2220.2999999999997</v>
       </c>
-      <c r="J21" s="338">
+      <c r="J21" s="335">
         <f t="shared" si="1"/>
         <v>14555.3</v>
       </c>
-      <c r="K21" s="348">
+      <c r="K21" s="357">
         <f t="shared" si="2"/>
         <v>12808.663999999999</v>
       </c>
-      <c r="L21" s="349">
+      <c r="L21" s="358">
         <f t="shared" si="3"/>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M21" s="338">
+      <c r="M21" s="335">
         <v>12808.66</v>
       </c>
-      <c r="N21" s="340" t="s">
+      <c r="N21" s="352" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="340" t="s">
+      <c r="O21" s="352" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="322">
+      <c r="P21" s="304">
         <v>45372</v>
       </c>
       <c r="Q21" s="36">
@@ -19191,21 +19191,21 @@
       <c r="A22" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="310"/>
-      <c r="C22" s="350"/>
-      <c r="D22" s="340"/>
-      <c r="E22" s="340"/>
-      <c r="F22" s="322"/>
-      <c r="G22" s="340"/>
-      <c r="H22" s="341"/>
-      <c r="I22" s="347"/>
-      <c r="J22" s="338"/>
-      <c r="K22" s="348"/>
-      <c r="L22" s="349"/>
-      <c r="M22" s="338"/>
-      <c r="N22" s="340"/>
-      <c r="O22" s="340"/>
-      <c r="P22" s="322"/>
+      <c r="B22" s="312"/>
+      <c r="C22" s="359"/>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="352"/>
+      <c r="H22" s="360"/>
+      <c r="I22" s="351"/>
+      <c r="J22" s="335"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="358"/>
+      <c r="M22" s="335"/>
+      <c r="N22" s="352"/>
+      <c r="O22" s="352"/>
+      <c r="P22" s="304"/>
       <c r="Q22" s="36">
         <v>75</v>
       </c>
@@ -19938,38 +19938,38 @@
       <c r="A35" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="310">
+      <c r="B35" s="312">
         <v>20507637141</v>
       </c>
-      <c r="C35" s="342" t="s">
+      <c r="C35" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="310"/>
-      <c r="E35" s="345" t="s">
+      <c r="D35" s="312"/>
+      <c r="E35" s="334" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="322">
+      <c r="F35" s="304">
         <v>45337</v>
       </c>
-      <c r="G35" s="310">
+      <c r="G35" s="312">
         <v>3.8769999999999998</v>
       </c>
-      <c r="H35" s="346">
+      <c r="H35" s="355">
         <v>61920</v>
       </c>
-      <c r="I35" s="338">
+      <c r="I35" s="335">
         <f t="shared" si="8"/>
         <v>11145.6</v>
       </c>
-      <c r="J35" s="338">
+      <c r="J35" s="335">
         <f t="shared" si="9"/>
         <v>73065.600000000006</v>
       </c>
-      <c r="K35" s="339">
+      <c r="K35" s="336">
         <f t="shared" si="10"/>
         <v>64297.728000000003</v>
       </c>
-      <c r="L35" s="344">
+      <c r="L35" s="341">
         <f t="shared" si="11"/>
         <v>33993.039744000002</v>
       </c>
@@ -19985,13 +19985,13 @@
       <c r="P35" s="20">
         <v>45338</v>
       </c>
-      <c r="Q35" s="295">
+      <c r="Q35" s="307">
         <v>33993.040000000001</v>
       </c>
-      <c r="R35" s="322">
+      <c r="R35" s="304">
         <v>45358</v>
       </c>
-      <c r="S35" s="322">
+      <c r="S35" s="304">
         <v>45359</v>
       </c>
       <c r="T35" s="1"/>
@@ -20000,17 +20000,17 @@
       <c r="A36" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="310"/>
-      <c r="C36" s="342"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="345"/>
-      <c r="F36" s="322"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="346"/>
-      <c r="I36" s="338"/>
-      <c r="J36" s="338"/>
-      <c r="K36" s="339"/>
-      <c r="L36" s="344"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="339"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="355"/>
+      <c r="I36" s="335"/>
+      <c r="J36" s="335"/>
+      <c r="K36" s="336"/>
+      <c r="L36" s="341"/>
       <c r="M36" s="36">
         <v>10000</v>
       </c>
@@ -20023,26 +20023,26 @@
       <c r="P36" s="20">
         <v>45338</v>
       </c>
-      <c r="Q36" s="295"/>
-      <c r="R36" s="310"/>
-      <c r="S36" s="310"/>
+      <c r="Q36" s="307"/>
+      <c r="R36" s="312"/>
+      <c r="S36" s="312"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="310"/>
-      <c r="C37" s="342"/>
-      <c r="D37" s="310"/>
-      <c r="E37" s="345"/>
-      <c r="F37" s="322"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="346"/>
-      <c r="I37" s="338"/>
-      <c r="J37" s="338"/>
-      <c r="K37" s="339"/>
-      <c r="L37" s="344"/>
+      <c r="B37" s="312"/>
+      <c r="C37" s="339"/>
+      <c r="D37" s="312"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="304"/>
+      <c r="G37" s="312"/>
+      <c r="H37" s="355"/>
+      <c r="I37" s="335"/>
+      <c r="J37" s="335"/>
+      <c r="K37" s="336"/>
+      <c r="L37" s="341"/>
       <c r="M37" s="36">
         <v>10000</v>
       </c>
@@ -20055,26 +20055,26 @@
       <c r="P37" s="20">
         <v>45338</v>
       </c>
-      <c r="Q37" s="295"/>
-      <c r="R37" s="310"/>
-      <c r="S37" s="310"/>
+      <c r="Q37" s="307"/>
+      <c r="R37" s="312"/>
+      <c r="S37" s="312"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="310"/>
-      <c r="C38" s="342"/>
-      <c r="D38" s="310"/>
-      <c r="E38" s="345"/>
-      <c r="F38" s="322"/>
-      <c r="G38" s="310"/>
-      <c r="H38" s="346"/>
-      <c r="I38" s="338"/>
-      <c r="J38" s="338"/>
-      <c r="K38" s="339"/>
-      <c r="L38" s="344"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="339"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="304"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="355"/>
+      <c r="I38" s="335"/>
+      <c r="J38" s="335"/>
+      <c r="K38" s="336"/>
+      <c r="L38" s="341"/>
       <c r="M38" s="36">
         <v>10000</v>
       </c>
@@ -20087,26 +20087,26 @@
       <c r="P38" s="20">
         <v>45338</v>
       </c>
-      <c r="Q38" s="295"/>
-      <c r="R38" s="310"/>
-      <c r="S38" s="310"/>
+      <c r="Q38" s="307"/>
+      <c r="R38" s="312"/>
+      <c r="S38" s="312"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="310"/>
-      <c r="C39" s="342"/>
-      <c r="D39" s="310"/>
-      <c r="E39" s="345"/>
-      <c r="F39" s="322"/>
-      <c r="G39" s="310"/>
-      <c r="H39" s="346"/>
-      <c r="I39" s="338"/>
-      <c r="J39" s="338"/>
-      <c r="K39" s="339"/>
-      <c r="L39" s="344"/>
+      <c r="B39" s="312"/>
+      <c r="C39" s="339"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="334"/>
+      <c r="F39" s="304"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="335"/>
+      <c r="J39" s="335"/>
+      <c r="K39" s="336"/>
+      <c r="L39" s="341"/>
       <c r="M39" s="36">
         <v>10000</v>
       </c>
@@ -20119,26 +20119,26 @@
       <c r="P39" s="20">
         <v>45338</v>
       </c>
-      <c r="Q39" s="295"/>
-      <c r="R39" s="310"/>
-      <c r="S39" s="310"/>
+      <c r="Q39" s="307"/>
+      <c r="R39" s="312"/>
+      <c r="S39" s="312"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="310"/>
-      <c r="C40" s="342"/>
-      <c r="D40" s="310"/>
-      <c r="E40" s="345"/>
-      <c r="F40" s="322"/>
-      <c r="G40" s="310"/>
-      <c r="H40" s="346"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="339"/>
-      <c r="L40" s="344"/>
+      <c r="B40" s="312"/>
+      <c r="C40" s="339"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="334"/>
+      <c r="F40" s="304"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="355"/>
+      <c r="I40" s="335"/>
+      <c r="J40" s="335"/>
+      <c r="K40" s="336"/>
+      <c r="L40" s="341"/>
       <c r="M40" s="36">
         <v>10000</v>
       </c>
@@ -20151,26 +20151,26 @@
       <c r="P40" s="20">
         <v>45338</v>
       </c>
-      <c r="Q40" s="295"/>
-      <c r="R40" s="310"/>
-      <c r="S40" s="310"/>
+      <c r="Q40" s="307"/>
+      <c r="R40" s="312"/>
+      <c r="S40" s="312"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="310"/>
-      <c r="C41" s="342"/>
-      <c r="D41" s="310"/>
-      <c r="E41" s="345"/>
-      <c r="F41" s="322"/>
-      <c r="G41" s="310"/>
-      <c r="H41" s="346"/>
-      <c r="I41" s="338"/>
-      <c r="J41" s="338"/>
-      <c r="K41" s="339"/>
-      <c r="L41" s="344"/>
+      <c r="B41" s="312"/>
+      <c r="C41" s="339"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="334"/>
+      <c r="F41" s="304"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="355"/>
+      <c r="I41" s="335"/>
+      <c r="J41" s="335"/>
+      <c r="K41" s="336"/>
+      <c r="L41" s="341"/>
       <c r="M41" s="36">
         <v>4297.7299999999996</v>
       </c>
@@ -20183,9 +20183,9 @@
       <c r="P41" s="20">
         <v>45338</v>
       </c>
-      <c r="Q41" s="295"/>
-      <c r="R41" s="310"/>
-      <c r="S41" s="310"/>
+      <c r="Q41" s="307"/>
+      <c r="R41" s="312"/>
+      <c r="S41" s="312"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20227,14 +20227,14 @@
         <f t="shared" si="11"/>
         <v>415.01482970400002</v>
       </c>
-      <c r="M42" s="337" t="s">
+      <c r="M42" s="342" t="s">
         <v>212</v>
       </c>
-      <c r="N42" s="337"/>
-      <c r="O42" s="337"/>
-      <c r="P42" s="337"/>
-      <c r="Q42" s="337"/>
-      <c r="R42" s="337"/>
+      <c r="N42" s="342"/>
+      <c r="O42" s="342"/>
+      <c r="P42" s="342"/>
+      <c r="Q42" s="342"/>
+      <c r="R42" s="342"/>
       <c r="S42" s="16"/>
       <c r="T42" s="1"/>
     </row>
@@ -20277,14 +20277,14 @@
         <f t="shared" si="11"/>
         <v>8763.3974399999988</v>
       </c>
-      <c r="M43" s="337" t="s">
+      <c r="M43" s="342" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="337"/>
-      <c r="O43" s="337"/>
-      <c r="P43" s="337"/>
-      <c r="Q43" s="337"/>
-      <c r="R43" s="337"/>
+      <c r="N43" s="342"/>
+      <c r="O43" s="342"/>
+      <c r="P43" s="342"/>
+      <c r="Q43" s="342"/>
+      <c r="R43" s="342"/>
       <c r="S43" s="22"/>
       <c r="T43" s="1"/>
     </row>
@@ -20327,14 +20327,14 @@
         <f t="shared" si="11"/>
         <v>16764.760319999998</v>
       </c>
-      <c r="M44" s="337" t="s">
+      <c r="M44" s="342" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="337"/>
-      <c r="O44" s="337"/>
-      <c r="P44" s="337"/>
-      <c r="Q44" s="337"/>
-      <c r="R44" s="337"/>
+      <c r="N44" s="342"/>
+      <c r="O44" s="342"/>
+      <c r="P44" s="342"/>
+      <c r="Q44" s="342"/>
+      <c r="R44" s="342"/>
       <c r="S44" s="22"/>
       <c r="T44" s="1"/>
     </row>
@@ -20377,14 +20377,14 @@
         <f>+(J45*12%)</f>
         <v>155.34652800000001</v>
       </c>
-      <c r="M45" s="337" t="s">
+      <c r="M45" s="342" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="337"/>
-      <c r="O45" s="337"/>
-      <c r="P45" s="337"/>
-      <c r="Q45" s="337"/>
-      <c r="R45" s="337"/>
+      <c r="N45" s="342"/>
+      <c r="O45" s="342"/>
+      <c r="P45" s="342"/>
+      <c r="Q45" s="342"/>
+      <c r="R45" s="342"/>
       <c r="S45" s="56"/>
       <c r="T45" s="1"/>
     </row>
@@ -20392,38 +20392,38 @@
       <c r="A46" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="310">
+      <c r="B46" s="312">
         <v>20100704227</v>
       </c>
-      <c r="C46" s="342" t="s">
+      <c r="C46" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="310"/>
-      <c r="E46" s="345" t="s">
+      <c r="D46" s="312"/>
+      <c r="E46" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="322">
+      <c r="F46" s="304">
         <v>45343</v>
       </c>
-      <c r="G46" s="310">
+      <c r="G46" s="312">
         <v>3.7839999999999998</v>
       </c>
-      <c r="H46" s="346">
+      <c r="H46" s="355">
         <v>1175</v>
       </c>
-      <c r="I46" s="338">
+      <c r="I46" s="335">
         <f t="shared" si="8"/>
         <v>211.5</v>
       </c>
-      <c r="J46" s="338">
+      <c r="J46" s="335">
         <f t="shared" si="9"/>
         <v>1386.5</v>
       </c>
-      <c r="K46" s="339">
+      <c r="K46" s="336">
         <f t="shared" si="10"/>
         <v>1220.1199999999999</v>
       </c>
-      <c r="L46" s="344">
+      <c r="L46" s="341">
         <f t="shared" si="11"/>
         <v>629.58191999999997</v>
       </c>
@@ -20439,13 +20439,13 @@
       <c r="P46" s="20">
         <v>45358</v>
       </c>
-      <c r="Q46" s="295">
+      <c r="Q46" s="307">
         <v>630</v>
       </c>
-      <c r="R46" s="322">
+      <c r="R46" s="304">
         <v>45421</v>
       </c>
-      <c r="S46" s="322">
+      <c r="S46" s="304">
         <v>45422</v>
       </c>
       <c r="T46" s="1"/>
@@ -20454,17 +20454,17 @@
       <c r="A47" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="342"/>
-      <c r="D47" s="310"/>
-      <c r="E47" s="345"/>
-      <c r="F47" s="322"/>
-      <c r="G47" s="310"/>
-      <c r="H47" s="346"/>
-      <c r="I47" s="338"/>
-      <c r="J47" s="338"/>
-      <c r="K47" s="339"/>
-      <c r="L47" s="344"/>
+      <c r="B47" s="312"/>
+      <c r="C47" s="339"/>
+      <c r="D47" s="312"/>
+      <c r="E47" s="334"/>
+      <c r="F47" s="304"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="355"/>
+      <c r="I47" s="335"/>
+      <c r="J47" s="335"/>
+      <c r="K47" s="336"/>
+      <c r="L47" s="341"/>
       <c r="M47" s="36">
         <v>406.71</v>
       </c>
@@ -20477,26 +20477,26 @@
       <c r="P47" s="20">
         <v>45369</v>
       </c>
-      <c r="Q47" s="295"/>
-      <c r="R47" s="310"/>
-      <c r="S47" s="310"/>
+      <c r="Q47" s="307"/>
+      <c r="R47" s="312"/>
+      <c r="S47" s="312"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="310"/>
-      <c r="C48" s="342"/>
-      <c r="D48" s="310"/>
-      <c r="E48" s="345"/>
-      <c r="F48" s="322"/>
-      <c r="G48" s="310"/>
-      <c r="H48" s="346"/>
-      <c r="I48" s="338"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="339"/>
-      <c r="L48" s="344"/>
+      <c r="B48" s="312"/>
+      <c r="C48" s="339"/>
+      <c r="D48" s="312"/>
+      <c r="E48" s="334"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="312"/>
+      <c r="H48" s="355"/>
+      <c r="I48" s="335"/>
+      <c r="J48" s="335"/>
+      <c r="K48" s="336"/>
+      <c r="L48" s="341"/>
       <c r="M48" s="36">
         <v>406.71</v>
       </c>
@@ -20509,9 +20509,9 @@
       <c r="P48" s="20">
         <v>45377</v>
       </c>
-      <c r="Q48" s="295"/>
-      <c r="R48" s="310"/>
-      <c r="S48" s="310"/>
+      <c r="Q48" s="307"/>
+      <c r="R48" s="312"/>
+      <c r="S48" s="312"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20704,38 +20704,38 @@
       <c r="A52" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="310">
+      <c r="B52" s="312">
         <v>20102102321</v>
       </c>
-      <c r="C52" s="342" t="s">
+      <c r="C52" s="339" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="310"/>
-      <c r="E52" s="345" t="s">
+      <c r="D52" s="312"/>
+      <c r="E52" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="322">
+      <c r="F52" s="304">
         <v>45349</v>
       </c>
-      <c r="G52" s="310">
+      <c r="G52" s="312">
         <v>3.8029999999999999</v>
       </c>
-      <c r="H52" s="295">
+      <c r="H52" s="307">
         <v>9558</v>
       </c>
-      <c r="I52" s="295">
+      <c r="I52" s="307">
         <f t="shared" si="8"/>
         <v>1720.4399999999998</v>
       </c>
-      <c r="J52" s="295">
+      <c r="J52" s="307">
         <f t="shared" si="9"/>
         <v>11278.44</v>
       </c>
-      <c r="K52" s="343">
+      <c r="K52" s="356">
         <f t="shared" si="10"/>
         <v>9925.0272000000004</v>
       </c>
-      <c r="L52" s="344">
+      <c r="L52" s="341">
         <f t="shared" si="11"/>
         <v>5147.0288784000004</v>
       </c>
@@ -20751,13 +20751,13 @@
       <c r="P52" s="20">
         <v>45377</v>
       </c>
-      <c r="Q52" s="295">
+      <c r="Q52" s="307">
         <v>5147</v>
       </c>
-      <c r="R52" s="322">
+      <c r="R52" s="304">
         <v>45358</v>
       </c>
-      <c r="S52" s="322">
+      <c r="S52" s="304">
         <v>45359</v>
       </c>
       <c r="T52" s="1"/>
@@ -20766,17 +20766,17 @@
       <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="310"/>
-      <c r="C53" s="342"/>
-      <c r="D53" s="310"/>
-      <c r="E53" s="345"/>
-      <c r="F53" s="322"/>
-      <c r="G53" s="310"/>
-      <c r="H53" s="295"/>
-      <c r="I53" s="295"/>
-      <c r="J53" s="295"/>
-      <c r="K53" s="343"/>
-      <c r="L53" s="344"/>
+      <c r="B53" s="312"/>
+      <c r="C53" s="339"/>
+      <c r="D53" s="312"/>
+      <c r="E53" s="334"/>
+      <c r="F53" s="304"/>
+      <c r="G53" s="312"/>
+      <c r="H53" s="307"/>
+      <c r="I53" s="307"/>
+      <c r="J53" s="307"/>
+      <c r="K53" s="356"/>
+      <c r="L53" s="341"/>
       <c r="M53" s="36">
         <v>8925.0300000000007</v>
       </c>
@@ -20789,9 +20789,9 @@
       <c r="P53" s="20">
         <v>45377</v>
       </c>
-      <c r="Q53" s="295"/>
-      <c r="R53" s="322"/>
-      <c r="S53" s="322"/>
+      <c r="Q53" s="307"/>
+      <c r="R53" s="304"/>
+      <c r="S53" s="304"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21515,14 +21515,14 @@
         <f t="shared" si="13"/>
         <v>111.9260208</v>
       </c>
-      <c r="M65" s="353" t="s">
+      <c r="M65" s="340" t="s">
         <v>219</v>
       </c>
-      <c r="N65" s="353"/>
-      <c r="O65" s="353"/>
-      <c r="P65" s="353"/>
-      <c r="Q65" s="353"/>
-      <c r="R65" s="353"/>
+      <c r="N65" s="340"/>
+      <c r="O65" s="340"/>
+      <c r="P65" s="340"/>
+      <c r="Q65" s="340"/>
+      <c r="R65" s="340"/>
       <c r="S65" s="3"/>
       <c r="T65" s="1"/>
     </row>
@@ -21565,14 +21565,14 @@
         <f t="shared" si="13"/>
         <v>109.06092888000001</v>
       </c>
-      <c r="M66" s="353" t="s">
+      <c r="M66" s="340" t="s">
         <v>220</v>
       </c>
-      <c r="N66" s="353"/>
-      <c r="O66" s="353"/>
-      <c r="P66" s="353"/>
-      <c r="Q66" s="353"/>
-      <c r="R66" s="353"/>
+      <c r="N66" s="340"/>
+      <c r="O66" s="340"/>
+      <c r="P66" s="340"/>
+      <c r="Q66" s="340"/>
+      <c r="R66" s="340"/>
       <c r="S66" s="3"/>
       <c r="T66" s="1"/>
     </row>
@@ -21609,14 +21609,14 @@
       </c>
       <c r="K67" s="89"/>
       <c r="L67" s="89"/>
-      <c r="M67" s="353" t="s">
+      <c r="M67" s="340" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="353"/>
-      <c r="O67" s="353"/>
-      <c r="P67" s="353"/>
-      <c r="Q67" s="353"/>
-      <c r="R67" s="353"/>
+      <c r="N67" s="340"/>
+      <c r="O67" s="340"/>
+      <c r="P67" s="340"/>
+      <c r="Q67" s="340"/>
+      <c r="R67" s="340"/>
       <c r="S67" s="3"/>
       <c r="T67" s="1"/>
     </row>
@@ -21653,14 +21653,14 @@
       </c>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="353" t="s">
+      <c r="M68" s="340" t="s">
         <v>222</v>
       </c>
-      <c r="N68" s="353"/>
-      <c r="O68" s="353"/>
-      <c r="P68" s="353"/>
-      <c r="Q68" s="353"/>
-      <c r="R68" s="353"/>
+      <c r="N68" s="340"/>
+      <c r="O68" s="340"/>
+      <c r="P68" s="340"/>
+      <c r="Q68" s="340"/>
+      <c r="R68" s="340"/>
       <c r="S68" s="3"/>
       <c r="T68" s="1"/>
     </row>
@@ -21697,14 +21697,14 @@
       </c>
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
-      <c r="M69" s="353" t="s">
+      <c r="M69" s="340" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="353"/>
-      <c r="O69" s="353"/>
-      <c r="P69" s="353"/>
-      <c r="Q69" s="353"/>
-      <c r="R69" s="353"/>
+      <c r="N69" s="340"/>
+      <c r="O69" s="340"/>
+      <c r="P69" s="340"/>
+      <c r="Q69" s="340"/>
+      <c r="R69" s="340"/>
       <c r="S69" s="3"/>
       <c r="T69" s="1"/>
     </row>
@@ -21741,14 +21741,14 @@
       </c>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="353" t="s">
+      <c r="M70" s="340" t="s">
         <v>224</v>
       </c>
-      <c r="N70" s="353"/>
-      <c r="O70" s="353"/>
-      <c r="P70" s="353"/>
-      <c r="Q70" s="353"/>
-      <c r="R70" s="353"/>
+      <c r="N70" s="340"/>
+      <c r="O70" s="340"/>
+      <c r="P70" s="340"/>
+      <c r="Q70" s="340"/>
+      <c r="R70" s="340"/>
       <c r="S70" s="3"/>
       <c r="T70" s="1"/>
     </row>
@@ -22204,38 +22204,38 @@
       <c r="A79" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="310">
+      <c r="B79" s="312">
         <v>20507637141</v>
       </c>
-      <c r="C79" s="342" t="s">
+      <c r="C79" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="340"/>
-      <c r="E79" s="351" t="s">
+      <c r="D79" s="352"/>
+      <c r="E79" s="353" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="296">
+      <c r="F79" s="306">
         <v>45362</v>
       </c>
-      <c r="G79" s="352">
+      <c r="G79" s="354">
         <v>3.6960000000000002</v>
       </c>
-      <c r="H79" s="357">
+      <c r="H79" s="350">
         <v>15480</v>
       </c>
-      <c r="I79" s="347">
+      <c r="I79" s="351">
         <f t="shared" si="14"/>
         <v>2786.4</v>
       </c>
-      <c r="J79" s="347">
+      <c r="J79" s="351">
         <f t="shared" si="15"/>
         <v>18266.400000000001</v>
       </c>
-      <c r="K79" s="339">
+      <c r="K79" s="336">
         <f t="shared" ref="K79" si="17">+J79-(J79*12%)</f>
         <v>16074.432000000001</v>
       </c>
-      <c r="L79" s="339">
+      <c r="L79" s="336">
         <f t="shared" ref="L79" si="18">+(J79*12%)*G79</f>
         <v>8101.5137280000017</v>
       </c>
@@ -22251,13 +22251,13 @@
       <c r="P79" s="6">
         <v>45363</v>
       </c>
-      <c r="Q79" s="295">
+      <c r="Q79" s="307">
         <v>8102</v>
       </c>
-      <c r="R79" s="322">
+      <c r="R79" s="304">
         <v>45387</v>
       </c>
-      <c r="S79" s="296">
+      <c r="S79" s="306">
         <v>45390</v>
       </c>
       <c r="T79" s="1"/>
@@ -22266,17 +22266,17 @@
       <c r="A80" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="310"/>
-      <c r="C80" s="342"/>
-      <c r="D80" s="340"/>
-      <c r="E80" s="351"/>
-      <c r="F80" s="296"/>
-      <c r="G80" s="352"/>
-      <c r="H80" s="357"/>
-      <c r="I80" s="347"/>
-      <c r="J80" s="347"/>
-      <c r="K80" s="339"/>
-      <c r="L80" s="339"/>
+      <c r="B80" s="312"/>
+      <c r="C80" s="339"/>
+      <c r="D80" s="352"/>
+      <c r="E80" s="353"/>
+      <c r="F80" s="306"/>
+      <c r="G80" s="354"/>
+      <c r="H80" s="350"/>
+      <c r="I80" s="351"/>
+      <c r="J80" s="351"/>
+      <c r="K80" s="336"/>
+      <c r="L80" s="336"/>
       <c r="M80" s="57">
         <v>6074.43</v>
       </c>
@@ -22289,9 +22289,9 @@
       <c r="P80" s="6">
         <v>45363</v>
       </c>
-      <c r="Q80" s="295"/>
-      <c r="R80" s="322"/>
-      <c r="S80" s="296"/>
+      <c r="Q80" s="307"/>
+      <c r="R80" s="304"/>
+      <c r="S80" s="306"/>
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22360,38 +22360,38 @@
       <c r="A82" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="354">
+      <c r="B82" s="338">
         <v>20543324915</v>
       </c>
-      <c r="C82" s="342" t="s">
+      <c r="C82" s="339" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="325"/>
-      <c r="E82" s="345" t="s">
+      <c r="D82" s="298"/>
+      <c r="E82" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="296">
+      <c r="F82" s="306">
         <v>45362</v>
       </c>
-      <c r="G82" s="355">
+      <c r="G82" s="348">
         <v>3.6960000000000002</v>
       </c>
-      <c r="H82" s="356">
+      <c r="H82" s="349">
         <v>5202.03</v>
       </c>
-      <c r="I82" s="338">
+      <c r="I82" s="335">
         <f t="shared" si="19"/>
         <v>936.36539999999991</v>
       </c>
-      <c r="J82" s="338">
+      <c r="J82" s="335">
         <f t="shared" si="20"/>
         <v>6138.3953999999994</v>
       </c>
-      <c r="K82" s="339">
+      <c r="K82" s="336">
         <f t="shared" si="21"/>
         <v>5401.7879519999997</v>
       </c>
-      <c r="L82" s="339">
+      <c r="L82" s="336">
         <f t="shared" si="22"/>
         <v>2722.5011278079996</v>
       </c>
@@ -22407,13 +22407,13 @@
       <c r="P82" s="174">
         <v>45393</v>
       </c>
-      <c r="Q82" s="295">
+      <c r="Q82" s="307">
         <v>2723</v>
       </c>
-      <c r="R82" s="296">
+      <c r="R82" s="306">
         <v>45433</v>
       </c>
-      <c r="S82" s="296">
+      <c r="S82" s="306">
         <v>45434</v>
       </c>
       <c r="T82" s="1"/>
@@ -22422,17 +22422,17 @@
       <c r="A83" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B83" s="354"/>
-      <c r="C83" s="342"/>
-      <c r="D83" s="325"/>
-      <c r="E83" s="345"/>
-      <c r="F83" s="296"/>
-      <c r="G83" s="355"/>
-      <c r="H83" s="356"/>
-      <c r="I83" s="338"/>
-      <c r="J83" s="338"/>
-      <c r="K83" s="339"/>
-      <c r="L83" s="339"/>
+      <c r="B83" s="338"/>
+      <c r="C83" s="339"/>
+      <c r="D83" s="298"/>
+      <c r="E83" s="334"/>
+      <c r="F83" s="306"/>
+      <c r="G83" s="348"/>
+      <c r="H83" s="349"/>
+      <c r="I83" s="335"/>
+      <c r="J83" s="335"/>
+      <c r="K83" s="336"/>
+      <c r="L83" s="336"/>
       <c r="M83" s="188">
         <v>2111.9899999999998</v>
       </c>
@@ -22445,9 +22445,9 @@
       <c r="P83" s="180">
         <v>45432</v>
       </c>
-      <c r="Q83" s="295"/>
-      <c r="R83" s="325"/>
-      <c r="S83" s="325"/>
+      <c r="Q83" s="307"/>
+      <c r="R83" s="298"/>
+      <c r="S83" s="298"/>
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22539,14 +22539,14 @@
         <f t="shared" ref="L85:L94" si="24">+(J85*12%)*G85</f>
         <v>313383.11412096</v>
       </c>
-      <c r="M85" s="353" t="s">
+      <c r="M85" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="353"/>
-      <c r="O85" s="353"/>
-      <c r="P85" s="353"/>
-      <c r="Q85" s="353"/>
-      <c r="R85" s="353"/>
+      <c r="N85" s="340"/>
+      <c r="O85" s="340"/>
+      <c r="P85" s="340"/>
+      <c r="Q85" s="340"/>
+      <c r="R85" s="340"/>
       <c r="S85" s="3"/>
       <c r="T85" s="1"/>
     </row>
@@ -22554,38 +22554,38 @@
       <c r="A86" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="310">
+      <c r="B86" s="312">
         <v>20100677661</v>
       </c>
-      <c r="C86" s="342" t="s">
+      <c r="C86" s="339" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="325"/>
-      <c r="E86" s="345" t="s">
+      <c r="D86" s="298"/>
+      <c r="E86" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="F86" s="296">
+      <c r="F86" s="306">
         <v>45369</v>
       </c>
-      <c r="G86" s="355">
+      <c r="G86" s="348">
         <v>3.6920000000000002</v>
       </c>
-      <c r="H86" s="338">
+      <c r="H86" s="335">
         <v>599446.80000000005</v>
       </c>
-      <c r="I86" s="338">
+      <c r="I86" s="335">
         <f t="shared" si="19"/>
         <v>107900.424</v>
       </c>
-      <c r="J86" s="338">
+      <c r="J86" s="335">
         <f t="shared" si="20"/>
         <v>707347.22400000005</v>
       </c>
-      <c r="K86" s="339">
+      <c r="K86" s="336">
         <f t="shared" si="23"/>
         <v>622465.55712000001</v>
       </c>
-      <c r="L86" s="339">
+      <c r="L86" s="336">
         <f t="shared" si="24"/>
         <v>313383.11412096</v>
       </c>
@@ -22601,13 +22601,13 @@
       <c r="P86" s="20">
         <v>45415</v>
       </c>
-      <c r="Q86" s="338">
+      <c r="Q86" s="335">
         <v>313383</v>
       </c>
-      <c r="R86" s="296">
+      <c r="R86" s="306">
         <v>45405</v>
       </c>
-      <c r="S86" s="296">
+      <c r="S86" s="306">
         <v>45406</v>
       </c>
       <c r="T86" s="1"/>
@@ -22616,17 +22616,17 @@
       <c r="A87" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B87" s="310"/>
-      <c r="C87" s="342"/>
-      <c r="D87" s="325"/>
-      <c r="E87" s="345"/>
-      <c r="F87" s="296"/>
-      <c r="G87" s="355"/>
-      <c r="H87" s="338"/>
-      <c r="I87" s="338"/>
-      <c r="J87" s="338"/>
-      <c r="K87" s="339"/>
-      <c r="L87" s="339"/>
+      <c r="B87" s="312"/>
+      <c r="C87" s="339"/>
+      <c r="D87" s="298"/>
+      <c r="E87" s="334"/>
+      <c r="F87" s="306"/>
+      <c r="G87" s="348"/>
+      <c r="H87" s="335"/>
+      <c r="I87" s="335"/>
+      <c r="J87" s="335"/>
+      <c r="K87" s="336"/>
+      <c r="L87" s="336"/>
       <c r="M87" s="30">
         <v>103744.26</v>
       </c>
@@ -22639,26 +22639,26 @@
       <c r="P87" s="20">
         <v>45440</v>
       </c>
-      <c r="Q87" s="338"/>
-      <c r="R87" s="296"/>
-      <c r="S87" s="296"/>
+      <c r="Q87" s="335"/>
+      <c r="R87" s="306"/>
+      <c r="S87" s="306"/>
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="310"/>
-      <c r="C88" s="342"/>
-      <c r="D88" s="325"/>
-      <c r="E88" s="345"/>
-      <c r="F88" s="296"/>
-      <c r="G88" s="355"/>
-      <c r="H88" s="338"/>
-      <c r="I88" s="338"/>
-      <c r="J88" s="338"/>
-      <c r="K88" s="339"/>
-      <c r="L88" s="339"/>
+      <c r="B88" s="312"/>
+      <c r="C88" s="339"/>
+      <c r="D88" s="298"/>
+      <c r="E88" s="334"/>
+      <c r="F88" s="306"/>
+      <c r="G88" s="348"/>
+      <c r="H88" s="335"/>
+      <c r="I88" s="335"/>
+      <c r="J88" s="335"/>
+      <c r="K88" s="336"/>
+      <c r="L88" s="336"/>
       <c r="M88" s="30">
         <v>103744.26</v>
       </c>
@@ -22671,26 +22671,26 @@
       <c r="P88" s="20">
         <v>45475</v>
       </c>
-      <c r="Q88" s="338"/>
-      <c r="R88" s="296"/>
-      <c r="S88" s="296"/>
+      <c r="Q88" s="335"/>
+      <c r="R88" s="306"/>
+      <c r="S88" s="306"/>
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B89" s="310"/>
-      <c r="C89" s="342"/>
-      <c r="D89" s="325"/>
-      <c r="E89" s="345"/>
-      <c r="F89" s="296"/>
-      <c r="G89" s="355"/>
-      <c r="H89" s="338"/>
-      <c r="I89" s="338"/>
-      <c r="J89" s="338"/>
-      <c r="K89" s="339"/>
-      <c r="L89" s="339"/>
+      <c r="B89" s="312"/>
+      <c r="C89" s="339"/>
+      <c r="D89" s="298"/>
+      <c r="E89" s="334"/>
+      <c r="F89" s="306"/>
+      <c r="G89" s="348"/>
+      <c r="H89" s="335"/>
+      <c r="I89" s="335"/>
+      <c r="J89" s="335"/>
+      <c r="K89" s="336"/>
+      <c r="L89" s="336"/>
       <c r="M89" s="36">
         <v>103744.26</v>
       </c>
@@ -22703,26 +22703,26 @@
       <c r="P89" s="20">
         <v>45505</v>
       </c>
-      <c r="Q89" s="338"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="296"/>
+      <c r="Q89" s="335"/>
+      <c r="R89" s="306"/>
+      <c r="S89" s="306"/>
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B90" s="310"/>
-      <c r="C90" s="342"/>
-      <c r="D90" s="325"/>
-      <c r="E90" s="345"/>
-      <c r="F90" s="296"/>
-      <c r="G90" s="355"/>
-      <c r="H90" s="338"/>
-      <c r="I90" s="338"/>
-      <c r="J90" s="338"/>
-      <c r="K90" s="339"/>
-      <c r="L90" s="339"/>
+      <c r="B90" s="312"/>
+      <c r="C90" s="339"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="334"/>
+      <c r="F90" s="306"/>
+      <c r="G90" s="348"/>
+      <c r="H90" s="335"/>
+      <c r="I90" s="335"/>
+      <c r="J90" s="335"/>
+      <c r="K90" s="336"/>
+      <c r="L90" s="336"/>
       <c r="M90" s="36">
         <v>103744.26</v>
       </c>
@@ -22735,26 +22735,26 @@
       <c r="P90" s="20">
         <v>45526</v>
       </c>
-      <c r="Q90" s="338"/>
-      <c r="R90" s="296"/>
-      <c r="S90" s="296"/>
+      <c r="Q90" s="335"/>
+      <c r="R90" s="306"/>
+      <c r="S90" s="306"/>
       <c r="T90" s="1"/>
     </row>
     <row r="91" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B91" s="310"/>
-      <c r="C91" s="342"/>
-      <c r="D91" s="325"/>
-      <c r="E91" s="345"/>
-      <c r="F91" s="296"/>
-      <c r="G91" s="355"/>
-      <c r="H91" s="338"/>
-      <c r="I91" s="338"/>
-      <c r="J91" s="338"/>
-      <c r="K91" s="339"/>
-      <c r="L91" s="339"/>
+      <c r="B91" s="312"/>
+      <c r="C91" s="339"/>
+      <c r="D91" s="298"/>
+      <c r="E91" s="334"/>
+      <c r="F91" s="306"/>
+      <c r="G91" s="348"/>
+      <c r="H91" s="335"/>
+      <c r="I91" s="335"/>
+      <c r="J91" s="335"/>
+      <c r="K91" s="336"/>
+      <c r="L91" s="336"/>
       <c r="M91" s="36">
         <v>103744.29</v>
       </c>
@@ -22767,9 +22767,9 @@
       <c r="P91" s="20">
         <v>45561</v>
       </c>
-      <c r="Q91" s="338"/>
-      <c r="R91" s="296"/>
-      <c r="S91" s="296"/>
+      <c r="Q91" s="335"/>
+      <c r="R91" s="306"/>
+      <c r="S91" s="306"/>
       <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23953,14 +23953,14 @@
         <f>+(J111*12%)*G111</f>
         <v>2615.0673839999999</v>
       </c>
-      <c r="M111" s="337" t="s">
+      <c r="M111" s="342" t="s">
         <v>247</v>
       </c>
-      <c r="N111" s="337"/>
-      <c r="O111" s="337"/>
-      <c r="P111" s="337"/>
-      <c r="Q111" s="337"/>
-      <c r="R111" s="337"/>
+      <c r="N111" s="342"/>
+      <c r="O111" s="342"/>
+      <c r="P111" s="342"/>
+      <c r="Q111" s="342"/>
+      <c r="R111" s="342"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
@@ -24623,14 +24623,14 @@
         <f>+(J122*12%)</f>
         <v>28764.939768</v>
       </c>
-      <c r="M122" s="337" t="s">
+      <c r="M122" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="N122" s="337"/>
-      <c r="O122" s="337"/>
-      <c r="P122" s="337"/>
-      <c r="Q122" s="337"/>
-      <c r="R122" s="337"/>
+      <c r="N122" s="342"/>
+      <c r="O122" s="342"/>
+      <c r="P122" s="342"/>
+      <c r="Q122" s="342"/>
+      <c r="R122" s="342"/>
       <c r="S122" s="92"/>
       <c r="T122" s="1"/>
     </row>
@@ -25157,14 +25157,14 @@
         <f t="shared" si="39"/>
         <v>13126.320000000002</v>
       </c>
-      <c r="M131" s="337" t="s">
+      <c r="M131" s="342" t="s">
         <v>234</v>
       </c>
-      <c r="N131" s="337"/>
-      <c r="O131" s="337"/>
-      <c r="P131" s="337"/>
-      <c r="Q131" s="337"/>
-      <c r="R131" s="337"/>
+      <c r="N131" s="342"/>
+      <c r="O131" s="342"/>
+      <c r="P131" s="342"/>
+      <c r="Q131" s="342"/>
+      <c r="R131" s="342"/>
       <c r="S131" s="92"/>
       <c r="T131" s="1"/>
     </row>
@@ -25331,14 +25331,14 @@
         <f t="shared" si="39"/>
         <v>48572.901220272004</v>
       </c>
-      <c r="M134" s="337" t="s">
+      <c r="M134" s="342" t="s">
         <v>235</v>
       </c>
-      <c r="N134" s="337"/>
-      <c r="O134" s="337"/>
-      <c r="P134" s="337"/>
-      <c r="Q134" s="337"/>
-      <c r="R134" s="337"/>
+      <c r="N134" s="342"/>
+      <c r="O134" s="342"/>
+      <c r="P134" s="342"/>
+      <c r="Q134" s="342"/>
+      <c r="R134" s="342"/>
       <c r="S134" s="92"/>
       <c r="T134" s="1"/>
     </row>
@@ -25443,14 +25443,14 @@
         <f t="shared" si="39"/>
         <v>1558.579872</v>
       </c>
-      <c r="M136" s="337" t="s">
+      <c r="M136" s="342" t="s">
         <v>236</v>
       </c>
-      <c r="N136" s="337"/>
-      <c r="O136" s="337"/>
-      <c r="P136" s="337"/>
-      <c r="Q136" s="337"/>
-      <c r="R136" s="337"/>
+      <c r="N136" s="342"/>
+      <c r="O136" s="342"/>
+      <c r="P136" s="342"/>
+      <c r="Q136" s="342"/>
+      <c r="R136" s="342"/>
       <c r="S136" s="16"/>
       <c r="T136" s="1"/>
     </row>
@@ -26039,14 +26039,14 @@
         <f t="shared" ref="L146:L148" si="40">+(J146*12%)*G146</f>
         <v>1564.8509819999997</v>
       </c>
-      <c r="M146" s="337" t="s">
+      <c r="M146" s="342" t="s">
         <v>237</v>
       </c>
-      <c r="N146" s="337"/>
-      <c r="O146" s="337"/>
-      <c r="P146" s="337"/>
-      <c r="Q146" s="337"/>
-      <c r="R146" s="337"/>
+      <c r="N146" s="342"/>
+      <c r="O146" s="342"/>
+      <c r="P146" s="342"/>
+      <c r="Q146" s="342"/>
+      <c r="R146" s="342"/>
       <c r="S146" s="16"/>
       <c r="T146" s="1"/>
     </row>
@@ -26532,38 +26532,38 @@
       <c r="A155" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B155" s="310">
+      <c r="B155" s="312">
         <v>20104443819</v>
       </c>
-      <c r="C155" s="342" t="s">
+      <c r="C155" s="339" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="325"/>
-      <c r="E155" s="345" t="s">
+      <c r="D155" s="298"/>
+      <c r="E155" s="334" t="s">
         <v>172</v>
       </c>
-      <c r="F155" s="296">
+      <c r="F155" s="306">
         <v>45440</v>
       </c>
-      <c r="G155" s="325">
+      <c r="G155" s="298">
         <v>3.7480000000000002</v>
       </c>
-      <c r="H155" s="338">
+      <c r="H155" s="335">
         <v>7830</v>
       </c>
-      <c r="I155" s="338">
+      <c r="I155" s="335">
         <f t="shared" si="36"/>
         <v>1409.3999999999999</v>
       </c>
-      <c r="J155" s="338">
+      <c r="J155" s="335">
         <f t="shared" si="37"/>
         <v>9239.4</v>
       </c>
-      <c r="K155" s="339">
+      <c r="K155" s="336">
         <f t="shared" si="41"/>
         <v>8130.6719999999996</v>
       </c>
-      <c r="L155" s="339">
+      <c r="L155" s="336">
         <f t="shared" si="42"/>
         <v>4155.5125439999993</v>
       </c>
@@ -26579,13 +26579,13 @@
       <c r="P155" s="20">
         <v>45527</v>
       </c>
-      <c r="Q155" s="338">
+      <c r="Q155" s="335">
         <v>4156</v>
       </c>
-      <c r="R155" s="296">
+      <c r="R155" s="306">
         <v>45518</v>
       </c>
-      <c r="S155" s="296">
+      <c r="S155" s="306">
         <v>45519</v>
       </c>
       <c r="T155" s="1"/>
@@ -26594,17 +26594,17 @@
       <c r="A156" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="310"/>
-      <c r="C156" s="342"/>
-      <c r="D156" s="325"/>
-      <c r="E156" s="345"/>
-      <c r="F156" s="296"/>
-      <c r="G156" s="325"/>
-      <c r="H156" s="338"/>
-      <c r="I156" s="338"/>
-      <c r="J156" s="338"/>
-      <c r="K156" s="339"/>
-      <c r="L156" s="339"/>
+      <c r="B156" s="312"/>
+      <c r="C156" s="339"/>
+      <c r="D156" s="298"/>
+      <c r="E156" s="334"/>
+      <c r="F156" s="306"/>
+      <c r="G156" s="298"/>
+      <c r="H156" s="335"/>
+      <c r="I156" s="335"/>
+      <c r="J156" s="335"/>
+      <c r="K156" s="336"/>
+      <c r="L156" s="336"/>
       <c r="M156" s="55">
         <v>2000</v>
       </c>
@@ -26617,26 +26617,26 @@
       <c r="P156" s="20">
         <v>45542</v>
       </c>
-      <c r="Q156" s="338"/>
-      <c r="R156" s="325"/>
-      <c r="S156" s="325"/>
+      <c r="Q156" s="335"/>
+      <c r="R156" s="298"/>
+      <c r="S156" s="298"/>
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B157" s="310"/>
-      <c r="C157" s="342"/>
-      <c r="D157" s="325"/>
-      <c r="E157" s="345"/>
-      <c r="F157" s="296"/>
-      <c r="G157" s="325"/>
-      <c r="H157" s="338"/>
-      <c r="I157" s="338"/>
-      <c r="J157" s="338"/>
-      <c r="K157" s="339"/>
-      <c r="L157" s="339"/>
+      <c r="B157" s="312"/>
+      <c r="C157" s="339"/>
+      <c r="D157" s="298"/>
+      <c r="E157" s="334"/>
+      <c r="F157" s="306"/>
+      <c r="G157" s="298"/>
+      <c r="H157" s="335"/>
+      <c r="I157" s="335"/>
+      <c r="J157" s="335"/>
+      <c r="K157" s="336"/>
+      <c r="L157" s="336"/>
       <c r="M157" s="55">
         <v>1000</v>
       </c>
@@ -26649,26 +26649,26 @@
       <c r="P157" s="20">
         <v>45555</v>
       </c>
-      <c r="Q157" s="338"/>
-      <c r="R157" s="325"/>
-      <c r="S157" s="325"/>
+      <c r="Q157" s="335"/>
+      <c r="R157" s="298"/>
+      <c r="S157" s="298"/>
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B158" s="310"/>
-      <c r="C158" s="342"/>
-      <c r="D158" s="325"/>
-      <c r="E158" s="345"/>
-      <c r="F158" s="296"/>
-      <c r="G158" s="325"/>
-      <c r="H158" s="338"/>
-      <c r="I158" s="338"/>
-      <c r="J158" s="338"/>
-      <c r="K158" s="339"/>
-      <c r="L158" s="339"/>
+      <c r="B158" s="312"/>
+      <c r="C158" s="339"/>
+      <c r="D158" s="298"/>
+      <c r="E158" s="334"/>
+      <c r="F158" s="306"/>
+      <c r="G158" s="298"/>
+      <c r="H158" s="335"/>
+      <c r="I158" s="335"/>
+      <c r="J158" s="335"/>
+      <c r="K158" s="336"/>
+      <c r="L158" s="336"/>
       <c r="M158" s="55">
         <v>1500</v>
       </c>
@@ -26681,26 +26681,26 @@
       <c r="P158" s="20">
         <v>45569</v>
       </c>
-      <c r="Q158" s="338"/>
-      <c r="R158" s="325"/>
-      <c r="S158" s="325"/>
+      <c r="Q158" s="335"/>
+      <c r="R158" s="298"/>
+      <c r="S158" s="298"/>
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="310"/>
-      <c r="C159" s="342"/>
-      <c r="D159" s="325"/>
-      <c r="E159" s="345"/>
-      <c r="F159" s="296"/>
-      <c r="G159" s="325"/>
-      <c r="H159" s="338"/>
-      <c r="I159" s="338"/>
-      <c r="J159" s="338"/>
-      <c r="K159" s="339"/>
-      <c r="L159" s="339"/>
+      <c r="B159" s="312"/>
+      <c r="C159" s="339"/>
+      <c r="D159" s="298"/>
+      <c r="E159" s="334"/>
+      <c r="F159" s="306"/>
+      <c r="G159" s="298"/>
+      <c r="H159" s="335"/>
+      <c r="I159" s="335"/>
+      <c r="J159" s="335"/>
+      <c r="K159" s="336"/>
+      <c r="L159" s="336"/>
       <c r="M159" s="55">
         <v>1630.54</v>
       </c>
@@ -26713,9 +26713,9 @@
       <c r="P159" s="20">
         <v>45576</v>
       </c>
-      <c r="Q159" s="338"/>
-      <c r="R159" s="325"/>
-      <c r="S159" s="325"/>
+      <c r="Q159" s="335"/>
+      <c r="R159" s="298"/>
+      <c r="S159" s="298"/>
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26819,14 +26819,14 @@
         <f t="shared" si="42"/>
         <v>22939.200000000001</v>
       </c>
-      <c r="M161" s="337" t="s">
+      <c r="M161" s="342" t="s">
         <v>252</v>
       </c>
-      <c r="N161" s="337"/>
-      <c r="O161" s="337"/>
-      <c r="P161" s="337"/>
-      <c r="Q161" s="337"/>
-      <c r="R161" s="337"/>
+      <c r="N161" s="342"/>
+      <c r="O161" s="342"/>
+      <c r="P161" s="342"/>
+      <c r="Q161" s="342"/>
+      <c r="R161" s="342"/>
       <c r="S161" s="3"/>
       <c r="T161" s="1"/>
     </row>
@@ -27326,51 +27326,51 @@
       <c r="A170" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B170" s="358">
+      <c r="B170" s="343">
         <v>20557124331</v>
       </c>
-      <c r="C170" s="359" t="s">
+      <c r="C170" s="344" t="s">
         <v>248</v>
       </c>
       <c r="D170" s="209"/>
-      <c r="E170" s="360" t="s">
+      <c r="E170" s="345" t="s">
         <v>264</v>
       </c>
-      <c r="F170" s="361">
+      <c r="F170" s="346">
         <v>45447</v>
       </c>
-      <c r="G170" s="362">
+      <c r="G170" s="347">
         <v>3.7360000000000002</v>
       </c>
-      <c r="H170" s="295">
+      <c r="H170" s="307">
         <v>55500</v>
       </c>
-      <c r="I170" s="295">
+      <c r="I170" s="307">
         <f t="shared" si="43"/>
         <v>9990</v>
       </c>
-      <c r="J170" s="295">
+      <c r="J170" s="307">
         <f t="shared" si="44"/>
         <v>65490</v>
       </c>
-      <c r="K170" s="344">
+      <c r="K170" s="341">
         <f t="shared" si="45"/>
         <v>57631.199999999997</v>
       </c>
-      <c r="L170" s="344">
+      <c r="L170" s="341">
         <f t="shared" si="46"/>
         <v>29360.4768</v>
       </c>
-      <c r="M170" s="295">
+      <c r="M170" s="307">
         <v>57631</v>
       </c>
-      <c r="N170" s="295" t="s">
+      <c r="N170" s="307" t="s">
         <v>199</v>
       </c>
-      <c r="O170" s="295" t="s">
+      <c r="O170" s="307" t="s">
         <v>200</v>
       </c>
-      <c r="P170" s="363">
+      <c r="P170" s="337">
         <v>45541</v>
       </c>
       <c r="Q170" s="201">
@@ -27388,21 +27388,21 @@
       <c r="A171" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B171" s="358"/>
-      <c r="C171" s="359"/>
+      <c r="B171" s="343"/>
+      <c r="C171" s="344"/>
       <c r="D171" s="209"/>
-      <c r="E171" s="360"/>
-      <c r="F171" s="361"/>
-      <c r="G171" s="362"/>
-      <c r="H171" s="295"/>
-      <c r="I171" s="295"/>
-      <c r="J171" s="295"/>
-      <c r="K171" s="344"/>
-      <c r="L171" s="344"/>
-      <c r="M171" s="295"/>
-      <c r="N171" s="295"/>
-      <c r="O171" s="295"/>
-      <c r="P171" s="295"/>
+      <c r="E171" s="345"/>
+      <c r="F171" s="346"/>
+      <c r="G171" s="347"/>
+      <c r="H171" s="307"/>
+      <c r="I171" s="307"/>
+      <c r="J171" s="307"/>
+      <c r="K171" s="341"/>
+      <c r="L171" s="341"/>
+      <c r="M171" s="307"/>
+      <c r="N171" s="307"/>
+      <c r="O171" s="307"/>
+      <c r="P171" s="307"/>
       <c r="Q171" s="201">
         <v>3000</v>
       </c>
@@ -27517,14 +27517,14 @@
         <f t="shared" si="46"/>
         <v>12656.146001855999</v>
       </c>
-      <c r="M173" s="353" t="s">
+      <c r="M173" s="340" t="s">
         <v>267</v>
       </c>
-      <c r="N173" s="353"/>
-      <c r="O173" s="353"/>
-      <c r="P173" s="353"/>
-      <c r="Q173" s="353"/>
-      <c r="R173" s="353"/>
+      <c r="N173" s="340"/>
+      <c r="O173" s="340"/>
+      <c r="P173" s="340"/>
+      <c r="Q173" s="340"/>
+      <c r="R173" s="340"/>
       <c r="S173" s="55"/>
       <c r="T173" s="211" t="s">
         <v>238</v>
@@ -27633,14 +27633,14 @@
         <f t="shared" si="46"/>
         <v>9814.9683989279984</v>
       </c>
-      <c r="M175" s="353" t="s">
+      <c r="M175" s="340" t="s">
         <v>270</v>
       </c>
-      <c r="N175" s="353"/>
-      <c r="O175" s="353"/>
-      <c r="P175" s="353"/>
-      <c r="Q175" s="353"/>
-      <c r="R175" s="353"/>
+      <c r="N175" s="340"/>
+      <c r="O175" s="340"/>
+      <c r="P175" s="340"/>
+      <c r="Q175" s="340"/>
+      <c r="R175" s="340"/>
       <c r="S175" s="55"/>
       <c r="T175" s="211" t="s">
         <v>238</v>
@@ -28326,38 +28326,38 @@
       <c r="A187" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B187" s="364">
+      <c r="B187" s="332">
         <v>20557124331</v>
       </c>
-      <c r="C187" s="342" t="s">
+      <c r="C187" s="339" t="s">
         <v>248</v>
       </c>
       <c r="D187" s="201"/>
-      <c r="E187" s="295" t="s">
+      <c r="E187" s="307" t="s">
         <v>282</v>
       </c>
-      <c r="F187" s="363">
+      <c r="F187" s="337">
         <v>45462</v>
       </c>
       <c r="G187" s="3">
         <v>3.7890000000000001</v>
       </c>
-      <c r="H187" s="295">
+      <c r="H187" s="307">
         <v>47123.53</v>
       </c>
-      <c r="I187" s="338">
+      <c r="I187" s="335">
         <f t="shared" si="43"/>
         <v>8482.2353999999996</v>
       </c>
-      <c r="J187" s="338">
+      <c r="J187" s="335">
         <f t="shared" si="44"/>
         <v>55605.765399999997</v>
       </c>
-      <c r="K187" s="339">
+      <c r="K187" s="336">
         <f t="shared" si="45"/>
         <v>48933.073551999994</v>
       </c>
-      <c r="L187" s="339">
+      <c r="L187" s="336">
         <f t="shared" si="46"/>
         <v>25282.829412071998</v>
       </c>
@@ -28373,13 +28373,13 @@
       <c r="P187" s="202">
         <v>45541</v>
       </c>
-      <c r="Q187" s="295">
+      <c r="Q187" s="307">
         <v>25283</v>
       </c>
-      <c r="R187" s="363">
+      <c r="R187" s="337">
         <v>45474</v>
       </c>
-      <c r="S187" s="363">
+      <c r="S187" s="337">
         <v>45475</v>
       </c>
       <c r="T187" s="55"/>
@@ -28388,17 +28388,17 @@
       <c r="A188" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B188" s="364"/>
-      <c r="C188" s="342"/>
+      <c r="B188" s="332"/>
+      <c r="C188" s="339"/>
       <c r="D188" s="201"/>
-      <c r="E188" s="295"/>
-      <c r="F188" s="363"/>
+      <c r="E188" s="307"/>
+      <c r="F188" s="337"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="295"/>
-      <c r="I188" s="338"/>
-      <c r="J188" s="338"/>
-      <c r="K188" s="339"/>
-      <c r="L188" s="339"/>
+      <c r="H188" s="307"/>
+      <c r="I188" s="335"/>
+      <c r="J188" s="335"/>
+      <c r="K188" s="336"/>
+      <c r="L188" s="336"/>
       <c r="M188" s="154">
         <v>21960.25</v>
       </c>
@@ -28411,9 +28411,9 @@
       <c r="P188" s="202">
         <v>45548</v>
       </c>
-      <c r="Q188" s="295"/>
-      <c r="R188" s="363"/>
-      <c r="S188" s="363"/>
+      <c r="Q188" s="307"/>
+      <c r="R188" s="337"/>
+      <c r="S188" s="337"/>
       <c r="T188" s="55" t="s">
         <v>244</v>
       </c>
@@ -28678,38 +28678,38 @@
       <c r="A193" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B193" s="354">
+      <c r="B193" s="338">
         <v>20543324915</v>
       </c>
-      <c r="C193" s="342" t="s">
+      <c r="C193" s="339" t="s">
         <v>4</v>
       </c>
       <c r="D193" s="189"/>
-      <c r="E193" s="295" t="s">
+      <c r="E193" s="307" t="s">
         <v>287</v>
       </c>
-      <c r="F193" s="363">
+      <c r="F193" s="337">
         <v>45463</v>
       </c>
       <c r="G193" s="3">
         <v>3.8180000000000001</v>
       </c>
-      <c r="H193" s="295">
+      <c r="H193" s="307">
         <v>5454.02</v>
       </c>
-      <c r="I193" s="338">
+      <c r="I193" s="335">
         <f t="shared" si="43"/>
         <v>981.72360000000003</v>
       </c>
-      <c r="J193" s="338">
+      <c r="J193" s="335">
         <f t="shared" si="44"/>
         <v>6435.7436000000007</v>
       </c>
-      <c r="K193" s="339">
+      <c r="K193" s="336">
         <f t="shared" si="45"/>
         <v>5663.4543680000006</v>
       </c>
-      <c r="L193" s="339">
+      <c r="L193" s="336">
         <f t="shared" si="46"/>
         <v>2948.6002877760002</v>
       </c>
@@ -28725,13 +28725,13 @@
       <c r="P193" s="202">
         <v>45504</v>
       </c>
-      <c r="Q193" s="295">
+      <c r="Q193" s="307">
         <v>2949</v>
       </c>
-      <c r="R193" s="363">
+      <c r="R193" s="337">
         <v>45560</v>
       </c>
-      <c r="S193" s="363">
+      <c r="S193" s="337">
         <v>45561</v>
       </c>
       <c r="T193" s="55"/>
@@ -28740,17 +28740,17 @@
       <c r="A194" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B194" s="354"/>
-      <c r="C194" s="342"/>
+      <c r="B194" s="338"/>
+      <c r="C194" s="339"/>
       <c r="D194" s="189"/>
-      <c r="E194" s="295"/>
-      <c r="F194" s="363"/>
+      <c r="E194" s="307"/>
+      <c r="F194" s="337"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="295"/>
-      <c r="I194" s="338"/>
-      <c r="J194" s="338"/>
-      <c r="K194" s="339"/>
-      <c r="L194" s="339"/>
+      <c r="H194" s="307"/>
+      <c r="I194" s="335"/>
+      <c r="J194" s="335"/>
+      <c r="K194" s="336"/>
+      <c r="L194" s="336"/>
       <c r="M194" s="201">
         <v>4500</v>
       </c>
@@ -28763,47 +28763,47 @@
       <c r="P194" s="202">
         <v>45504</v>
       </c>
-      <c r="Q194" s="295"/>
-      <c r="R194" s="295"/>
-      <c r="S194" s="295"/>
+      <c r="Q194" s="307"/>
+      <c r="R194" s="307"/>
+      <c r="S194" s="307"/>
       <c r="T194" s="55"/>
     </row>
     <row r="195" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B195" s="364">
+      <c r="B195" s="332">
         <v>20610615539</v>
       </c>
       <c r="C195" s="50" t="s">
         <v>413</v>
       </c>
       <c r="D195" s="189"/>
-      <c r="E195" s="295" t="s">
+      <c r="E195" s="307" t="s">
         <v>288</v>
       </c>
-      <c r="F195" s="363">
+      <c r="F195" s="337">
         <v>45464</v>
       </c>
       <c r="G195" s="3">
         <v>3.8140000000000001</v>
       </c>
-      <c r="H195" s="295">
+      <c r="H195" s="307">
         <v>4525</v>
       </c>
-      <c r="I195" s="338">
+      <c r="I195" s="335">
         <f t="shared" si="43"/>
         <v>814.5</v>
       </c>
-      <c r="J195" s="338">
+      <c r="J195" s="335">
         <f t="shared" si="44"/>
         <v>5339.5</v>
       </c>
-      <c r="K195" s="339">
+      <c r="K195" s="336">
         <f t="shared" si="45"/>
         <v>4698.76</v>
       </c>
-      <c r="L195" s="339">
+      <c r="L195" s="336">
         <f t="shared" si="46"/>
         <v>2443.7823600000002</v>
       </c>
@@ -28819,13 +28819,13 @@
       <c r="P195" s="202">
         <v>45468</v>
       </c>
-      <c r="Q195" s="295">
+      <c r="Q195" s="307">
         <v>2444</v>
       </c>
-      <c r="R195" s="363">
+      <c r="R195" s="337">
         <v>45468</v>
       </c>
-      <c r="S195" s="363">
+      <c r="S195" s="337">
         <v>45469</v>
       </c>
       <c r="T195" s="55" t="s">
@@ -28836,17 +28836,17 @@
       <c r="A196" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B196" s="364"/>
+      <c r="B196" s="332"/>
       <c r="C196" s="50"/>
       <c r="D196" s="189"/>
-      <c r="E196" s="295"/>
-      <c r="F196" s="363"/>
+      <c r="E196" s="307"/>
+      <c r="F196" s="337"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="295"/>
-      <c r="I196" s="338"/>
-      <c r="J196" s="338"/>
-      <c r="K196" s="339"/>
-      <c r="L196" s="339"/>
+      <c r="H196" s="307"/>
+      <c r="I196" s="335"/>
+      <c r="J196" s="335"/>
+      <c r="K196" s="336"/>
+      <c r="L196" s="336"/>
       <c r="M196" s="201">
         <v>2349.38</v>
       </c>
@@ -28859,9 +28859,9 @@
       <c r="P196" s="202">
         <v>45483</v>
       </c>
-      <c r="Q196" s="295"/>
-      <c r="R196" s="363"/>
-      <c r="S196" s="363"/>
+      <c r="Q196" s="307"/>
+      <c r="R196" s="337"/>
+      <c r="S196" s="337"/>
       <c r="T196" s="55" t="s">
         <v>239</v>
       </c>
@@ -30127,14 +30127,14 @@
       </c>
       <c r="K217" s="229"/>
       <c r="L217" s="229"/>
-      <c r="M217" s="366"/>
-      <c r="N217" s="366"/>
-      <c r="O217" s="366"/>
-      <c r="P217" s="366"/>
-      <c r="Q217" s="366"/>
-      <c r="R217" s="366"/>
-      <c r="S217" s="366"/>
-      <c r="T217" s="366"/>
+      <c r="M217" s="331"/>
+      <c r="N217" s="331"/>
+      <c r="O217" s="331"/>
+      <c r="P217" s="331"/>
+      <c r="Q217" s="331"/>
+      <c r="R217" s="331"/>
+      <c r="S217" s="331"/>
+      <c r="T217" s="331"/>
     </row>
     <row r="218" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="51" t="s">
@@ -30169,14 +30169,14 @@
       </c>
       <c r="K218" s="229"/>
       <c r="L218" s="229"/>
-      <c r="M218" s="366"/>
-      <c r="N218" s="366"/>
-      <c r="O218" s="366"/>
-      <c r="P218" s="366"/>
-      <c r="Q218" s="366"/>
-      <c r="R218" s="366"/>
-      <c r="S218" s="366"/>
-      <c r="T218" s="366"/>
+      <c r="M218" s="331"/>
+      <c r="N218" s="331"/>
+      <c r="O218" s="331"/>
+      <c r="P218" s="331"/>
+      <c r="Q218" s="331"/>
+      <c r="R218" s="331"/>
+      <c r="S218" s="331"/>
+      <c r="T218" s="331"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="51" t="s">
@@ -30238,14 +30238,14 @@
       <c r="A220" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="364">
+      <c r="B220" s="332">
         <v>20506945934</v>
       </c>
-      <c r="C220" s="365" t="s">
+      <c r="C220" s="333" t="s">
         <v>312</v>
       </c>
       <c r="D220" s="1"/>
-      <c r="E220" s="345" t="s">
+      <c r="E220" s="334" t="s">
         <v>313</v>
       </c>
       <c r="F220" s="174">
@@ -30300,10 +30300,10 @@
       <c r="A221" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="B221" s="364"/>
-      <c r="C221" s="365"/>
+      <c r="B221" s="332"/>
+      <c r="C221" s="333"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="345"/>
+      <c r="E221" s="334"/>
       <c r="F221" s="174"/>
       <c r="G221" s="141"/>
       <c r="H221" s="198"/>
@@ -30669,10 +30669,10 @@
       <c r="P227" s="20">
         <v>45595</v>
       </c>
-      <c r="Q227" s="334" t="s">
+      <c r="Q227" s="364" t="s">
         <v>204</v>
       </c>
-      <c r="R227" s="335"/>
+      <c r="R227" s="365"/>
       <c r="S227" s="3"/>
       <c r="T227" s="1"/>
     </row>
@@ -30889,14 +30889,14 @@
         <f>+(J231*12%)</f>
         <v>6112.5887999999995</v>
       </c>
-      <c r="M231" s="319" t="s">
+      <c r="M231" s="295" t="s">
         <v>324</v>
       </c>
-      <c r="N231" s="320"/>
-      <c r="O231" s="320"/>
-      <c r="P231" s="320"/>
-      <c r="Q231" s="320"/>
-      <c r="R231" s="321"/>
+      <c r="N231" s="296"/>
+      <c r="O231" s="296"/>
+      <c r="P231" s="296"/>
+      <c r="Q231" s="296"/>
+      <c r="R231" s="297"/>
       <c r="S231" s="3"/>
       <c r="T231" s="1"/>
     </row>
@@ -31332,14 +31332,14 @@
       <c r="A240" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B240" s="354">
+      <c r="B240" s="338">
         <v>20543324915</v>
       </c>
-      <c r="C240" s="365" t="s">
+      <c r="C240" s="333" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="1"/>
-      <c r="E240" s="345" t="s">
+      <c r="E240" s="334" t="s">
         <v>333</v>
       </c>
       <c r="F240" s="174">
@@ -31386,10 +31386,10 @@
       <c r="A241" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="354"/>
-      <c r="C241" s="365"/>
+      <c r="B241" s="338"/>
+      <c r="C241" s="333"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="345"/>
+      <c r="E241" s="334"/>
       <c r="F241" s="174"/>
       <c r="G241" s="199"/>
       <c r="H241" s="198"/>
@@ -32143,14 +32143,14 @@
         <f>+(J254*12%)</f>
         <v>910.71880799999997</v>
       </c>
-      <c r="M254" s="319" t="s">
+      <c r="M254" s="295" t="s">
         <v>352</v>
       </c>
-      <c r="N254" s="320"/>
-      <c r="O254" s="320"/>
-      <c r="P254" s="320"/>
-      <c r="Q254" s="320"/>
-      <c r="R254" s="321"/>
+      <c r="N254" s="296"/>
+      <c r="O254" s="296"/>
+      <c r="P254" s="296"/>
+      <c r="Q254" s="296"/>
+      <c r="R254" s="297"/>
       <c r="S254" s="20"/>
       <c r="T254" s="1"/>
     </row>
@@ -32187,14 +32187,14 @@
       </c>
       <c r="K255" s="161"/>
       <c r="L255" s="161"/>
-      <c r="M255" s="319" t="s">
+      <c r="M255" s="295" t="s">
         <v>354</v>
       </c>
-      <c r="N255" s="320"/>
-      <c r="O255" s="320"/>
-      <c r="P255" s="320"/>
-      <c r="Q255" s="320"/>
-      <c r="R255" s="321"/>
+      <c r="N255" s="296"/>
+      <c r="O255" s="296"/>
+      <c r="P255" s="296"/>
+      <c r="Q255" s="296"/>
+      <c r="R255" s="297"/>
       <c r="S255" s="20"/>
       <c r="T255" s="1"/>
     </row>
@@ -32237,14 +32237,14 @@
         <f t="shared" ref="L256:L259" si="61">+(J256*12%)*G256</f>
         <v>2707.3285716959999</v>
       </c>
-      <c r="M256" s="319" t="s">
+      <c r="M256" s="295" t="s">
         <v>356</v>
       </c>
-      <c r="N256" s="320"/>
-      <c r="O256" s="320"/>
-      <c r="P256" s="320"/>
-      <c r="Q256" s="320"/>
-      <c r="R256" s="321"/>
+      <c r="N256" s="296"/>
+      <c r="O256" s="296"/>
+      <c r="P256" s="296"/>
+      <c r="Q256" s="296"/>
+      <c r="R256" s="297"/>
       <c r="S256" s="20"/>
       <c r="T256" s="1"/>
     </row>
@@ -33077,14 +33077,14 @@
         <f t="shared" si="66"/>
         <v>9248.4227519999986</v>
       </c>
-      <c r="M271" s="331" t="s">
+      <c r="M271" s="361" t="s">
         <v>372</v>
       </c>
-      <c r="N271" s="332"/>
-      <c r="O271" s="332"/>
-      <c r="P271" s="332"/>
-      <c r="Q271" s="332"/>
-      <c r="R271" s="333"/>
+      <c r="N271" s="362"/>
+      <c r="O271" s="362"/>
+      <c r="P271" s="362"/>
+      <c r="Q271" s="362"/>
+      <c r="R271" s="363"/>
       <c r="S271" s="24"/>
       <c r="T271" s="1"/>
     </row>
@@ -33995,14 +33995,14 @@
         <f>+(J288*12%)</f>
         <v>19648.801151999996</v>
       </c>
-      <c r="M288" s="331" t="s">
+      <c r="M288" s="361" t="s">
         <v>393</v>
       </c>
-      <c r="N288" s="332"/>
-      <c r="O288" s="332"/>
-      <c r="P288" s="332"/>
-      <c r="Q288" s="332"/>
-      <c r="R288" s="333"/>
+      <c r="N288" s="362"/>
+      <c r="O288" s="362"/>
+      <c r="P288" s="362"/>
+      <c r="Q288" s="362"/>
+      <c r="R288" s="363"/>
       <c r="S288" s="20"/>
       <c r="T288" s="1"/>
     </row>
@@ -34403,14 +34403,14 @@
       </c>
       <c r="K296" s="161"/>
       <c r="L296" s="161"/>
-      <c r="M296" s="319" t="s">
+      <c r="M296" s="295" t="s">
         <v>412</v>
       </c>
-      <c r="N296" s="320"/>
-      <c r="O296" s="320"/>
-      <c r="P296" s="320"/>
-      <c r="Q296" s="320"/>
-      <c r="R296" s="321"/>
+      <c r="N296" s="296"/>
+      <c r="O296" s="296"/>
+      <c r="P296" s="296"/>
+      <c r="Q296" s="296"/>
+      <c r="R296" s="297"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
     </row>
@@ -34794,21 +34794,188 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="221">
-    <mergeCell ref="M217:T217"/>
-    <mergeCell ref="M218:T218"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="Q195:Q196"/>
-    <mergeCell ref="R195:R196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="M254:R254"/>
+    <mergeCell ref="M255:R255"/>
+    <mergeCell ref="M256:R256"/>
+    <mergeCell ref="M271:R271"/>
+    <mergeCell ref="M288:R288"/>
+    <mergeCell ref="M296:R296"/>
+    <mergeCell ref="Q227:R227"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="M122:R122"/>
+    <mergeCell ref="M131:R131"/>
+    <mergeCell ref="M134:R134"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J35:J41"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L35:L41"/>
+    <mergeCell ref="Q35:Q41"/>
+    <mergeCell ref="R35:R41"/>
+    <mergeCell ref="S35:S41"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="H35:H41"/>
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="L86:L91"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="R86:R91"/>
+    <mergeCell ref="S86:S91"/>
+    <mergeCell ref="M111:R111"/>
+    <mergeCell ref="M85:R85"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="H86:H91"/>
+    <mergeCell ref="I86:I91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="E155:E159"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="Q155:Q159"/>
+    <mergeCell ref="R155:R159"/>
+    <mergeCell ref="S155:S159"/>
+    <mergeCell ref="M161:R161"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="G155:G159"/>
+    <mergeCell ref="H155:H159"/>
+    <mergeCell ref="I155:I159"/>
+    <mergeCell ref="J155:J159"/>
+    <mergeCell ref="K155:K159"/>
+    <mergeCell ref="L155:L159"/>
+    <mergeCell ref="O170:O171"/>
+    <mergeCell ref="P170:P171"/>
+    <mergeCell ref="M173:R173"/>
+    <mergeCell ref="M175:R175"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
     <mergeCell ref="B240:B241"/>
     <mergeCell ref="C240:C241"/>
     <mergeCell ref="E240:E241"/>
@@ -34833,188 +35000,21 @@
     <mergeCell ref="S193:S194"/>
     <mergeCell ref="M231:R231"/>
     <mergeCell ref="S195:S196"/>
-    <mergeCell ref="M173:R173"/>
-    <mergeCell ref="M175:R175"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="S155:S159"/>
-    <mergeCell ref="M161:R161"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="G155:G159"/>
-    <mergeCell ref="H155:H159"/>
-    <mergeCell ref="I155:I159"/>
-    <mergeCell ref="J155:J159"/>
-    <mergeCell ref="K155:K159"/>
-    <mergeCell ref="L155:L159"/>
-    <mergeCell ref="O170:O171"/>
-    <mergeCell ref="P170:P171"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="E155:E159"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="Q155:Q159"/>
-    <mergeCell ref="R155:R159"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="L86:L91"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="R86:R91"/>
-    <mergeCell ref="S86:S91"/>
-    <mergeCell ref="M111:R111"/>
-    <mergeCell ref="M85:R85"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="H86:H91"/>
-    <mergeCell ref="I86:I91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="M67:R67"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="Q46:Q48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L35:L41"/>
-    <mergeCell ref="Q35:Q41"/>
-    <mergeCell ref="R35:R41"/>
-    <mergeCell ref="S35:S41"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="H35:H41"/>
-    <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J35:J41"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M254:R254"/>
-    <mergeCell ref="M255:R255"/>
-    <mergeCell ref="M256:R256"/>
-    <mergeCell ref="M271:R271"/>
-    <mergeCell ref="M288:R288"/>
-    <mergeCell ref="M296:R296"/>
-    <mergeCell ref="Q227:R227"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="M122:R122"/>
-    <mergeCell ref="M131:R131"/>
-    <mergeCell ref="M134:R134"/>
+    <mergeCell ref="M217:T217"/>
+    <mergeCell ref="M218:T218"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="Q195:Q196"/>
+    <mergeCell ref="R195:R196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="H195:H196"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CALCULADORA DOLARES Y SOLES.xlsx
+++ b/CALCULADORA DOLARES Y SOLES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\auroco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proy\auroco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94FAFB-A64E-4C18-BA48-E77BFF3BB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCAB037-9153-4375-886B-E3A81060598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CALCULADORA" sheetId="25" r:id="rId1"/>
@@ -7002,107 +7002,11 @@
     <xf numFmtId="0" fontId="20" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7110,19 +7014,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7137,95 +7029,113 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7243,6 +7153,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7542,8 +7542,8 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -7609,30 +7609,30 @@
         <v>45468</v>
       </c>
       <c r="C3" s="249">
-        <v>9750</v>
+        <v>1230</v>
       </c>
       <c r="D3" s="249">
         <f>+C3*0.18</f>
-        <v>1755</v>
+        <v>221.4</v>
       </c>
       <c r="E3" s="249">
         <f>+C3+D3</f>
-        <v>11505</v>
+        <v>1451.4</v>
       </c>
       <c r="F3" s="251">
         <f t="shared" ref="F3" si="0">+E3-(E3*12%)</f>
-        <v>10124.4</v>
+        <v>1277.232</v>
       </c>
       <c r="G3" s="251">
         <f>+(E3*H2)*A3</f>
-        <v>5253.183</v>
+        <v>662.70924000000002</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E4" s="257"/>
       <c r="G4" s="266">
         <f>+ROUND(G3,0)</f>
-        <v>5253</v>
+        <v>663</v>
       </c>
       <c r="H4" s="253" t="s">
         <v>422</v>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="D7" s="268">
         <f>+C3</f>
-        <v>9750</v>
+        <v>1230</v>
       </c>
       <c r="E7" s="257"/>
       <c r="G7" s="267"/>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D8" s="268">
         <f>+D3</f>
-        <v>1755</v>
+        <v>221.4</v>
       </c>
       <c r="E8" s="257"/>
       <c r="G8" s="267"/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="D9" s="268">
         <f>+E3</f>
-        <v>11505</v>
+        <v>1451.4</v>
       </c>
       <c r="E9" s="257"/>
       <c r="F9" s="256"/>
@@ -7690,7 +7690,7 @@
       </c>
       <c r="D10" s="271">
         <f>+G4</f>
-        <v>5253</v>
+        <v>663</v>
       </c>
       <c r="E10" s="257"/>
       <c r="F10" s="256"/>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="D11" s="271">
         <f>+D9-(G4/A3)</f>
-        <v>10124.448094612351</v>
+        <v>1277.1555847568989</v>
       </c>
       <c r="E11" s="257"/>
       <c r="F11" s="256"/>
@@ -8025,7 +8025,7 @@
         <v>190</v>
       </c>
       <c r="H36" s="258">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
@@ -8034,23 +8034,23 @@
       </c>
       <c r="B37" s="252"/>
       <c r="C37" s="249">
-        <v>38500</v>
+        <v>3445.36</v>
       </c>
       <c r="D37" s="249">
         <f>+C37*0.18</f>
-        <v>6930</v>
+        <v>620.16480000000001</v>
       </c>
       <c r="E37" s="249">
         <f>+C37+D37</f>
-        <v>45430</v>
+        <v>4065.5248000000001</v>
       </c>
       <c r="F37" s="251">
         <f t="shared" ref="F37" si="2">+E37-(E37*12%)</f>
-        <v>39978.400000000001</v>
+        <v>3577.6618240000003</v>
       </c>
       <c r="G37" s="251">
         <f>+(E37*H36)</f>
-        <v>1362.8999999999999</v>
+        <v>487.862976</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
@@ -8114,9 +8114,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A4B907-A7C5-4BEF-87AA-7748B45249EE}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
@@ -9168,42 +9168,47 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="263">
         <v>46017</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="263">
         <v>46018</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="263">
         <v>46019</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="263">
         <v>46020</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="263">
         <v>46021</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="263">
         <v>46022</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="263">
         <v>45468</v>
       </c>
       <c r="B215">
         <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9233,36 +9238,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="291" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="328" t="s">
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="328"/>
-      <c r="M1" s="329" t="s">
+      <c r="L1" s="292"/>
+      <c r="M1" s="293" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="330" t="s">
+      <c r="N1" s="293"/>
+      <c r="O1" s="293"/>
+      <c r="P1" s="293"/>
+      <c r="Q1" s="294" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="330"/>
-      <c r="S1" s="325" t="s">
+      <c r="R1" s="294"/>
+      <c r="S1" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="326" t="s">
+      <c r="T1" s="287" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9321,8 +9326,8 @@
       <c r="R2" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="S2" s="325"/>
-      <c r="T2" s="326"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="287"/>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
@@ -9363,14 +9368,14 @@
         <f>+(J3*12%)*G3</f>
         <v>2027.4500399999997</v>
       </c>
-      <c r="M3" s="322" t="s">
+      <c r="M3" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="323"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="323"/>
-      <c r="Q3" s="323"/>
-      <c r="R3" s="324"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="301"/>
+      <c r="R3" s="302"/>
       <c r="S3" s="1"/>
       <c r="T3" s="3"/>
     </row>
@@ -9413,14 +9418,14 @@
         <f t="shared" ref="L4:L23" si="3">+(J4*12%)*G4</f>
         <v>1481.6885005439999</v>
       </c>
-      <c r="M4" s="322" t="s">
+      <c r="M4" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="323"/>
-      <c r="O4" s="323"/>
-      <c r="P4" s="323"/>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="324"/>
+      <c r="N4" s="301"/>
+      <c r="O4" s="301"/>
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="302"/>
       <c r="S4" s="8"/>
       <c r="T4" s="7"/>
       <c r="U4" s="9"/>
@@ -9535,10 +9540,10 @@
       <c r="P6" s="6">
         <v>45334</v>
       </c>
-      <c r="Q6" s="286" t="s">
+      <c r="Q6" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R6" s="288"/>
+      <c r="R6" s="299"/>
       <c r="S6" s="1"/>
       <c r="T6" s="3" t="s">
         <v>205</v>
@@ -9589,10 +9594,10 @@
       <c r="P7" s="6">
         <v>45334</v>
       </c>
-      <c r="Q7" s="286" t="s">
+      <c r="Q7" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="288"/>
+      <c r="R7" s="299"/>
       <c r="S7" s="1"/>
       <c r="T7" s="3" t="s">
         <v>205</v>
@@ -9738,7 +9743,7 @@
       <c r="C10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="320"/>
+      <c r="D10" s="288"/>
       <c r="E10" s="181" t="s">
         <v>15</v>
       </c>
@@ -9779,13 +9784,13 @@
       <c r="P10" s="6">
         <v>45359</v>
       </c>
-      <c r="Q10" s="307">
+      <c r="Q10" s="295">
         <v>56236</v>
       </c>
-      <c r="R10" s="306">
+      <c r="R10" s="296">
         <v>45329</v>
       </c>
-      <c r="S10" s="292">
+      <c r="S10" s="297">
         <v>45330</v>
       </c>
       <c r="T10" s="3" t="s">
@@ -9802,7 +9807,7 @@
       <c r="C11" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="321"/>
+      <c r="D11" s="289"/>
       <c r="E11" s="181" t="s">
         <v>15</v>
       </c>
@@ -9843,9 +9848,9 @@
       <c r="P11" s="6">
         <v>45366</v>
       </c>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="321"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="289"/>
       <c r="T11" s="3" t="s">
         <v>206</v>
       </c>
@@ -9860,7 +9865,7 @@
       <c r="C12" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="321"/>
+      <c r="D12" s="289"/>
       <c r="E12" s="181" t="s">
         <v>15</v>
       </c>
@@ -9901,9 +9906,9 @@
       <c r="P12" s="20">
         <v>45393</v>
       </c>
-      <c r="Q12" s="307"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="321"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="289"/>
       <c r="T12" s="3" t="s">
         <v>207</v>
       </c>
@@ -9918,7 +9923,7 @@
       <c r="C13" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="301"/>
+      <c r="D13" s="290"/>
       <c r="E13" s="181" t="s">
         <v>15</v>
       </c>
@@ -9959,9 +9964,9 @@
       <c r="P13" s="108">
         <v>45426</v>
       </c>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="301"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="290"/>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -10001,10 +10006,10 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="286" t="s">
+      <c r="Q14" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="288"/>
+      <c r="R14" s="299"/>
       <c r="S14" s="1"/>
       <c r="T14" s="3"/>
     </row>
@@ -10045,10 +10050,10 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="286" t="s">
+      <c r="Q15" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R15" s="288"/>
+      <c r="R15" s="299"/>
       <c r="S15" s="1"/>
       <c r="T15" s="3"/>
     </row>
@@ -10089,10 +10094,10 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="286" t="s">
+      <c r="Q16" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="288"/>
+      <c r="R16" s="299"/>
       <c r="S16" s="1"/>
       <c r="T16" s="3"/>
     </row>
@@ -10135,14 +10140,14 @@
         <f>+(J17*12%)</f>
         <v>18478.8</v>
       </c>
-      <c r="M17" s="286" t="s">
+      <c r="M17" s="298" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="287"/>
-      <c r="Q17" s="287"/>
-      <c r="R17" s="288"/>
+      <c r="N17" s="303"/>
+      <c r="O17" s="303"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="299"/>
       <c r="S17" s="1"/>
       <c r="T17" s="3"/>
     </row>
@@ -10255,10 +10260,10 @@
       <c r="P19" s="15">
         <v>45348</v>
       </c>
-      <c r="Q19" s="286" t="s">
+      <c r="Q19" s="298" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="288"/>
+      <c r="R19" s="299"/>
       <c r="S19" s="11"/>
       <c r="T19" s="10" t="s">
         <v>205</v>
@@ -10330,7 +10335,7 @@
       <c r="C21" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="310"/>
+      <c r="D21" s="304"/>
       <c r="E21" s="126" t="s">
         <v>27</v>
       </c>
@@ -10359,16 +10364,16 @@
         <f t="shared" si="3"/>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M21" s="289">
+      <c r="M21" s="306">
         <v>12808.66</v>
       </c>
-      <c r="N21" s="310" t="s">
+      <c r="N21" s="304" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="310" t="s">
+      <c r="O21" s="304" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="314">
+      <c r="P21" s="308">
         <v>45372</v>
       </c>
       <c r="Q21" s="36">
@@ -10380,7 +10385,7 @@
       <c r="S21" s="20">
         <v>45390</v>
       </c>
-      <c r="T21" s="310" t="s">
+      <c r="T21" s="304" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10394,7 +10399,7 @@
       <c r="C22" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="311"/>
+      <c r="D22" s="305"/>
       <c r="E22" s="126" t="s">
         <v>27</v>
       </c>
@@ -10423,10 +10428,10 @@
         <f t="shared" ref="L22" si="11">+(J22*12%)*G22</f>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M22" s="291"/>
-      <c r="N22" s="311"/>
-      <c r="O22" s="311"/>
-      <c r="P22" s="305"/>
+      <c r="M22" s="307"/>
+      <c r="N22" s="305"/>
+      <c r="O22" s="305"/>
+      <c r="P22" s="309"/>
       <c r="Q22" s="36">
         <v>75</v>
       </c>
@@ -10434,7 +10439,7 @@
         <v>45420</v>
       </c>
       <c r="S22" s="20"/>
-      <c r="T22" s="311"/>
+      <c r="T22" s="305"/>
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
@@ -11153,7 +11158,7 @@
       <c r="C35" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="312"/>
+      <c r="D35" s="310"/>
       <c r="E35" s="185" t="s">
         <v>43</v>
       </c>
@@ -11194,13 +11199,13 @@
       <c r="P35" s="20">
         <v>45338</v>
       </c>
-      <c r="Q35" s="299">
+      <c r="Q35" s="313">
         <v>33993.040000000001</v>
       </c>
-      <c r="R35" s="314">
+      <c r="R35" s="308">
         <v>45358</v>
       </c>
-      <c r="S35" s="314">
+      <c r="S35" s="308">
         <v>45359</v>
       </c>
       <c r="T35" s="3" t="s">
@@ -11217,7 +11222,7 @@
       <c r="C36" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="312"/>
+      <c r="D36" s="310"/>
       <c r="E36" s="185" t="s">
         <v>43</v>
       </c>
@@ -11258,9 +11263,9 @@
       <c r="P36" s="20">
         <v>45338</v>
       </c>
-      <c r="Q36" s="316"/>
-      <c r="R36" s="315"/>
-      <c r="S36" s="315"/>
+      <c r="Q36" s="314"/>
+      <c r="R36" s="311"/>
+      <c r="S36" s="311"/>
       <c r="T36" s="3" t="s">
         <v>205</v>
       </c>
@@ -11275,7 +11280,7 @@
       <c r="C37" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="312"/>
+      <c r="D37" s="310"/>
       <c r="E37" s="185" t="s">
         <v>43</v>
       </c>
@@ -11316,9 +11321,9 @@
       <c r="P37" s="20">
         <v>45338</v>
       </c>
-      <c r="Q37" s="316"/>
-      <c r="R37" s="315"/>
-      <c r="S37" s="315"/>
+      <c r="Q37" s="314"/>
+      <c r="R37" s="311"/>
+      <c r="S37" s="311"/>
       <c r="T37" s="3" t="s">
         <v>205</v>
       </c>
@@ -11333,7 +11338,7 @@
       <c r="C38" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="312"/>
+      <c r="D38" s="310"/>
       <c r="E38" s="185" t="s">
         <v>43</v>
       </c>
@@ -11374,9 +11379,9 @@
       <c r="P38" s="20">
         <v>45338</v>
       </c>
-      <c r="Q38" s="316"/>
-      <c r="R38" s="315"/>
-      <c r="S38" s="315"/>
+      <c r="Q38" s="314"/>
+      <c r="R38" s="311"/>
+      <c r="S38" s="311"/>
       <c r="T38" s="3" t="s">
         <v>205</v>
       </c>
@@ -11391,7 +11396,7 @@
       <c r="C39" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="312"/>
+      <c r="D39" s="310"/>
       <c r="E39" s="185" t="s">
         <v>43</v>
       </c>
@@ -11432,9 +11437,9 @@
       <c r="P39" s="20">
         <v>45338</v>
       </c>
-      <c r="Q39" s="316"/>
-      <c r="R39" s="315"/>
-      <c r="S39" s="315"/>
+      <c r="Q39" s="314"/>
+      <c r="R39" s="311"/>
+      <c r="S39" s="311"/>
       <c r="T39" s="3" t="s">
         <v>205</v>
       </c>
@@ -11449,7 +11454,7 @@
       <c r="C40" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="312"/>
+      <c r="D40" s="310"/>
       <c r="E40" s="185" t="s">
         <v>43</v>
       </c>
@@ -11490,9 +11495,9 @@
       <c r="P40" s="20">
         <v>45338</v>
       </c>
-      <c r="Q40" s="316"/>
-      <c r="R40" s="315"/>
-      <c r="S40" s="315"/>
+      <c r="Q40" s="314"/>
+      <c r="R40" s="311"/>
+      <c r="S40" s="311"/>
       <c r="T40" s="3" t="s">
         <v>205</v>
       </c>
@@ -11507,7 +11512,7 @@
       <c r="C41" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="312"/>
+      <c r="D41" s="310"/>
       <c r="E41" s="185" t="s">
         <v>43</v>
       </c>
@@ -11548,9 +11553,9 @@
       <c r="P41" s="20">
         <v>45338</v>
       </c>
-      <c r="Q41" s="300"/>
-      <c r="R41" s="313"/>
-      <c r="S41" s="313"/>
+      <c r="Q41" s="315"/>
+      <c r="R41" s="312"/>
+      <c r="S41" s="312"/>
       <c r="T41" s="3" t="s">
         <v>205</v>
       </c>
@@ -11594,14 +11599,14 @@
         <f t="shared" si="18"/>
         <v>415.01482970400002</v>
       </c>
-      <c r="M42" s="286" t="s">
+      <c r="M42" s="298" t="s">
         <v>212</v>
       </c>
-      <c r="N42" s="287"/>
-      <c r="O42" s="287"/>
-      <c r="P42" s="287"/>
-      <c r="Q42" s="287"/>
-      <c r="R42" s="288"/>
+      <c r="N42" s="303"/>
+      <c r="O42" s="303"/>
+      <c r="P42" s="303"/>
+      <c r="Q42" s="303"/>
+      <c r="R42" s="299"/>
       <c r="S42" s="16"/>
       <c r="T42" s="3"/>
     </row>
@@ -11644,14 +11649,14 @@
         <f t="shared" si="18"/>
         <v>8763.3974399999988</v>
       </c>
-      <c r="M43" s="286" t="s">
+      <c r="M43" s="298" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="287"/>
-      <c r="O43" s="287"/>
-      <c r="P43" s="287"/>
-      <c r="Q43" s="287"/>
-      <c r="R43" s="288"/>
+      <c r="N43" s="303"/>
+      <c r="O43" s="303"/>
+      <c r="P43" s="303"/>
+      <c r="Q43" s="303"/>
+      <c r="R43" s="299"/>
       <c r="S43" s="22"/>
       <c r="T43" s="7"/>
     </row>
@@ -11694,14 +11699,14 @@
         <f t="shared" si="18"/>
         <v>16764.760319999998</v>
       </c>
-      <c r="M44" s="286" t="s">
+      <c r="M44" s="298" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="287"/>
-      <c r="O44" s="287"/>
-      <c r="P44" s="287"/>
-      <c r="Q44" s="287"/>
-      <c r="R44" s="288"/>
+      <c r="N44" s="303"/>
+      <c r="O44" s="303"/>
+      <c r="P44" s="303"/>
+      <c r="Q44" s="303"/>
+      <c r="R44" s="299"/>
       <c r="S44" s="22"/>
       <c r="T44" s="7"/>
     </row>
@@ -11744,14 +11749,14 @@
         <f>+(J45*12%)</f>
         <v>155.34652800000001</v>
       </c>
-      <c r="M45" s="286" t="s">
+      <c r="M45" s="298" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="287"/>
-      <c r="O45" s="287"/>
-      <c r="P45" s="287"/>
-      <c r="Q45" s="287"/>
-      <c r="R45" s="288"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="303"/>
+      <c r="P45" s="303"/>
+      <c r="Q45" s="303"/>
+      <c r="R45" s="299"/>
       <c r="S45" s="56"/>
       <c r="T45" s="7"/>
     </row>
@@ -11765,7 +11770,7 @@
       <c r="C46" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="312"/>
+      <c r="D46" s="310"/>
       <c r="E46" s="185" t="s">
         <v>52</v>
       </c>
@@ -11806,14 +11811,14 @@
       <c r="P46" s="20">
         <v>45358</v>
       </c>
-      <c r="Q46" s="299">
+      <c r="Q46" s="313">
         <v>630</v>
       </c>
-      <c r="R46" s="314">
+      <c r="R46" s="308">
         <v>45421</v>
       </c>
-      <c r="S46" s="317"/>
-      <c r="T46" s="320" t="s">
+      <c r="S46" s="316"/>
+      <c r="T46" s="288" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11827,7 +11832,7 @@
       <c r="C47" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="312"/>
+      <c r="D47" s="310"/>
       <c r="E47" s="185" t="s">
         <v>52</v>
       </c>
@@ -11868,10 +11873,10 @@
       <c r="P47" s="20">
         <v>45369</v>
       </c>
-      <c r="Q47" s="316"/>
-      <c r="R47" s="315"/>
-      <c r="S47" s="318"/>
-      <c r="T47" s="321"/>
+      <c r="Q47" s="314"/>
+      <c r="R47" s="311"/>
+      <c r="S47" s="317"/>
+      <c r="T47" s="289"/>
     </row>
     <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
@@ -11883,7 +11888,7 @@
       <c r="C48" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="312"/>
+      <c r="D48" s="310"/>
       <c r="E48" s="185" t="s">
         <v>52</v>
       </c>
@@ -11924,10 +11929,10 @@
       <c r="P48" s="20">
         <v>45377</v>
       </c>
-      <c r="Q48" s="300"/>
-      <c r="R48" s="313"/>
-      <c r="S48" s="319"/>
-      <c r="T48" s="301"/>
+      <c r="Q48" s="315"/>
+      <c r="R48" s="312"/>
+      <c r="S48" s="318"/>
+      <c r="T48" s="290"/>
     </row>
     <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
@@ -12127,7 +12132,7 @@
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="312"/>
+      <c r="D52" s="310"/>
       <c r="E52" s="185" t="s">
         <v>58</v>
       </c>
@@ -12168,13 +12173,13 @@
       <c r="P52" s="20">
         <v>45377</v>
       </c>
-      <c r="Q52" s="307">
+      <c r="Q52" s="295">
         <v>5147</v>
       </c>
-      <c r="R52" s="304">
+      <c r="R52" s="322">
         <v>45358</v>
       </c>
-      <c r="S52" s="304">
+      <c r="S52" s="322">
         <v>45359</v>
       </c>
       <c r="T52" s="3" t="s">
@@ -12191,7 +12196,7 @@
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="313"/>
+      <c r="D53" s="312"/>
       <c r="E53" s="185" t="s">
         <v>58</v>
       </c>
@@ -12232,9 +12237,9 @@
       <c r="P53" s="67">
         <v>45377</v>
       </c>
-      <c r="Q53" s="300"/>
-      <c r="R53" s="305"/>
-      <c r="S53" s="305"/>
+      <c r="Q53" s="315"/>
+      <c r="R53" s="309"/>
+      <c r="S53" s="309"/>
       <c r="T53" s="183" t="s">
         <v>206</v>
       </c>
@@ -12976,14 +12981,14 @@
         <f t="shared" si="32"/>
         <v>111.9260208</v>
       </c>
-      <c r="M65" s="295" t="s">
+      <c r="M65" s="319" t="s">
         <v>219</v>
       </c>
-      <c r="N65" s="296"/>
-      <c r="O65" s="296"/>
-      <c r="P65" s="296"/>
-      <c r="Q65" s="296"/>
-      <c r="R65" s="297"/>
+      <c r="N65" s="320"/>
+      <c r="O65" s="320"/>
+      <c r="P65" s="320"/>
+      <c r="Q65" s="320"/>
+      <c r="R65" s="321"/>
       <c r="S65" s="1"/>
       <c r="T65" s="3"/>
     </row>
@@ -13026,14 +13031,14 @@
         <f t="shared" si="32"/>
         <v>109.06092888000001</v>
       </c>
-      <c r="M66" s="295" t="s">
+      <c r="M66" s="319" t="s">
         <v>220</v>
       </c>
-      <c r="N66" s="296"/>
-      <c r="O66" s="296"/>
-      <c r="P66" s="296"/>
-      <c r="Q66" s="296"/>
-      <c r="R66" s="297"/>
+      <c r="N66" s="320"/>
+      <c r="O66" s="320"/>
+      <c r="P66" s="320"/>
+      <c r="Q66" s="320"/>
+      <c r="R66" s="321"/>
       <c r="S66" s="1"/>
       <c r="T66" s="3"/>
     </row>
@@ -13070,14 +13075,14 @@
       </c>
       <c r="K67" s="89"/>
       <c r="L67" s="89"/>
-      <c r="M67" s="295" t="s">
+      <c r="M67" s="319" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="296"/>
-      <c r="O67" s="296"/>
-      <c r="P67" s="296"/>
-      <c r="Q67" s="296"/>
-      <c r="R67" s="297"/>
+      <c r="N67" s="320"/>
+      <c r="O67" s="320"/>
+      <c r="P67" s="320"/>
+      <c r="Q67" s="320"/>
+      <c r="R67" s="321"/>
       <c r="S67" s="1"/>
       <c r="T67" s="3"/>
     </row>
@@ -13114,14 +13119,14 @@
       </c>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="295" t="s">
+      <c r="M68" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="N68" s="296"/>
-      <c r="O68" s="296"/>
-      <c r="P68" s="296"/>
-      <c r="Q68" s="296"/>
-      <c r="R68" s="297"/>
+      <c r="N68" s="320"/>
+      <c r="O68" s="320"/>
+      <c r="P68" s="320"/>
+      <c r="Q68" s="320"/>
+      <c r="R68" s="321"/>
       <c r="S68" s="1"/>
       <c r="T68" s="3"/>
     </row>
@@ -13158,14 +13163,14 @@
       </c>
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
-      <c r="M69" s="295" t="s">
+      <c r="M69" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="296"/>
-      <c r="O69" s="296"/>
-      <c r="P69" s="296"/>
-      <c r="Q69" s="296"/>
-      <c r="R69" s="297"/>
+      <c r="N69" s="320"/>
+      <c r="O69" s="320"/>
+      <c r="P69" s="320"/>
+      <c r="Q69" s="320"/>
+      <c r="R69" s="321"/>
       <c r="S69" s="1"/>
       <c r="T69" s="3"/>
     </row>
@@ -13202,14 +13207,14 @@
       </c>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="295" t="s">
+      <c r="M70" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="N70" s="296"/>
-      <c r="O70" s="296"/>
-      <c r="P70" s="296"/>
-      <c r="Q70" s="296"/>
-      <c r="R70" s="297"/>
+      <c r="N70" s="320"/>
+      <c r="O70" s="320"/>
+      <c r="P70" s="320"/>
+      <c r="Q70" s="320"/>
+      <c r="R70" s="321"/>
       <c r="S70" s="1"/>
       <c r="T70" s="3"/>
     </row>
@@ -13510,8 +13515,8 @@
       <c r="P75" s="6">
         <v>45387</v>
       </c>
-      <c r="Q75" s="308"/>
-      <c r="R75" s="309"/>
+      <c r="Q75" s="323"/>
+      <c r="R75" s="324"/>
       <c r="S75" s="1"/>
       <c r="T75" s="3" t="s">
         <v>207</v>
@@ -13562,8 +13567,8 @@
       <c r="P76" s="6">
         <v>45387</v>
       </c>
-      <c r="Q76" s="308"/>
-      <c r="R76" s="309"/>
+      <c r="Q76" s="323"/>
+      <c r="R76" s="324"/>
       <c r="S76" s="1"/>
       <c r="T76" s="3" t="s">
         <v>207</v>
@@ -13614,8 +13619,8 @@
       <c r="P77" s="6">
         <v>45387</v>
       </c>
-      <c r="Q77" s="308"/>
-      <c r="R77" s="309"/>
+      <c r="Q77" s="323"/>
+      <c r="R77" s="324"/>
       <c r="S77" s="1"/>
       <c r="T77" s="3" t="s">
         <v>207</v>
@@ -13666,8 +13671,8 @@
       <c r="P78" s="6">
         <v>45387</v>
       </c>
-      <c r="Q78" s="308"/>
-      <c r="R78" s="309"/>
+      <c r="Q78" s="323"/>
+      <c r="R78" s="324"/>
       <c r="S78" s="1"/>
       <c r="T78" s="3" t="s">
         <v>207</v>
@@ -13683,7 +13688,7 @@
       <c r="C79" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="310"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="148" t="s">
         <v>88</v>
       </c>
@@ -13724,13 +13729,13 @@
       <c r="P79" s="6">
         <v>45363</v>
       </c>
-      <c r="Q79" s="307">
+      <c r="Q79" s="295">
         <v>8102</v>
       </c>
-      <c r="R79" s="304">
+      <c r="R79" s="322">
         <v>45387</v>
       </c>
-      <c r="S79" s="306">
+      <c r="S79" s="296">
         <v>45390</v>
       </c>
       <c r="T79" s="3" t="s">
@@ -13747,7 +13752,7 @@
       <c r="C80" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="311"/>
+      <c r="D80" s="305"/>
       <c r="E80" s="148" t="s">
         <v>88</v>
       </c>
@@ -13788,9 +13793,9 @@
       <c r="P80" s="135">
         <v>45363</v>
       </c>
-      <c r="Q80" s="300"/>
-      <c r="R80" s="305"/>
-      <c r="S80" s="294"/>
+      <c r="Q80" s="315"/>
+      <c r="R80" s="309"/>
+      <c r="S80" s="328"/>
       <c r="T80" s="183" t="s">
         <v>206</v>
       </c>
@@ -13865,7 +13870,7 @@
       <c r="C82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="298"/>
+      <c r="D82" s="325"/>
       <c r="E82" s="185" t="s">
         <v>90</v>
       </c>
@@ -13906,13 +13911,13 @@
       <c r="P82" s="174">
         <v>45393</v>
       </c>
-      <c r="Q82" s="299">
+      <c r="Q82" s="313">
         <v>2723</v>
       </c>
-      <c r="R82" s="292">
+      <c r="R82" s="297">
         <v>45433</v>
       </c>
-      <c r="S82" s="302"/>
+      <c r="S82" s="326"/>
       <c r="T82" s="3" t="s">
         <v>207</v>
       </c>
@@ -13927,7 +13932,7 @@
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="298"/>
+      <c r="D83" s="325"/>
       <c r="E83" s="185" t="s">
         <v>90</v>
       </c>
@@ -13968,9 +13973,9 @@
       <c r="P83" s="90">
         <v>45432</v>
       </c>
-      <c r="Q83" s="300"/>
-      <c r="R83" s="301"/>
-      <c r="S83" s="303"/>
+      <c r="Q83" s="315"/>
+      <c r="R83" s="290"/>
+      <c r="S83" s="327"/>
       <c r="T83" s="3"/>
     </row>
     <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14064,14 +14069,14 @@
         <f t="shared" ref="L85:L94" si="51">+(J85*12%)*G85</f>
         <v>313383.11412096</v>
       </c>
-      <c r="M85" s="295" t="s">
+      <c r="M85" s="319" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="296"/>
-      <c r="O85" s="296"/>
-      <c r="P85" s="296"/>
-      <c r="Q85" s="296"/>
-      <c r="R85" s="297"/>
+      <c r="N85" s="320"/>
+      <c r="O85" s="320"/>
+      <c r="P85" s="320"/>
+      <c r="Q85" s="320"/>
+      <c r="R85" s="321"/>
       <c r="S85" s="1"/>
       <c r="T85" s="3"/>
     </row>
@@ -14085,7 +14090,7 @@
       <c r="C86" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="298"/>
+      <c r="D86" s="325"/>
       <c r="E86" s="185" t="s">
         <v>94</v>
       </c>
@@ -14126,13 +14131,13 @@
       <c r="P86" s="20">
         <v>45415</v>
       </c>
-      <c r="Q86" s="289">
+      <c r="Q86" s="306">
         <v>313383</v>
       </c>
-      <c r="R86" s="292">
+      <c r="R86" s="297">
         <v>45405</v>
       </c>
-      <c r="S86" s="292">
+      <c r="S86" s="297">
         <v>45406</v>
       </c>
       <c r="T86" s="3"/>
@@ -14147,7 +14152,7 @@
       <c r="C87" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="298"/>
+      <c r="D87" s="325"/>
       <c r="E87" s="185" t="s">
         <v>94</v>
       </c>
@@ -14188,9 +14193,9 @@
       <c r="P87" s="20">
         <v>45440</v>
       </c>
-      <c r="Q87" s="290"/>
-      <c r="R87" s="293"/>
-      <c r="S87" s="293"/>
+      <c r="Q87" s="329"/>
+      <c r="R87" s="330"/>
+      <c r="S87" s="330"/>
       <c r="T87" s="3"/>
     </row>
     <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14203,7 +14208,7 @@
       <c r="C88" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="298"/>
+      <c r="D88" s="325"/>
       <c r="E88" s="185" t="s">
         <v>94</v>
       </c>
@@ -14236,9 +14241,9 @@
       <c r="N88" s="3"/>
       <c r="O88" s="181"/>
       <c r="P88" s="17"/>
-      <c r="Q88" s="290"/>
-      <c r="R88" s="293"/>
-      <c r="S88" s="293"/>
+      <c r="Q88" s="329"/>
+      <c r="R88" s="330"/>
+      <c r="S88" s="330"/>
       <c r="T88" s="3"/>
     </row>
     <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14256,7 @@
       <c r="C89" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="298"/>
+      <c r="D89" s="325"/>
       <c r="E89" s="185" t="s">
         <v>94</v>
       </c>
@@ -14284,9 +14289,9 @@
       <c r="N89" s="3"/>
       <c r="O89" s="181"/>
       <c r="P89" s="17"/>
-      <c r="Q89" s="290"/>
-      <c r="R89" s="293"/>
-      <c r="S89" s="293"/>
+      <c r="Q89" s="329"/>
+      <c r="R89" s="330"/>
+      <c r="S89" s="330"/>
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14299,7 +14304,7 @@
       <c r="C90" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="298"/>
+      <c r="D90" s="325"/>
       <c r="E90" s="185" t="s">
         <v>94</v>
       </c>
@@ -14332,9 +14337,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="181"/>
       <c r="P90" s="17"/>
-      <c r="Q90" s="290"/>
-      <c r="R90" s="293"/>
-      <c r="S90" s="293"/>
+      <c r="Q90" s="329"/>
+      <c r="R90" s="330"/>
+      <c r="S90" s="330"/>
       <c r="T90" s="3"/>
     </row>
     <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -14347,7 +14352,7 @@
       <c r="C91" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="298"/>
+      <c r="D91" s="325"/>
       <c r="E91" s="185" t="s">
         <v>94</v>
       </c>
@@ -14380,9 +14385,9 @@
       <c r="N91" s="3"/>
       <c r="O91" s="181"/>
       <c r="P91" s="17"/>
-      <c r="Q91" s="291"/>
-      <c r="R91" s="294"/>
-      <c r="S91" s="294"/>
+      <c r="Q91" s="307"/>
+      <c r="R91" s="328"/>
+      <c r="S91" s="328"/>
       <c r="T91" s="3"/>
     </row>
     <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -15516,14 +15521,14 @@
         <f>+(J111*12%)*G111</f>
         <v>2615.0673839999999</v>
       </c>
-      <c r="M111" s="286" t="s">
+      <c r="M111" s="298" t="s">
         <v>228</v>
       </c>
-      <c r="N111" s="287"/>
-      <c r="O111" s="287"/>
-      <c r="P111" s="287"/>
-      <c r="Q111" s="287"/>
-      <c r="R111" s="288"/>
+      <c r="N111" s="303"/>
+      <c r="O111" s="303"/>
+      <c r="P111" s="303"/>
+      <c r="Q111" s="303"/>
+      <c r="R111" s="299"/>
       <c r="S111" s="53"/>
       <c r="T111" s="53"/>
     </row>
@@ -16084,14 +16089,14 @@
         <f>+(J122*12%)</f>
         <v>28764.939768</v>
       </c>
-      <c r="M122" s="286" t="s">
+      <c r="M122" s="298" t="s">
         <v>231</v>
       </c>
-      <c r="N122" s="287"/>
-      <c r="O122" s="287"/>
-      <c r="P122" s="287"/>
-      <c r="Q122" s="287"/>
-      <c r="R122" s="288"/>
+      <c r="N122" s="303"/>
+      <c r="O122" s="303"/>
+      <c r="P122" s="303"/>
+      <c r="Q122" s="303"/>
+      <c r="R122" s="299"/>
       <c r="S122" s="92"/>
       <c r="T122" s="92"/>
     </row>
@@ -16552,14 +16557,14 @@
         <f t="shared" si="70"/>
         <v>13126.320000000002</v>
       </c>
-      <c r="M131" s="286" t="s">
+      <c r="M131" s="298" t="s">
         <v>234</v>
       </c>
-      <c r="N131" s="287"/>
-      <c r="O131" s="287"/>
-      <c r="P131" s="287"/>
-      <c r="Q131" s="287"/>
-      <c r="R131" s="288"/>
+      <c r="N131" s="303"/>
+      <c r="O131" s="303"/>
+      <c r="P131" s="303"/>
+      <c r="Q131" s="303"/>
+      <c r="R131" s="299"/>
       <c r="S131" s="92"/>
       <c r="T131" s="92"/>
     </row>
@@ -16698,14 +16703,14 @@
         <f t="shared" si="70"/>
         <v>48572.901220272004</v>
       </c>
-      <c r="M134" s="286" t="s">
+      <c r="M134" s="298" t="s">
         <v>235</v>
       </c>
-      <c r="N134" s="287"/>
-      <c r="O134" s="287"/>
-      <c r="P134" s="287"/>
-      <c r="Q134" s="287"/>
-      <c r="R134" s="288"/>
+      <c r="N134" s="303"/>
+      <c r="O134" s="303"/>
+      <c r="P134" s="303"/>
+      <c r="Q134" s="303"/>
+      <c r="R134" s="299"/>
       <c r="S134" s="92"/>
       <c r="T134" s="92"/>
     </row>
@@ -16800,14 +16805,14 @@
         <f t="shared" si="70"/>
         <v>1558.579872</v>
       </c>
-      <c r="M136" s="286" t="s">
+      <c r="M136" s="298" t="s">
         <v>236</v>
       </c>
-      <c r="N136" s="287"/>
-      <c r="O136" s="287"/>
-      <c r="P136" s="287"/>
-      <c r="Q136" s="287"/>
-      <c r="R136" s="288"/>
+      <c r="N136" s="303"/>
+      <c r="O136" s="303"/>
+      <c r="P136" s="303"/>
+      <c r="Q136" s="303"/>
+      <c r="R136" s="299"/>
       <c r="S136" s="95"/>
       <c r="T136" s="95"/>
     </row>
@@ -17284,14 +17289,14 @@
         <f t="shared" ref="L146:L148" si="71">+(J146*12%)*G146</f>
         <v>1564.8509819999997</v>
       </c>
-      <c r="M146" s="286" t="s">
+      <c r="M146" s="298" t="s">
         <v>237</v>
       </c>
-      <c r="N146" s="287"/>
-      <c r="O146" s="287"/>
-      <c r="P146" s="287"/>
-      <c r="Q146" s="287"/>
-      <c r="R146" s="288"/>
+      <c r="N146" s="303"/>
+      <c r="O146" s="303"/>
+      <c r="P146" s="303"/>
+      <c r="Q146" s="303"/>
+      <c r="R146" s="299"/>
       <c r="S146" s="95"/>
       <c r="T146" s="95"/>
     </row>
@@ -18042,30 +18047,39 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="71">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="R86:R91"/>
+    <mergeCell ref="S86:S91"/>
+    <mergeCell ref="M85:R85"/>
+    <mergeCell ref="M111:R111"/>
+    <mergeCell ref="M122:R122"/>
+    <mergeCell ref="M131:R131"/>
+    <mergeCell ref="M134:R134"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
     <mergeCell ref="T21:T22"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="R35:R41"/>
@@ -18080,39 +18094,30 @@
     <mergeCell ref="S46:S48"/>
     <mergeCell ref="T46:T48"/>
     <mergeCell ref="M45:R45"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="M67:R67"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="R86:R91"/>
-    <mergeCell ref="S86:S91"/>
-    <mergeCell ref="M85:R85"/>
-    <mergeCell ref="M111:R111"/>
-    <mergeCell ref="M122:R122"/>
-    <mergeCell ref="M131:R131"/>
-    <mergeCell ref="M134:R134"/>
-    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S10:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -18234,14 +18239,14 @@
         <f>+(J3*12%)*G3</f>
         <v>2027.4500399999997</v>
       </c>
-      <c r="M3" s="366" t="s">
+      <c r="M3" s="336" t="s">
         <v>197</v>
       </c>
-      <c r="N3" s="366"/>
-      <c r="O3" s="366"/>
-      <c r="P3" s="366"/>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="366"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="336"/>
       <c r="S3" s="3"/>
       <c r="T3" s="1"/>
     </row>
@@ -18284,14 +18289,14 @@
         <f t="shared" ref="L4:L23" si="3">+(J4*12%)*G4</f>
         <v>1481.6885005439999</v>
       </c>
-      <c r="M4" s="366" t="s">
+      <c r="M4" s="336" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="366"/>
-      <c r="O4" s="366"/>
-      <c r="P4" s="366"/>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="366"/>
+      <c r="N4" s="336"/>
+      <c r="O4" s="336"/>
+      <c r="P4" s="336"/>
+      <c r="Q4" s="336"/>
+      <c r="R4" s="336"/>
       <c r="S4" s="7"/>
       <c r="T4" s="1"/>
     </row>
@@ -18402,10 +18407,10 @@
       <c r="P6" s="6">
         <v>45334</v>
       </c>
-      <c r="Q6" s="342" t="s">
+      <c r="Q6" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R6" s="342"/>
+      <c r="R6" s="337"/>
       <c r="S6" s="3"/>
       <c r="T6" s="1"/>
     </row>
@@ -18454,10 +18459,10 @@
       <c r="P7" s="6">
         <v>45334</v>
       </c>
-      <c r="Q7" s="342" t="s">
+      <c r="Q7" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="342"/>
+      <c r="R7" s="337"/>
       <c r="S7" s="3"/>
       <c r="T7" s="1"/>
     </row>
@@ -18589,38 +18594,38 @@
       <c r="A10" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="312">
+      <c r="B10" s="310">
         <v>20250406941</v>
       </c>
-      <c r="C10" s="339" t="s">
+      <c r="C10" s="342" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298" t="s">
+      <c r="D10" s="325"/>
+      <c r="E10" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="306">
+      <c r="F10" s="296">
         <v>45309</v>
       </c>
-      <c r="G10" s="298">
+      <c r="G10" s="325">
         <v>3.7389999999999999</v>
       </c>
-      <c r="H10" s="335">
+      <c r="H10" s="338">
         <v>106218</v>
       </c>
-      <c r="I10" s="335">
+      <c r="I10" s="338">
         <f t="shared" si="0"/>
         <v>19119.239999999998</v>
       </c>
-      <c r="J10" s="335">
+      <c r="J10" s="338">
         <f t="shared" si="1"/>
         <v>125337.23999999999</v>
       </c>
-      <c r="K10" s="336">
+      <c r="K10" s="339">
         <f t="shared" si="2"/>
         <v>110296.77119999999</v>
       </c>
-      <c r="L10" s="336">
+      <c r="L10" s="339">
         <f t="shared" si="3"/>
         <v>56236.312843199994</v>
       </c>
@@ -18636,13 +18641,13 @@
       <c r="P10" s="6">
         <v>45359</v>
       </c>
-      <c r="Q10" s="307">
+      <c r="Q10" s="295">
         <v>56236</v>
       </c>
-      <c r="R10" s="306">
+      <c r="R10" s="296">
         <v>45329</v>
       </c>
-      <c r="S10" s="306">
+      <c r="S10" s="296">
         <v>45330</v>
       </c>
       <c r="T10" s="1"/>
@@ -18651,17 +18656,17 @@
       <c r="A11" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="312"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="298"/>
-      <c r="E11" s="298"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="335"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="335"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="336"/>
+      <c r="B11" s="310"/>
+      <c r="C11" s="342"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="296"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="338"/>
+      <c r="I11" s="338"/>
+      <c r="J11" s="338"/>
+      <c r="K11" s="339"/>
+      <c r="L11" s="339"/>
       <c r="M11" s="47">
         <v>27574.19</v>
       </c>
@@ -18674,26 +18679,26 @@
       <c r="P11" s="6">
         <v>45366</v>
       </c>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="306"/>
-      <c r="S11" s="306"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="312"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="298"/>
-      <c r="E12" s="298"/>
-      <c r="F12" s="306"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="335"/>
-      <c r="I12" s="335"/>
-      <c r="J12" s="335"/>
-      <c r="K12" s="336"/>
-      <c r="L12" s="336"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="342"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="325"/>
+      <c r="H12" s="338"/>
+      <c r="I12" s="338"/>
+      <c r="J12" s="338"/>
+      <c r="K12" s="339"/>
+      <c r="L12" s="339"/>
       <c r="M12" s="36">
         <v>27574.19</v>
       </c>
@@ -18706,26 +18711,26 @@
       <c r="P12" s="20">
         <v>45393</v>
       </c>
-      <c r="Q12" s="307"/>
-      <c r="R12" s="306"/>
-      <c r="S12" s="306"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="296"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="312"/>
-      <c r="C13" s="339"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="306"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="335"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="335"/>
-      <c r="K13" s="336"/>
-      <c r="L13" s="336"/>
+      <c r="B13" s="310"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="325"/>
+      <c r="H13" s="338"/>
+      <c r="I13" s="338"/>
+      <c r="J13" s="338"/>
+      <c r="K13" s="339"/>
+      <c r="L13" s="339"/>
       <c r="M13" s="47">
         <v>27574.19</v>
       </c>
@@ -18738,9 +18743,9 @@
       <c r="P13" s="20">
         <v>45426</v>
       </c>
-      <c r="Q13" s="307"/>
-      <c r="R13" s="306"/>
-      <c r="S13" s="306"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="296"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -18788,10 +18793,10 @@
       <c r="P14" s="6">
         <v>45483</v>
       </c>
-      <c r="Q14" s="342" t="s">
+      <c r="Q14" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R14" s="342"/>
+      <c r="R14" s="337"/>
       <c r="S14" s="3"/>
       <c r="T14" s="1"/>
     </row>
@@ -18840,10 +18845,10 @@
       <c r="P15" s="6">
         <v>45483</v>
       </c>
-      <c r="Q15" s="342" t="s">
+      <c r="Q15" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R15" s="342"/>
+      <c r="R15" s="337"/>
       <c r="S15" s="3"/>
       <c r="T15" s="1"/>
     </row>
@@ -18892,10 +18897,10 @@
       <c r="P16" s="6">
         <v>45483</v>
       </c>
-      <c r="Q16" s="342" t="s">
+      <c r="Q16" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="342"/>
+      <c r="R16" s="337"/>
       <c r="S16" s="3"/>
       <c r="T16" s="1"/>
     </row>
@@ -18938,14 +18943,14 @@
         <f>+(J17*12%)</f>
         <v>18478.8</v>
       </c>
-      <c r="M17" s="342" t="s">
+      <c r="M17" s="337" t="s">
         <v>208</v>
       </c>
-      <c r="N17" s="342"/>
-      <c r="O17" s="342"/>
-      <c r="P17" s="342"/>
-      <c r="Q17" s="342"/>
-      <c r="R17" s="342"/>
+      <c r="N17" s="337"/>
+      <c r="O17" s="337"/>
+      <c r="P17" s="337"/>
+      <c r="Q17" s="337"/>
+      <c r="R17" s="337"/>
       <c r="S17" s="3"/>
       <c r="T17" s="1"/>
     </row>
@@ -19056,10 +19061,10 @@
       <c r="P19" s="20">
         <v>45348</v>
       </c>
-      <c r="Q19" s="342" t="s">
+      <c r="Q19" s="337" t="s">
         <v>204</v>
       </c>
-      <c r="R19" s="342"/>
+      <c r="R19" s="337"/>
       <c r="S19" s="16"/>
       <c r="T19" s="1"/>
     </row>
@@ -19129,51 +19134,51 @@
       <c r="A21" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="312">
+      <c r="B21" s="310">
         <v>20250406941</v>
       </c>
-      <c r="C21" s="359" t="s">
+      <c r="C21" s="350" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="352"/>
-      <c r="E21" s="352" t="s">
+      <c r="D21" s="340"/>
+      <c r="E21" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="304">
+      <c r="F21" s="322">
         <v>45320</v>
       </c>
-      <c r="G21" s="352">
+      <c r="G21" s="340">
         <v>3.786</v>
       </c>
-      <c r="H21" s="360">
+      <c r="H21" s="341">
         <v>12335</v>
       </c>
-      <c r="I21" s="351">
+      <c r="I21" s="347">
         <f t="shared" si="4"/>
         <v>2220.2999999999997</v>
       </c>
-      <c r="J21" s="335">
+      <c r="J21" s="338">
         <f t="shared" si="1"/>
         <v>14555.3</v>
       </c>
-      <c r="K21" s="357">
+      <c r="K21" s="348">
         <f t="shared" si="2"/>
         <v>12808.663999999999</v>
       </c>
-      <c r="L21" s="358">
+      <c r="L21" s="349">
         <f t="shared" si="3"/>
         <v>6612.7638959999995</v>
       </c>
-      <c r="M21" s="335">
+      <c r="M21" s="338">
         <v>12808.66</v>
       </c>
-      <c r="N21" s="352" t="s">
+      <c r="N21" s="340" t="s">
         <v>199</v>
       </c>
-      <c r="O21" s="352" t="s">
+      <c r="O21" s="340" t="s">
         <v>200</v>
       </c>
-      <c r="P21" s="304">
+      <c r="P21" s="322">
         <v>45372</v>
       </c>
       <c r="Q21" s="36">
@@ -19191,21 +19196,21 @@
       <c r="A22" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="312"/>
-      <c r="C22" s="359"/>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="304"/>
-      <c r="G22" s="352"/>
-      <c r="H22" s="360"/>
-      <c r="I22" s="351"/>
-      <c r="J22" s="335"/>
-      <c r="K22" s="357"/>
-      <c r="L22" s="358"/>
-      <c r="M22" s="335"/>
-      <c r="N22" s="352"/>
-      <c r="O22" s="352"/>
-      <c r="P22" s="304"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="350"/>
+      <c r="D22" s="340"/>
+      <c r="E22" s="340"/>
+      <c r="F22" s="322"/>
+      <c r="G22" s="340"/>
+      <c r="H22" s="341"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="338"/>
+      <c r="K22" s="348"/>
+      <c r="L22" s="349"/>
+      <c r="M22" s="338"/>
+      <c r="N22" s="340"/>
+      <c r="O22" s="340"/>
+      <c r="P22" s="322"/>
       <c r="Q22" s="36">
         <v>75</v>
       </c>
@@ -19938,38 +19943,38 @@
       <c r="A35" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="312">
+      <c r="B35" s="310">
         <v>20507637141</v>
       </c>
-      <c r="C35" s="339" t="s">
+      <c r="C35" s="342" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="312"/>
-      <c r="E35" s="334" t="s">
+      <c r="D35" s="310"/>
+      <c r="E35" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="304">
+      <c r="F35" s="322">
         <v>45337</v>
       </c>
-      <c r="G35" s="312">
+      <c r="G35" s="310">
         <v>3.8769999999999998</v>
       </c>
-      <c r="H35" s="355">
+      <c r="H35" s="346">
         <v>61920</v>
       </c>
-      <c r="I35" s="335">
+      <c r="I35" s="338">
         <f t="shared" si="8"/>
         <v>11145.6</v>
       </c>
-      <c r="J35" s="335">
+      <c r="J35" s="338">
         <f t="shared" si="9"/>
         <v>73065.600000000006</v>
       </c>
-      <c r="K35" s="336">
+      <c r="K35" s="339">
         <f t="shared" si="10"/>
         <v>64297.728000000003</v>
       </c>
-      <c r="L35" s="341">
+      <c r="L35" s="344">
         <f t="shared" si="11"/>
         <v>33993.039744000002</v>
       </c>
@@ -19985,13 +19990,13 @@
       <c r="P35" s="20">
         <v>45338</v>
       </c>
-      <c r="Q35" s="307">
+      <c r="Q35" s="295">
         <v>33993.040000000001</v>
       </c>
-      <c r="R35" s="304">
+      <c r="R35" s="322">
         <v>45358</v>
       </c>
-      <c r="S35" s="304">
+      <c r="S35" s="322">
         <v>45359</v>
       </c>
       <c r="T35" s="1"/>
@@ -20000,17 +20005,17 @@
       <c r="A36" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B36" s="312"/>
-      <c r="C36" s="339"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="334"/>
-      <c r="F36" s="304"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="355"/>
-      <c r="I36" s="335"/>
-      <c r="J36" s="335"/>
-      <c r="K36" s="336"/>
-      <c r="L36" s="341"/>
+      <c r="B36" s="310"/>
+      <c r="C36" s="342"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="345"/>
+      <c r="F36" s="322"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="346"/>
+      <c r="I36" s="338"/>
+      <c r="J36" s="338"/>
+      <c r="K36" s="339"/>
+      <c r="L36" s="344"/>
       <c r="M36" s="36">
         <v>10000</v>
       </c>
@@ -20023,26 +20028,26 @@
       <c r="P36" s="20">
         <v>45338</v>
       </c>
-      <c r="Q36" s="307"/>
-      <c r="R36" s="312"/>
-      <c r="S36" s="312"/>
+      <c r="Q36" s="295"/>
+      <c r="R36" s="310"/>
+      <c r="S36" s="310"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="312"/>
-      <c r="C37" s="339"/>
-      <c r="D37" s="312"/>
-      <c r="E37" s="334"/>
-      <c r="F37" s="304"/>
-      <c r="G37" s="312"/>
-      <c r="H37" s="355"/>
-      <c r="I37" s="335"/>
-      <c r="J37" s="335"/>
-      <c r="K37" s="336"/>
-      <c r="L37" s="341"/>
+      <c r="B37" s="310"/>
+      <c r="C37" s="342"/>
+      <c r="D37" s="310"/>
+      <c r="E37" s="345"/>
+      <c r="F37" s="322"/>
+      <c r="G37" s="310"/>
+      <c r="H37" s="346"/>
+      <c r="I37" s="338"/>
+      <c r="J37" s="338"/>
+      <c r="K37" s="339"/>
+      <c r="L37" s="344"/>
       <c r="M37" s="36">
         <v>10000</v>
       </c>
@@ -20055,26 +20060,26 @@
       <c r="P37" s="20">
         <v>45338</v>
       </c>
-      <c r="Q37" s="307"/>
-      <c r="R37" s="312"/>
-      <c r="S37" s="312"/>
+      <c r="Q37" s="295"/>
+      <c r="R37" s="310"/>
+      <c r="S37" s="310"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B38" s="312"/>
-      <c r="C38" s="339"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="334"/>
-      <c r="F38" s="304"/>
-      <c r="G38" s="312"/>
-      <c r="H38" s="355"/>
-      <c r="I38" s="335"/>
-      <c r="J38" s="335"/>
-      <c r="K38" s="336"/>
-      <c r="L38" s="341"/>
+      <c r="B38" s="310"/>
+      <c r="C38" s="342"/>
+      <c r="D38" s="310"/>
+      <c r="E38" s="345"/>
+      <c r="F38" s="322"/>
+      <c r="G38" s="310"/>
+      <c r="H38" s="346"/>
+      <c r="I38" s="338"/>
+      <c r="J38" s="338"/>
+      <c r="K38" s="339"/>
+      <c r="L38" s="344"/>
       <c r="M38" s="36">
         <v>10000</v>
       </c>
@@ -20087,26 +20092,26 @@
       <c r="P38" s="20">
         <v>45338</v>
       </c>
-      <c r="Q38" s="307"/>
-      <c r="R38" s="312"/>
-      <c r="S38" s="312"/>
+      <c r="Q38" s="295"/>
+      <c r="R38" s="310"/>
+      <c r="S38" s="310"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="312"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="312"/>
-      <c r="E39" s="334"/>
-      <c r="F39" s="304"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="355"/>
-      <c r="I39" s="335"/>
-      <c r="J39" s="335"/>
-      <c r="K39" s="336"/>
-      <c r="L39" s="341"/>
+      <c r="B39" s="310"/>
+      <c r="C39" s="342"/>
+      <c r="D39" s="310"/>
+      <c r="E39" s="345"/>
+      <c r="F39" s="322"/>
+      <c r="G39" s="310"/>
+      <c r="H39" s="346"/>
+      <c r="I39" s="338"/>
+      <c r="J39" s="338"/>
+      <c r="K39" s="339"/>
+      <c r="L39" s="344"/>
       <c r="M39" s="36">
         <v>10000</v>
       </c>
@@ -20119,26 +20124,26 @@
       <c r="P39" s="20">
         <v>45338</v>
       </c>
-      <c r="Q39" s="307"/>
-      <c r="R39" s="312"/>
-      <c r="S39" s="312"/>
+      <c r="Q39" s="295"/>
+      <c r="R39" s="310"/>
+      <c r="S39" s="310"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="312"/>
-      <c r="C40" s="339"/>
-      <c r="D40" s="312"/>
-      <c r="E40" s="334"/>
-      <c r="F40" s="304"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="335"/>
-      <c r="J40" s="335"/>
-      <c r="K40" s="336"/>
-      <c r="L40" s="341"/>
+      <c r="B40" s="310"/>
+      <c r="C40" s="342"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="345"/>
+      <c r="F40" s="322"/>
+      <c r="G40" s="310"/>
+      <c r="H40" s="346"/>
+      <c r="I40" s="338"/>
+      <c r="J40" s="338"/>
+      <c r="K40" s="339"/>
+      <c r="L40" s="344"/>
       <c r="M40" s="36">
         <v>10000</v>
       </c>
@@ -20151,26 +20156,26 @@
       <c r="P40" s="20">
         <v>45338</v>
       </c>
-      <c r="Q40" s="307"/>
-      <c r="R40" s="312"/>
-      <c r="S40" s="312"/>
+      <c r="Q40" s="295"/>
+      <c r="R40" s="310"/>
+      <c r="S40" s="310"/>
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="312"/>
-      <c r="C41" s="339"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="334"/>
-      <c r="F41" s="304"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="355"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="335"/>
-      <c r="K41" s="336"/>
-      <c r="L41" s="341"/>
+      <c r="B41" s="310"/>
+      <c r="C41" s="342"/>
+      <c r="D41" s="310"/>
+      <c r="E41" s="345"/>
+      <c r="F41" s="322"/>
+      <c r="G41" s="310"/>
+      <c r="H41" s="346"/>
+      <c r="I41" s="338"/>
+      <c r="J41" s="338"/>
+      <c r="K41" s="339"/>
+      <c r="L41" s="344"/>
       <c r="M41" s="36">
         <v>4297.7299999999996</v>
       </c>
@@ -20183,9 +20188,9 @@
       <c r="P41" s="20">
         <v>45338</v>
       </c>
-      <c r="Q41" s="307"/>
-      <c r="R41" s="312"/>
-      <c r="S41" s="312"/>
+      <c r="Q41" s="295"/>
+      <c r="R41" s="310"/>
+      <c r="S41" s="310"/>
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20227,14 +20232,14 @@
         <f t="shared" si="11"/>
         <v>415.01482970400002</v>
       </c>
-      <c r="M42" s="342" t="s">
+      <c r="M42" s="337" t="s">
         <v>212</v>
       </c>
-      <c r="N42" s="342"/>
-      <c r="O42" s="342"/>
-      <c r="P42" s="342"/>
-      <c r="Q42" s="342"/>
-      <c r="R42" s="342"/>
+      <c r="N42" s="337"/>
+      <c r="O42" s="337"/>
+      <c r="P42" s="337"/>
+      <c r="Q42" s="337"/>
+      <c r="R42" s="337"/>
       <c r="S42" s="16"/>
       <c r="T42" s="1"/>
     </row>
@@ -20277,14 +20282,14 @@
         <f t="shared" si="11"/>
         <v>8763.3974399999988</v>
       </c>
-      <c r="M43" s="342" t="s">
+      <c r="M43" s="337" t="s">
         <v>213</v>
       </c>
-      <c r="N43" s="342"/>
-      <c r="O43" s="342"/>
-      <c r="P43" s="342"/>
-      <c r="Q43" s="342"/>
-      <c r="R43" s="342"/>
+      <c r="N43" s="337"/>
+      <c r="O43" s="337"/>
+      <c r="P43" s="337"/>
+      <c r="Q43" s="337"/>
+      <c r="R43" s="337"/>
       <c r="S43" s="22"/>
       <c r="T43" s="1"/>
     </row>
@@ -20327,14 +20332,14 @@
         <f t="shared" si="11"/>
         <v>16764.760319999998</v>
       </c>
-      <c r="M44" s="342" t="s">
+      <c r="M44" s="337" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="342"/>
-      <c r="O44" s="342"/>
-      <c r="P44" s="342"/>
-      <c r="Q44" s="342"/>
-      <c r="R44" s="342"/>
+      <c r="N44" s="337"/>
+      <c r="O44" s="337"/>
+      <c r="P44" s="337"/>
+      <c r="Q44" s="337"/>
+      <c r="R44" s="337"/>
       <c r="S44" s="22"/>
       <c r="T44" s="1"/>
     </row>
@@ -20377,14 +20382,14 @@
         <f>+(J45*12%)</f>
         <v>155.34652800000001</v>
       </c>
-      <c r="M45" s="342" t="s">
+      <c r="M45" s="337" t="s">
         <v>215</v>
       </c>
-      <c r="N45" s="342"/>
-      <c r="O45" s="342"/>
-      <c r="P45" s="342"/>
-      <c r="Q45" s="342"/>
-      <c r="R45" s="342"/>
+      <c r="N45" s="337"/>
+      <c r="O45" s="337"/>
+      <c r="P45" s="337"/>
+      <c r="Q45" s="337"/>
+      <c r="R45" s="337"/>
       <c r="S45" s="56"/>
       <c r="T45" s="1"/>
     </row>
@@ -20392,38 +20397,38 @@
       <c r="A46" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="312">
+      <c r="B46" s="310">
         <v>20100704227</v>
       </c>
-      <c r="C46" s="339" t="s">
+      <c r="C46" s="342" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="312"/>
-      <c r="E46" s="334" t="s">
+      <c r="D46" s="310"/>
+      <c r="E46" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="304">
+      <c r="F46" s="322">
         <v>45343</v>
       </c>
-      <c r="G46" s="312">
+      <c r="G46" s="310">
         <v>3.7839999999999998</v>
       </c>
-      <c r="H46" s="355">
+      <c r="H46" s="346">
         <v>1175</v>
       </c>
-      <c r="I46" s="335">
+      <c r="I46" s="338">
         <f t="shared" si="8"/>
         <v>211.5</v>
       </c>
-      <c r="J46" s="335">
+      <c r="J46" s="338">
         <f t="shared" si="9"/>
         <v>1386.5</v>
       </c>
-      <c r="K46" s="336">
+      <c r="K46" s="339">
         <f t="shared" si="10"/>
         <v>1220.1199999999999</v>
       </c>
-      <c r="L46" s="341">
+      <c r="L46" s="344">
         <f t="shared" si="11"/>
         <v>629.58191999999997</v>
       </c>
@@ -20439,13 +20444,13 @@
       <c r="P46" s="20">
         <v>45358</v>
       </c>
-      <c r="Q46" s="307">
+      <c r="Q46" s="295">
         <v>630</v>
       </c>
-      <c r="R46" s="304">
+      <c r="R46" s="322">
         <v>45421</v>
       </c>
-      <c r="S46" s="304">
+      <c r="S46" s="322">
         <v>45422</v>
       </c>
       <c r="T46" s="1"/>
@@ -20454,17 +20459,17 @@
       <c r="A47" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="312"/>
-      <c r="C47" s="339"/>
-      <c r="D47" s="312"/>
-      <c r="E47" s="334"/>
-      <c r="F47" s="304"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="355"/>
-      <c r="I47" s="335"/>
-      <c r="J47" s="335"/>
-      <c r="K47" s="336"/>
-      <c r="L47" s="341"/>
+      <c r="B47" s="310"/>
+      <c r="C47" s="342"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="345"/>
+      <c r="F47" s="322"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="346"/>
+      <c r="I47" s="338"/>
+      <c r="J47" s="338"/>
+      <c r="K47" s="339"/>
+      <c r="L47" s="344"/>
       <c r="M47" s="36">
         <v>406.71</v>
       </c>
@@ -20477,26 +20482,26 @@
       <c r="P47" s="20">
         <v>45369</v>
       </c>
-      <c r="Q47" s="307"/>
-      <c r="R47" s="312"/>
-      <c r="S47" s="312"/>
+      <c r="Q47" s="295"/>
+      <c r="R47" s="310"/>
+      <c r="S47" s="310"/>
       <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="312"/>
-      <c r="C48" s="339"/>
-      <c r="D48" s="312"/>
-      <c r="E48" s="334"/>
-      <c r="F48" s="304"/>
-      <c r="G48" s="312"/>
-      <c r="H48" s="355"/>
-      <c r="I48" s="335"/>
-      <c r="J48" s="335"/>
-      <c r="K48" s="336"/>
-      <c r="L48" s="341"/>
+      <c r="B48" s="310"/>
+      <c r="C48" s="342"/>
+      <c r="D48" s="310"/>
+      <c r="E48" s="345"/>
+      <c r="F48" s="322"/>
+      <c r="G48" s="310"/>
+      <c r="H48" s="346"/>
+      <c r="I48" s="338"/>
+      <c r="J48" s="338"/>
+      <c r="K48" s="339"/>
+      <c r="L48" s="344"/>
       <c r="M48" s="36">
         <v>406.71</v>
       </c>
@@ -20509,9 +20514,9 @@
       <c r="P48" s="20">
         <v>45377</v>
       </c>
-      <c r="Q48" s="307"/>
-      <c r="R48" s="312"/>
-      <c r="S48" s="312"/>
+      <c r="Q48" s="295"/>
+      <c r="R48" s="310"/>
+      <c r="S48" s="310"/>
       <c r="T48" s="1"/>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20704,38 +20709,38 @@
       <c r="A52" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="312">
+      <c r="B52" s="310">
         <v>20102102321</v>
       </c>
-      <c r="C52" s="339" t="s">
+      <c r="C52" s="342" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="312"/>
-      <c r="E52" s="334" t="s">
+      <c r="D52" s="310"/>
+      <c r="E52" s="345" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="304">
+      <c r="F52" s="322">
         <v>45349</v>
       </c>
-      <c r="G52" s="312">
+      <c r="G52" s="310">
         <v>3.8029999999999999</v>
       </c>
-      <c r="H52" s="307">
+      <c r="H52" s="295">
         <v>9558</v>
       </c>
-      <c r="I52" s="307">
+      <c r="I52" s="295">
         <f t="shared" si="8"/>
         <v>1720.4399999999998</v>
       </c>
-      <c r="J52" s="307">
+      <c r="J52" s="295">
         <f t="shared" si="9"/>
         <v>11278.44</v>
       </c>
-      <c r="K52" s="356">
+      <c r="K52" s="343">
         <f t="shared" si="10"/>
         <v>9925.0272000000004</v>
       </c>
-      <c r="L52" s="341">
+      <c r="L52" s="344">
         <f t="shared" si="11"/>
         <v>5147.0288784000004</v>
       </c>
@@ -20751,13 +20756,13 @@
       <c r="P52" s="20">
         <v>45377</v>
       </c>
-      <c r="Q52" s="307">
+      <c r="Q52" s="295">
         <v>5147</v>
       </c>
-      <c r="R52" s="304">
+      <c r="R52" s="322">
         <v>45358</v>
       </c>
-      <c r="S52" s="304">
+      <c r="S52" s="322">
         <v>45359</v>
       </c>
       <c r="T52" s="1"/>
@@ -20766,17 +20771,17 @@
       <c r="A53" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="312"/>
-      <c r="C53" s="339"/>
-      <c r="D53" s="312"/>
-      <c r="E53" s="334"/>
-      <c r="F53" s="304"/>
-      <c r="G53" s="312"/>
-      <c r="H53" s="307"/>
-      <c r="I53" s="307"/>
-      <c r="J53" s="307"/>
-      <c r="K53" s="356"/>
-      <c r="L53" s="341"/>
+      <c r="B53" s="310"/>
+      <c r="C53" s="342"/>
+      <c r="D53" s="310"/>
+      <c r="E53" s="345"/>
+      <c r="F53" s="322"/>
+      <c r="G53" s="310"/>
+      <c r="H53" s="295"/>
+      <c r="I53" s="295"/>
+      <c r="J53" s="295"/>
+      <c r="K53" s="343"/>
+      <c r="L53" s="344"/>
       <c r="M53" s="36">
         <v>8925.0300000000007</v>
       </c>
@@ -20789,9 +20794,9 @@
       <c r="P53" s="20">
         <v>45377</v>
       </c>
-      <c r="Q53" s="307"/>
-      <c r="R53" s="304"/>
-      <c r="S53" s="304"/>
+      <c r="Q53" s="295"/>
+      <c r="R53" s="322"/>
+      <c r="S53" s="322"/>
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21515,14 +21520,14 @@
         <f t="shared" si="13"/>
         <v>111.9260208</v>
       </c>
-      <c r="M65" s="340" t="s">
+      <c r="M65" s="353" t="s">
         <v>219</v>
       </c>
-      <c r="N65" s="340"/>
-      <c r="O65" s="340"/>
-      <c r="P65" s="340"/>
-      <c r="Q65" s="340"/>
-      <c r="R65" s="340"/>
+      <c r="N65" s="353"/>
+      <c r="O65" s="353"/>
+      <c r="P65" s="353"/>
+      <c r="Q65" s="353"/>
+      <c r="R65" s="353"/>
       <c r="S65" s="3"/>
       <c r="T65" s="1"/>
     </row>
@@ -21565,14 +21570,14 @@
         <f t="shared" si="13"/>
         <v>109.06092888000001</v>
       </c>
-      <c r="M66" s="340" t="s">
+      <c r="M66" s="353" t="s">
         <v>220</v>
       </c>
-      <c r="N66" s="340"/>
-      <c r="O66" s="340"/>
-      <c r="P66" s="340"/>
-      <c r="Q66" s="340"/>
-      <c r="R66" s="340"/>
+      <c r="N66" s="353"/>
+      <c r="O66" s="353"/>
+      <c r="P66" s="353"/>
+      <c r="Q66" s="353"/>
+      <c r="R66" s="353"/>
       <c r="S66" s="3"/>
       <c r="T66" s="1"/>
     </row>
@@ -21609,14 +21614,14 @@
       </c>
       <c r="K67" s="89"/>
       <c r="L67" s="89"/>
-      <c r="M67" s="340" t="s">
+      <c r="M67" s="353" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="340"/>
-      <c r="O67" s="340"/>
-      <c r="P67" s="340"/>
-      <c r="Q67" s="340"/>
-      <c r="R67" s="340"/>
+      <c r="N67" s="353"/>
+      <c r="O67" s="353"/>
+      <c r="P67" s="353"/>
+      <c r="Q67" s="353"/>
+      <c r="R67" s="353"/>
       <c r="S67" s="3"/>
       <c r="T67" s="1"/>
     </row>
@@ -21653,14 +21658,14 @@
       </c>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="340" t="s">
+      <c r="M68" s="353" t="s">
         <v>222</v>
       </c>
-      <c r="N68" s="340"/>
-      <c r="O68" s="340"/>
-      <c r="P68" s="340"/>
-      <c r="Q68" s="340"/>
-      <c r="R68" s="340"/>
+      <c r="N68" s="353"/>
+      <c r="O68" s="353"/>
+      <c r="P68" s="353"/>
+      <c r="Q68" s="353"/>
+      <c r="R68" s="353"/>
       <c r="S68" s="3"/>
       <c r="T68" s="1"/>
     </row>
@@ -21697,14 +21702,14 @@
       </c>
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
-      <c r="M69" s="340" t="s">
+      <c r="M69" s="353" t="s">
         <v>223</v>
       </c>
-      <c r="N69" s="340"/>
-      <c r="O69" s="340"/>
-      <c r="P69" s="340"/>
-      <c r="Q69" s="340"/>
-      <c r="R69" s="340"/>
+      <c r="N69" s="353"/>
+      <c r="O69" s="353"/>
+      <c r="P69" s="353"/>
+      <c r="Q69" s="353"/>
+      <c r="R69" s="353"/>
       <c r="S69" s="3"/>
       <c r="T69" s="1"/>
     </row>
@@ -21741,14 +21746,14 @@
       </c>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="340" t="s">
+      <c r="M70" s="353" t="s">
         <v>224</v>
       </c>
-      <c r="N70" s="340"/>
-      <c r="O70" s="340"/>
-      <c r="P70" s="340"/>
-      <c r="Q70" s="340"/>
-      <c r="R70" s="340"/>
+      <c r="N70" s="353"/>
+      <c r="O70" s="353"/>
+      <c r="P70" s="353"/>
+      <c r="Q70" s="353"/>
+      <c r="R70" s="353"/>
       <c r="S70" s="3"/>
       <c r="T70" s="1"/>
     </row>
@@ -22204,38 +22209,38 @@
       <c r="A79" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="312">
+      <c r="B79" s="310">
         <v>20507637141</v>
       </c>
-      <c r="C79" s="339" t="s">
+      <c r="C79" s="342" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="352"/>
-      <c r="E79" s="353" t="s">
+      <c r="D79" s="340"/>
+      <c r="E79" s="351" t="s">
         <v>88</v>
       </c>
-      <c r="F79" s="306">
+      <c r="F79" s="296">
         <v>45362</v>
       </c>
-      <c r="G79" s="354">
+      <c r="G79" s="352">
         <v>3.6960000000000002</v>
       </c>
-      <c r="H79" s="350">
+      <c r="H79" s="357">
         <v>15480</v>
       </c>
-      <c r="I79" s="351">
+      <c r="I79" s="347">
         <f t="shared" si="14"/>
         <v>2786.4</v>
       </c>
-      <c r="J79" s="351">
+      <c r="J79" s="347">
         <f t="shared" si="15"/>
         <v>18266.400000000001</v>
       </c>
-      <c r="K79" s="336">
+      <c r="K79" s="339">
         <f t="shared" ref="K79" si="17">+J79-(J79*12%)</f>
         <v>16074.432000000001</v>
       </c>
-      <c r="L79" s="336">
+      <c r="L79" s="339">
         <f t="shared" ref="L79" si="18">+(J79*12%)*G79</f>
         <v>8101.5137280000017</v>
       </c>
@@ -22251,13 +22256,13 @@
       <c r="P79" s="6">
         <v>45363</v>
       </c>
-      <c r="Q79" s="307">
+      <c r="Q79" s="295">
         <v>8102</v>
       </c>
-      <c r="R79" s="304">
+      <c r="R79" s="322">
         <v>45387</v>
       </c>
-      <c r="S79" s="306">
+      <c r="S79" s="296">
         <v>45390</v>
       </c>
       <c r="T79" s="1"/>
@@ -22266,17 +22271,17 @@
       <c r="A80" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="312"/>
-      <c r="C80" s="339"/>
-      <c r="D80" s="352"/>
-      <c r="E80" s="353"/>
-      <c r="F80" s="306"/>
-      <c r="G80" s="354"/>
-      <c r="H80" s="350"/>
-      <c r="I80" s="351"/>
-      <c r="J80" s="351"/>
-      <c r="K80" s="336"/>
-      <c r="L80" s="336"/>
+      <c r="B80" s="310"/>
+      <c r="C80" s="342"/>
+      <c r="D80" s="340"/>
+      <c r="E80" s="351"/>
+      <c r="F80" s="296"/>
+      <c r="G80" s="352"/>
+      <c r="H80" s="357"/>
+      <c r="I80" s="347"/>
+      <c r="J80" s="347"/>
+      <c r="K80" s="339"/>
+      <c r="L80" s="339"/>
       <c r="M80" s="57">
         <v>6074.43</v>
       </c>
@@ -22289,9 +22294,9 @@
       <c r="P80" s="6">
         <v>45363</v>
       </c>
-      <c r="Q80" s="307"/>
-      <c r="R80" s="304"/>
-      <c r="S80" s="306"/>
+      <c r="Q80" s="295"/>
+      <c r="R80" s="322"/>
+      <c r="S80" s="296"/>
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22360,38 +22365,38 @@
       <c r="A82" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="338">
+      <c r="B82" s="354">
         <v>20543324915</v>
       </c>
-      <c r="C82" s="339" t="s">
+      <c r="C82" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="298"/>
-      <c r="E82" s="334" t="s">
+      <c r="D82" s="325"/>
+      <c r="E82" s="345" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="306">
+      <c r="F82" s="296">
         <v>45362</v>
       </c>
-      <c r="G82" s="348">
+      <c r="G82" s="355">
         <v>3.6960000000000002</v>
       </c>
-      <c r="H82" s="349">
+      <c r="H82" s="356">
         <v>5202.03</v>
       </c>
-      <c r="I82" s="335">
+      <c r="I82" s="338">
         <f t="shared" si="19"/>
         <v>936.36539999999991</v>
       </c>
-      <c r="J82" s="335">
+      <c r="J82" s="338">
         <f t="shared" si="20"/>
         <v>6138.3953999999994</v>
       </c>
-      <c r="K82" s="336">
+      <c r="K82" s="339">
         <f t="shared" si="21"/>
         <v>5401.7879519999997</v>
       </c>
-      <c r="L82" s="336">
+      <c r="L82" s="339">
         <f t="shared" si="22"/>
         <v>2722.5011278079996</v>
       </c>
@@ -22407,13 +22412,13 @@
       <c r="P82" s="174">
         <v>45393</v>
       </c>
-      <c r="Q82" s="307">
+      <c r="Q82" s="295">
         <v>2723</v>
       </c>
-      <c r="R82" s="306">
+      <c r="R82" s="296">
         <v>45433</v>
       </c>
-      <c r="S82" s="306">
+      <c r="S82" s="296">
         <v>45434</v>
       </c>
       <c r="T82" s="1"/>
@@ -22422,17 +22427,17 @@
       <c r="A83" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B83" s="338"/>
-      <c r="C83" s="339"/>
-      <c r="D83" s="298"/>
-      <c r="E83" s="334"/>
-      <c r="F83" s="306"/>
-      <c r="G83" s="348"/>
-      <c r="H83" s="349"/>
-      <c r="I83" s="335"/>
-      <c r="J83" s="335"/>
-      <c r="K83" s="336"/>
-      <c r="L83" s="336"/>
+      <c r="B83" s="354"/>
+      <c r="C83" s="342"/>
+      <c r="D83" s="325"/>
+      <c r="E83" s="345"/>
+      <c r="F83" s="296"/>
+      <c r="G83" s="355"/>
+      <c r="H83" s="356"/>
+      <c r="I83" s="338"/>
+      <c r="J83" s="338"/>
+      <c r="K83" s="339"/>
+      <c r="L83" s="339"/>
       <c r="M83" s="188">
         <v>2111.9899999999998</v>
       </c>
@@ -22445,9 +22450,9 @@
       <c r="P83" s="180">
         <v>45432</v>
       </c>
-      <c r="Q83" s="307"/>
-      <c r="R83" s="298"/>
-      <c r="S83" s="298"/>
+      <c r="Q83" s="295"/>
+      <c r="R83" s="325"/>
+      <c r="S83" s="325"/>
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -22539,14 +22544,14 @@
         <f t="shared" ref="L85:L94" si="24">+(J85*12%)*G85</f>
         <v>313383.11412096</v>
       </c>
-      <c r="M85" s="340" t="s">
+      <c r="M85" s="353" t="s">
         <v>225</v>
       </c>
-      <c r="N85" s="340"/>
-      <c r="O85" s="340"/>
-      <c r="P85" s="340"/>
-      <c r="Q85" s="340"/>
-      <c r="R85" s="340"/>
+      <c r="N85" s="353"/>
+      <c r="O85" s="353"/>
+      <c r="P85" s="353"/>
+      <c r="Q85" s="353"/>
+      <c r="R85" s="353"/>
       <c r="S85" s="3"/>
       <c r="T85" s="1"/>
     </row>
@@ -22554,38 +22559,38 @@
       <c r="A86" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B86" s="312">
+      <c r="B86" s="310">
         <v>20100677661</v>
       </c>
-      <c r="C86" s="339" t="s">
+      <c r="C86" s="342" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="298"/>
-      <c r="E86" s="334" t="s">
+      <c r="D86" s="325"/>
+      <c r="E86" s="345" t="s">
         <v>94</v>
       </c>
-      <c r="F86" s="306">
+      <c r="F86" s="296">
         <v>45369</v>
       </c>
-      <c r="G86" s="348">
+      <c r="G86" s="355">
         <v>3.6920000000000002</v>
       </c>
-      <c r="H86" s="335">
+      <c r="H86" s="338">
         <v>599446.80000000005</v>
       </c>
-      <c r="I86" s="335">
+      <c r="I86" s="338">
         <f t="shared" si="19"/>
         <v>107900.424</v>
       </c>
-      <c r="J86" s="335">
+      <c r="J86" s="338">
         <f t="shared" si="20"/>
         <v>707347.22400000005</v>
       </c>
-      <c r="K86" s="336">
+      <c r="K86" s="339">
         <f t="shared" si="23"/>
         <v>622465.55712000001</v>
       </c>
-      <c r="L86" s="336">
+      <c r="L86" s="339">
         <f t="shared" si="24"/>
         <v>313383.11412096</v>
       </c>
@@ -22601,13 +22606,13 @@
       <c r="P86" s="20">
         <v>45415</v>
       </c>
-      <c r="Q86" s="335">
+      <c r="Q86" s="338">
         <v>313383</v>
       </c>
-      <c r="R86" s="306">
+      <c r="R86" s="296">
         <v>45405</v>
       </c>
-      <c r="S86" s="306">
+      <c r="S86" s="296">
         <v>45406</v>
       </c>
       <c r="T86" s="1"/>
@@ -22616,17 +22621,17 @@
       <c r="A87" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B87" s="312"/>
-      <c r="C87" s="339"/>
-      <c r="D87" s="298"/>
-      <c r="E87" s="334"/>
-      <c r="F87" s="306"/>
-      <c r="G87" s="348"/>
-      <c r="H87" s="335"/>
-      <c r="I87" s="335"/>
-      <c r="J87" s="335"/>
-      <c r="K87" s="336"/>
-      <c r="L87" s="336"/>
+      <c r="B87" s="310"/>
+      <c r="C87" s="342"/>
+      <c r="D87" s="325"/>
+      <c r="E87" s="345"/>
+      <c r="F87" s="296"/>
+      <c r="G87" s="355"/>
+      <c r="H87" s="338"/>
+      <c r="I87" s="338"/>
+      <c r="J87" s="338"/>
+      <c r="K87" s="339"/>
+      <c r="L87" s="339"/>
       <c r="M87" s="30">
         <v>103744.26</v>
       </c>
@@ -22639,26 +22644,26 @@
       <c r="P87" s="20">
         <v>45440</v>
       </c>
-      <c r="Q87" s="335"/>
-      <c r="R87" s="306"/>
-      <c r="S87" s="306"/>
+      <c r="Q87" s="338"/>
+      <c r="R87" s="296"/>
+      <c r="S87" s="296"/>
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="312"/>
-      <c r="C88" s="339"/>
-      <c r="D88" s="298"/>
-      <c r="E88" s="334"/>
-      <c r="F88" s="306"/>
-      <c r="G88" s="348"/>
-      <c r="H88" s="335"/>
-      <c r="I88" s="335"/>
-      <c r="J88" s="335"/>
-      <c r="K88" s="336"/>
-      <c r="L88" s="336"/>
+      <c r="B88" s="310"/>
+      <c r="C88" s="342"/>
+      <c r="D88" s="325"/>
+      <c r="E88" s="345"/>
+      <c r="F88" s="296"/>
+      <c r="G88" s="355"/>
+      <c r="H88" s="338"/>
+      <c r="I88" s="338"/>
+      <c r="J88" s="338"/>
+      <c r="K88" s="339"/>
+      <c r="L88" s="339"/>
       <c r="M88" s="30">
         <v>103744.26</v>
       </c>
@@ -22671,26 +22676,26 @@
       <c r="P88" s="20">
         <v>45475</v>
       </c>
-      <c r="Q88" s="335"/>
-      <c r="R88" s="306"/>
-      <c r="S88" s="306"/>
+      <c r="Q88" s="338"/>
+      <c r="R88" s="296"/>
+      <c r="S88" s="296"/>
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B89" s="312"/>
-      <c r="C89" s="339"/>
-      <c r="D89" s="298"/>
-      <c r="E89" s="334"/>
-      <c r="F89" s="306"/>
-      <c r="G89" s="348"/>
-      <c r="H89" s="335"/>
-      <c r="I89" s="335"/>
-      <c r="J89" s="335"/>
-      <c r="K89" s="336"/>
-      <c r="L89" s="336"/>
+      <c r="B89" s="310"/>
+      <c r="C89" s="342"/>
+      <c r="D89" s="325"/>
+      <c r="E89" s="345"/>
+      <c r="F89" s="296"/>
+      <c r="G89" s="355"/>
+      <c r="H89" s="338"/>
+      <c r="I89" s="338"/>
+      <c r="J89" s="338"/>
+      <c r="K89" s="339"/>
+      <c r="L89" s="339"/>
       <c r="M89" s="36">
         <v>103744.26</v>
       </c>
@@ -22703,26 +22708,26 @@
       <c r="P89" s="20">
         <v>45505</v>
       </c>
-      <c r="Q89" s="335"/>
-      <c r="R89" s="306"/>
-      <c r="S89" s="306"/>
+      <c r="Q89" s="338"/>
+      <c r="R89" s="296"/>
+      <c r="S89" s="296"/>
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B90" s="312"/>
-      <c r="C90" s="339"/>
-      <c r="D90" s="298"/>
-      <c r="E90" s="334"/>
-      <c r="F90" s="306"/>
-      <c r="G90" s="348"/>
-      <c r="H90" s="335"/>
-      <c r="I90" s="335"/>
-      <c r="J90" s="335"/>
-      <c r="K90" s="336"/>
-      <c r="L90" s="336"/>
+      <c r="B90" s="310"/>
+      <c r="C90" s="342"/>
+      <c r="D90" s="325"/>
+      <c r="E90" s="345"/>
+      <c r="F90" s="296"/>
+      <c r="G90" s="355"/>
+      <c r="H90" s="338"/>
+      <c r="I90" s="338"/>
+      <c r="J90" s="338"/>
+      <c r="K90" s="339"/>
+      <c r="L90" s="339"/>
       <c r="M90" s="36">
         <v>103744.26</v>
       </c>
@@ -22735,26 +22740,26 @@
       <c r="P90" s="20">
         <v>45526</v>
       </c>
-      <c r="Q90" s="335"/>
-      <c r="R90" s="306"/>
-      <c r="S90" s="306"/>
+      <c r="Q90" s="338"/>
+      <c r="R90" s="296"/>
+      <c r="S90" s="296"/>
       <c r="T90" s="1"/>
     </row>
     <row r="91" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B91" s="312"/>
-      <c r="C91" s="339"/>
-      <c r="D91" s="298"/>
-      <c r="E91" s="334"/>
-      <c r="F91" s="306"/>
-      <c r="G91" s="348"/>
-      <c r="H91" s="335"/>
-      <c r="I91" s="335"/>
-      <c r="J91" s="335"/>
-      <c r="K91" s="336"/>
-      <c r="L91" s="336"/>
+      <c r="B91" s="310"/>
+      <c r="C91" s="342"/>
+      <c r="D91" s="325"/>
+      <c r="E91" s="345"/>
+      <c r="F91" s="296"/>
+      <c r="G91" s="355"/>
+      <c r="H91" s="338"/>
+      <c r="I91" s="338"/>
+      <c r="J91" s="338"/>
+      <c r="K91" s="339"/>
+      <c r="L91" s="339"/>
       <c r="M91" s="36">
         <v>103744.29</v>
       </c>
@@ -22767,9 +22772,9 @@
       <c r="P91" s="20">
         <v>45561</v>
       </c>
-      <c r="Q91" s="335"/>
-      <c r="R91" s="306"/>
-      <c r="S91" s="306"/>
+      <c r="Q91" s="338"/>
+      <c r="R91" s="296"/>
+      <c r="S91" s="296"/>
       <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23953,14 +23958,14 @@
         <f>+(J111*12%)*G111</f>
         <v>2615.0673839999999</v>
       </c>
-      <c r="M111" s="342" t="s">
+      <c r="M111" s="337" t="s">
         <v>247</v>
       </c>
-      <c r="N111" s="342"/>
-      <c r="O111" s="342"/>
-      <c r="P111" s="342"/>
-      <c r="Q111" s="342"/>
-      <c r="R111" s="342"/>
+      <c r="N111" s="337"/>
+      <c r="O111" s="337"/>
+      <c r="P111" s="337"/>
+      <c r="Q111" s="337"/>
+      <c r="R111" s="337"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
@@ -24623,14 +24628,14 @@
         <f>+(J122*12%)</f>
         <v>28764.939768</v>
       </c>
-      <c r="M122" s="342" t="s">
+      <c r="M122" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="N122" s="342"/>
-      <c r="O122" s="342"/>
-      <c r="P122" s="342"/>
-      <c r="Q122" s="342"/>
-      <c r="R122" s="342"/>
+      <c r="N122" s="337"/>
+      <c r="O122" s="337"/>
+      <c r="P122" s="337"/>
+      <c r="Q122" s="337"/>
+      <c r="R122" s="337"/>
       <c r="S122" s="92"/>
       <c r="T122" s="1"/>
     </row>
@@ -25157,14 +25162,14 @@
         <f t="shared" si="39"/>
         <v>13126.320000000002</v>
       </c>
-      <c r="M131" s="342" t="s">
+      <c r="M131" s="337" t="s">
         <v>234</v>
       </c>
-      <c r="N131" s="342"/>
-      <c r="O131" s="342"/>
-      <c r="P131" s="342"/>
-      <c r="Q131" s="342"/>
-      <c r="R131" s="342"/>
+      <c r="N131" s="337"/>
+      <c r="O131" s="337"/>
+      <c r="P131" s="337"/>
+      <c r="Q131" s="337"/>
+      <c r="R131" s="337"/>
       <c r="S131" s="92"/>
       <c r="T131" s="1"/>
     </row>
@@ -25331,14 +25336,14 @@
         <f t="shared" si="39"/>
         <v>48572.901220272004</v>
       </c>
-      <c r="M134" s="342" t="s">
+      <c r="M134" s="337" t="s">
         <v>235</v>
       </c>
-      <c r="N134" s="342"/>
-      <c r="O134" s="342"/>
-      <c r="P134" s="342"/>
-      <c r="Q134" s="342"/>
-      <c r="R134" s="342"/>
+      <c r="N134" s="337"/>
+      <c r="O134" s="337"/>
+      <c r="P134" s="337"/>
+      <c r="Q134" s="337"/>
+      <c r="R134" s="337"/>
       <c r="S134" s="92"/>
       <c r="T134" s="1"/>
     </row>
@@ -25443,14 +25448,14 @@
         <f t="shared" si="39"/>
         <v>1558.579872</v>
       </c>
-      <c r="M136" s="342" t="s">
+      <c r="M136" s="337" t="s">
         <v>236</v>
       </c>
-      <c r="N136" s="342"/>
-      <c r="O136" s="342"/>
-      <c r="P136" s="342"/>
-      <c r="Q136" s="342"/>
-      <c r="R136" s="342"/>
+      <c r="N136" s="337"/>
+      <c r="O136" s="337"/>
+      <c r="P136" s="337"/>
+      <c r="Q136" s="337"/>
+      <c r="R136" s="337"/>
       <c r="S136" s="16"/>
       <c r="T136" s="1"/>
     </row>
@@ -26039,14 +26044,14 @@
         <f t="shared" ref="L146:L148" si="40">+(J146*12%)*G146</f>
         <v>1564.8509819999997</v>
       </c>
-      <c r="M146" s="342" t="s">
+      <c r="M146" s="337" t="s">
         <v>237</v>
       </c>
-      <c r="N146" s="342"/>
-      <c r="O146" s="342"/>
-      <c r="P146" s="342"/>
-      <c r="Q146" s="342"/>
-      <c r="R146" s="342"/>
+      <c r="N146" s="337"/>
+      <c r="O146" s="337"/>
+      <c r="P146" s="337"/>
+      <c r="Q146" s="337"/>
+      <c r="R146" s="337"/>
       <c r="S146" s="16"/>
       <c r="T146" s="1"/>
     </row>
@@ -26532,38 +26537,38 @@
       <c r="A155" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B155" s="312">
+      <c r="B155" s="310">
         <v>20104443819</v>
       </c>
-      <c r="C155" s="339" t="s">
+      <c r="C155" s="342" t="s">
         <v>171</v>
       </c>
-      <c r="D155" s="298"/>
-      <c r="E155" s="334" t="s">
+      <c r="D155" s="325"/>
+      <c r="E155" s="345" t="s">
         <v>172</v>
       </c>
-      <c r="F155" s="306">
+      <c r="F155" s="296">
         <v>45440</v>
       </c>
-      <c r="G155" s="298">
+      <c r="G155" s="325">
         <v>3.7480000000000002</v>
       </c>
-      <c r="H155" s="335">
+      <c r="H155" s="338">
         <v>7830</v>
       </c>
-      <c r="I155" s="335">
+      <c r="I155" s="338">
         <f t="shared" si="36"/>
         <v>1409.3999999999999</v>
       </c>
-      <c r="J155" s="335">
+      <c r="J155" s="338">
         <f t="shared" si="37"/>
         <v>9239.4</v>
       </c>
-      <c r="K155" s="336">
+      <c r="K155" s="339">
         <f t="shared" si="41"/>
         <v>8130.6719999999996</v>
       </c>
-      <c r="L155" s="336">
+      <c r="L155" s="339">
         <f t="shared" si="42"/>
         <v>4155.5125439999993</v>
       </c>
@@ -26579,13 +26584,13 @@
       <c r="P155" s="20">
         <v>45527</v>
       </c>
-      <c r="Q155" s="335">
+      <c r="Q155" s="338">
         <v>4156</v>
       </c>
-      <c r="R155" s="306">
+      <c r="R155" s="296">
         <v>45518</v>
       </c>
-      <c r="S155" s="306">
+      <c r="S155" s="296">
         <v>45519</v>
       </c>
       <c r="T155" s="1"/>
@@ -26594,17 +26599,17 @@
       <c r="A156" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="312"/>
-      <c r="C156" s="339"/>
-      <c r="D156" s="298"/>
-      <c r="E156" s="334"/>
-      <c r="F156" s="306"/>
-      <c r="G156" s="298"/>
-      <c r="H156" s="335"/>
-      <c r="I156" s="335"/>
-      <c r="J156" s="335"/>
-      <c r="K156" s="336"/>
-      <c r="L156" s="336"/>
+      <c r="B156" s="310"/>
+      <c r="C156" s="342"/>
+      <c r="D156" s="325"/>
+      <c r="E156" s="345"/>
+      <c r="F156" s="296"/>
+      <c r="G156" s="325"/>
+      <c r="H156" s="338"/>
+      <c r="I156" s="338"/>
+      <c r="J156" s="338"/>
+      <c r="K156" s="339"/>
+      <c r="L156" s="339"/>
       <c r="M156" s="55">
         <v>2000</v>
       </c>
@@ -26617,26 +26622,26 @@
       <c r="P156" s="20">
         <v>45542</v>
       </c>
-      <c r="Q156" s="335"/>
-      <c r="R156" s="298"/>
-      <c r="S156" s="298"/>
+      <c r="Q156" s="338"/>
+      <c r="R156" s="325"/>
+      <c r="S156" s="325"/>
       <c r="T156" s="1"/>
     </row>
     <row r="157" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B157" s="312"/>
-      <c r="C157" s="339"/>
-      <c r="D157" s="298"/>
-      <c r="E157" s="334"/>
-      <c r="F157" s="306"/>
-      <c r="G157" s="298"/>
-      <c r="H157" s="335"/>
-      <c r="I157" s="335"/>
-      <c r="J157" s="335"/>
-      <c r="K157" s="336"/>
-      <c r="L157" s="336"/>
+      <c r="B157" s="310"/>
+      <c r="C157" s="342"/>
+      <c r="D157" s="325"/>
+      <c r="E157" s="345"/>
+      <c r="F157" s="296"/>
+      <c r="G157" s="325"/>
+      <c r="H157" s="338"/>
+      <c r="I157" s="338"/>
+      <c r="J157" s="338"/>
+      <c r="K157" s="339"/>
+      <c r="L157" s="339"/>
       <c r="M157" s="55">
         <v>1000</v>
       </c>
@@ -26649,26 +26654,26 @@
       <c r="P157" s="20">
         <v>45555</v>
       </c>
-      <c r="Q157" s="335"/>
-      <c r="R157" s="298"/>
-      <c r="S157" s="298"/>
+      <c r="Q157" s="338"/>
+      <c r="R157" s="325"/>
+      <c r="S157" s="325"/>
       <c r="T157" s="1"/>
     </row>
     <row r="158" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B158" s="312"/>
-      <c r="C158" s="339"/>
-      <c r="D158" s="298"/>
-      <c r="E158" s="334"/>
-      <c r="F158" s="306"/>
-      <c r="G158" s="298"/>
-      <c r="H158" s="335"/>
-      <c r="I158" s="335"/>
-      <c r="J158" s="335"/>
-      <c r="K158" s="336"/>
-      <c r="L158" s="336"/>
+      <c r="B158" s="310"/>
+      <c r="C158" s="342"/>
+      <c r="D158" s="325"/>
+      <c r="E158" s="345"/>
+      <c r="F158" s="296"/>
+      <c r="G158" s="325"/>
+      <c r="H158" s="338"/>
+      <c r="I158" s="338"/>
+      <c r="J158" s="338"/>
+      <c r="K158" s="339"/>
+      <c r="L158" s="339"/>
       <c r="M158" s="55">
         <v>1500</v>
       </c>
@@ -26681,26 +26686,26 @@
       <c r="P158" s="20">
         <v>45569</v>
       </c>
-      <c r="Q158" s="335"/>
-      <c r="R158" s="298"/>
-      <c r="S158" s="298"/>
+      <c r="Q158" s="338"/>
+      <c r="R158" s="325"/>
+      <c r="S158" s="325"/>
       <c r="T158" s="1"/>
     </row>
     <row r="159" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="312"/>
-      <c r="C159" s="339"/>
-      <c r="D159" s="298"/>
-      <c r="E159" s="334"/>
-      <c r="F159" s="306"/>
-      <c r="G159" s="298"/>
-      <c r="H159" s="335"/>
-      <c r="I159" s="335"/>
-      <c r="J159" s="335"/>
-      <c r="K159" s="336"/>
-      <c r="L159" s="336"/>
+      <c r="B159" s="310"/>
+      <c r="C159" s="342"/>
+      <c r="D159" s="325"/>
+      <c r="E159" s="345"/>
+      <c r="F159" s="296"/>
+      <c r="G159" s="325"/>
+      <c r="H159" s="338"/>
+      <c r="I159" s="338"/>
+      <c r="J159" s="338"/>
+      <c r="K159" s="339"/>
+      <c r="L159" s="339"/>
       <c r="M159" s="55">
         <v>1630.54</v>
       </c>
@@ -26713,9 +26718,9 @@
       <c r="P159" s="20">
         <v>45576</v>
       </c>
-      <c r="Q159" s="335"/>
-      <c r="R159" s="298"/>
-      <c r="S159" s="298"/>
+      <c r="Q159" s="338"/>
+      <c r="R159" s="325"/>
+      <c r="S159" s="325"/>
       <c r="T159" s="1"/>
     </row>
     <row r="160" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26819,14 +26824,14 @@
         <f t="shared" si="42"/>
         <v>22939.200000000001</v>
       </c>
-      <c r="M161" s="342" t="s">
+      <c r="M161" s="337" t="s">
         <v>252</v>
       </c>
-      <c r="N161" s="342"/>
-      <c r="O161" s="342"/>
-      <c r="P161" s="342"/>
-      <c r="Q161" s="342"/>
-      <c r="R161" s="342"/>
+      <c r="N161" s="337"/>
+      <c r="O161" s="337"/>
+      <c r="P161" s="337"/>
+      <c r="Q161" s="337"/>
+      <c r="R161" s="337"/>
       <c r="S161" s="3"/>
       <c r="T161" s="1"/>
     </row>
@@ -27326,51 +27331,51 @@
       <c r="A170" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B170" s="343">
+      <c r="B170" s="358">
         <v>20557124331</v>
       </c>
-      <c r="C170" s="344" t="s">
+      <c r="C170" s="359" t="s">
         <v>248</v>
       </c>
       <c r="D170" s="209"/>
-      <c r="E170" s="345" t="s">
+      <c r="E170" s="360" t="s">
         <v>264</v>
       </c>
-      <c r="F170" s="346">
+      <c r="F170" s="361">
         <v>45447</v>
       </c>
-      <c r="G170" s="347">
+      <c r="G170" s="362">
         <v>3.7360000000000002</v>
       </c>
-      <c r="H170" s="307">
+      <c r="H170" s="295">
         <v>55500</v>
       </c>
-      <c r="I170" s="307">
+      <c r="I170" s="295">
         <f t="shared" si="43"/>
         <v>9990</v>
       </c>
-      <c r="J170" s="307">
+      <c r="J170" s="295">
         <f t="shared" si="44"/>
         <v>65490</v>
       </c>
-      <c r="K170" s="341">
+      <c r="K170" s="344">
         <f t="shared" si="45"/>
         <v>57631.199999999997</v>
       </c>
-      <c r="L170" s="341">
+      <c r="L170" s="344">
         <f t="shared" si="46"/>
         <v>29360.4768</v>
       </c>
-      <c r="M170" s="307">
+      <c r="M170" s="295">
         <v>57631</v>
       </c>
-      <c r="N170" s="307" t="s">
+      <c r="N170" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="O170" s="307" t="s">
+      <c r="O170" s="295" t="s">
         <v>200</v>
       </c>
-      <c r="P170" s="337">
+      <c r="P170" s="363">
         <v>45541</v>
       </c>
       <c r="Q170" s="201">
@@ -27388,21 +27393,21 @@
       <c r="A171" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B171" s="343"/>
-      <c r="C171" s="344"/>
+      <c r="B171" s="358"/>
+      <c r="C171" s="359"/>
       <c r="D171" s="209"/>
-      <c r="E171" s="345"/>
-      <c r="F171" s="346"/>
-      <c r="G171" s="347"/>
-      <c r="H171" s="307"/>
-      <c r="I171" s="307"/>
-      <c r="J171" s="307"/>
-      <c r="K171" s="341"/>
-      <c r="L171" s="341"/>
-      <c r="M171" s="307"/>
-      <c r="N171" s="307"/>
-      <c r="O171" s="307"/>
-      <c r="P171" s="307"/>
+      <c r="E171" s="360"/>
+      <c r="F171" s="361"/>
+      <c r="G171" s="362"/>
+      <c r="H171" s="295"/>
+      <c r="I171" s="295"/>
+      <c r="J171" s="295"/>
+      <c r="K171" s="344"/>
+      <c r="L171" s="344"/>
+      <c r="M171" s="295"/>
+      <c r="N171" s="295"/>
+      <c r="O171" s="295"/>
+      <c r="P171" s="295"/>
       <c r="Q171" s="201">
         <v>3000</v>
       </c>
@@ -27517,14 +27522,14 @@
         <f t="shared" si="46"/>
         <v>12656.146001855999</v>
       </c>
-      <c r="M173" s="340" t="s">
+      <c r="M173" s="353" t="s">
         <v>267</v>
       </c>
-      <c r="N173" s="340"/>
-      <c r="O173" s="340"/>
-      <c r="P173" s="340"/>
-      <c r="Q173" s="340"/>
-      <c r="R173" s="340"/>
+      <c r="N173" s="353"/>
+      <c r="O173" s="353"/>
+      <c r="P173" s="353"/>
+      <c r="Q173" s="353"/>
+      <c r="R173" s="353"/>
       <c r="S173" s="55"/>
       <c r="T173" s="211" t="s">
         <v>238</v>
@@ -27633,14 +27638,14 @@
         <f t="shared" si="46"/>
         <v>9814.9683989279984</v>
       </c>
-      <c r="M175" s="340" t="s">
+      <c r="M175" s="353" t="s">
         <v>270</v>
       </c>
-      <c r="N175" s="340"/>
-      <c r="O175" s="340"/>
-      <c r="P175" s="340"/>
-      <c r="Q175" s="340"/>
-      <c r="R175" s="340"/>
+      <c r="N175" s="353"/>
+      <c r="O175" s="353"/>
+      <c r="P175" s="353"/>
+      <c r="Q175" s="353"/>
+      <c r="R175" s="353"/>
       <c r="S175" s="55"/>
       <c r="T175" s="211" t="s">
         <v>238</v>
@@ -28326,38 +28331,38 @@
       <c r="A187" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B187" s="332">
+      <c r="B187" s="364">
         <v>20557124331</v>
       </c>
-      <c r="C187" s="339" t="s">
+      <c r="C187" s="342" t="s">
         <v>248</v>
       </c>
       <c r="D187" s="201"/>
-      <c r="E187" s="307" t="s">
+      <c r="E187" s="295" t="s">
         <v>282</v>
       </c>
-      <c r="F187" s="337">
+      <c r="F187" s="363">
         <v>45462</v>
       </c>
       <c r="G187" s="3">
         <v>3.7890000000000001</v>
       </c>
-      <c r="H187" s="307">
+      <c r="H187" s="295">
         <v>47123.53</v>
       </c>
-      <c r="I187" s="335">
+      <c r="I187" s="338">
         <f t="shared" si="43"/>
         <v>8482.2353999999996</v>
       </c>
-      <c r="J187" s="335">
+      <c r="J187" s="338">
         <f t="shared" si="44"/>
         <v>55605.765399999997</v>
       </c>
-      <c r="K187" s="336">
+      <c r="K187" s="339">
         <f t="shared" si="45"/>
         <v>48933.073551999994</v>
       </c>
-      <c r="L187" s="336">
+      <c r="L187" s="339">
         <f t="shared" si="46"/>
         <v>25282.829412071998</v>
       </c>
@@ -28373,13 +28378,13 @@
       <c r="P187" s="202">
         <v>45541</v>
       </c>
-      <c r="Q187" s="307">
+      <c r="Q187" s="295">
         <v>25283</v>
       </c>
-      <c r="R187" s="337">
+      <c r="R187" s="363">
         <v>45474</v>
       </c>
-      <c r="S187" s="337">
+      <c r="S187" s="363">
         <v>45475</v>
       </c>
       <c r="T187" s="55"/>
@@ -28388,17 +28393,17 @@
       <c r="A188" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B188" s="332"/>
-      <c r="C188" s="339"/>
+      <c r="B188" s="364"/>
+      <c r="C188" s="342"/>
       <c r="D188" s="201"/>
-      <c r="E188" s="307"/>
-      <c r="F188" s="337"/>
+      <c r="E188" s="295"/>
+      <c r="F188" s="363"/>
       <c r="G188" s="3"/>
-      <c r="H188" s="307"/>
-      <c r="I188" s="335"/>
-      <c r="J188" s="335"/>
-      <c r="K188" s="336"/>
-      <c r="L188" s="336"/>
+      <c r="H188" s="295"/>
+      <c r="I188" s="338"/>
+      <c r="J188" s="338"/>
+      <c r="K188" s="339"/>
+      <c r="L188" s="339"/>
       <c r="M188" s="154">
         <v>21960.25</v>
       </c>
@@ -28411,9 +28416,9 @@
       <c r="P188" s="202">
         <v>45548</v>
       </c>
-      <c r="Q188" s="307"/>
-      <c r="R188" s="337"/>
-      <c r="S188" s="337"/>
+      <c r="Q188" s="295"/>
+      <c r="R188" s="363"/>
+      <c r="S188" s="363"/>
       <c r="T188" s="55" t="s">
         <v>244</v>
       </c>
@@ -28678,38 +28683,38 @@
       <c r="A193" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B193" s="338">
+      <c r="B193" s="354">
         <v>20543324915</v>
       </c>
-      <c r="C193" s="339" t="s">
+      <c r="C193" s="342" t="s">
         <v>4</v>
       </c>
       <c r="D193" s="189"/>
-      <c r="E193" s="307" t="s">
+      <c r="E193" s="295" t="s">
         <v>287</v>
       </c>
-      <c r="F193" s="337">
+      <c r="F193" s="363">
         <v>45463</v>
       </c>
       <c r="G193" s="3">
         <v>3.8180000000000001</v>
       </c>
-      <c r="H193" s="307">
+      <c r="H193" s="295">
         <v>5454.02</v>
       </c>
-      <c r="I193" s="335">
+      <c r="I193" s="338">
         <f t="shared" si="43"/>
         <v>981.72360000000003</v>
       </c>
-      <c r="J193" s="335">
+      <c r="J193" s="338">
         <f t="shared" si="44"/>
         <v>6435.7436000000007</v>
       </c>
-      <c r="K193" s="336">
+      <c r="K193" s="339">
         <f t="shared" si="45"/>
         <v>5663.4543680000006</v>
       </c>
-      <c r="L193" s="336">
+      <c r="L193" s="339">
         <f t="shared" si="46"/>
         <v>2948.6002877760002</v>
       </c>
@@ -28725,13 +28730,13 @@
       <c r="P193" s="202">
         <v>45504</v>
       </c>
-      <c r="Q193" s="307">
+      <c r="Q193" s="295">
         <v>2949</v>
       </c>
-      <c r="R193" s="337">
+      <c r="R193" s="363">
         <v>45560</v>
       </c>
-      <c r="S193" s="337">
+      <c r="S193" s="363">
         <v>45561</v>
       </c>
       <c r="T193" s="55"/>
@@ -28740,17 +28745,17 @@
       <c r="A194" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B194" s="338"/>
-      <c r="C194" s="339"/>
+      <c r="B194" s="354"/>
+      <c r="C194" s="342"/>
       <c r="D194" s="189"/>
-      <c r="E194" s="307"/>
-      <c r="F194" s="337"/>
+      <c r="E194" s="295"/>
+      <c r="F194" s="363"/>
       <c r="G194" s="3"/>
-      <c r="H194" s="307"/>
-      <c r="I194" s="335"/>
-      <c r="J194" s="335"/>
-      <c r="K194" s="336"/>
-      <c r="L194" s="336"/>
+      <c r="H194" s="295"/>
+      <c r="I194" s="338"/>
+      <c r="J194" s="338"/>
+      <c r="K194" s="339"/>
+      <c r="L194" s="339"/>
       <c r="M194" s="201">
         <v>4500</v>
       </c>
@@ -28763,47 +28768,47 @@
       <c r="P194" s="202">
         <v>45504</v>
       </c>
-      <c r="Q194" s="307"/>
-      <c r="R194" s="307"/>
-      <c r="S194" s="307"/>
+      <c r="Q194" s="295"/>
+      <c r="R194" s="295"/>
+      <c r="S194" s="295"/>
       <c r="T194" s="55"/>
     </row>
     <row r="195" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B195" s="332">
+      <c r="B195" s="364">
         <v>20610615539</v>
       </c>
       <c r="C195" s="50" t="s">
         <v>413</v>
       </c>
       <c r="D195" s="189"/>
-      <c r="E195" s="307" t="s">
+      <c r="E195" s="295" t="s">
         <v>288</v>
       </c>
-      <c r="F195" s="337">
+      <c r="F195" s="363">
         <v>45464</v>
       </c>
       <c r="G195" s="3">
         <v>3.8140000000000001</v>
       </c>
-      <c r="H195" s="307">
+      <c r="H195" s="295">
         <v>4525</v>
       </c>
-      <c r="I195" s="335">
+      <c r="I195" s="338">
         <f t="shared" si="43"/>
         <v>814.5</v>
       </c>
-      <c r="J195" s="335">
+      <c r="J195" s="338">
         <f t="shared" si="44"/>
         <v>5339.5</v>
       </c>
-      <c r="K195" s="336">
+      <c r="K195" s="339">
         <f t="shared" si="45"/>
         <v>4698.76</v>
       </c>
-      <c r="L195" s="336">
+      <c r="L195" s="339">
         <f t="shared" si="46"/>
         <v>2443.7823600000002</v>
       </c>
@@ -28819,13 +28824,13 @@
       <c r="P195" s="202">
         <v>45468</v>
       </c>
-      <c r="Q195" s="307">
+      <c r="Q195" s="295">
         <v>2444</v>
       </c>
-      <c r="R195" s="337">
+      <c r="R195" s="363">
         <v>45468</v>
       </c>
-      <c r="S195" s="337">
+      <c r="S195" s="363">
         <v>45469</v>
       </c>
       <c r="T195" s="55" t="s">
@@ -28836,17 +28841,17 @@
       <c r="A196" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B196" s="332"/>
+      <c r="B196" s="364"/>
       <c r="C196" s="50"/>
       <c r="D196" s="189"/>
-      <c r="E196" s="307"/>
-      <c r="F196" s="337"/>
+      <c r="E196" s="295"/>
+      <c r="F196" s="363"/>
       <c r="G196" s="3"/>
-      <c r="H196" s="307"/>
-      <c r="I196" s="335"/>
-      <c r="J196" s="335"/>
-      <c r="K196" s="336"/>
-      <c r="L196" s="336"/>
+      <c r="H196" s="295"/>
+      <c r="I196" s="338"/>
+      <c r="J196" s="338"/>
+      <c r="K196" s="339"/>
+      <c r="L196" s="339"/>
       <c r="M196" s="201">
         <v>2349.38</v>
       </c>
@@ -28859,9 +28864,9 @@
       <c r="P196" s="202">
         <v>45483</v>
       </c>
-      <c r="Q196" s="307"/>
-      <c r="R196" s="337"/>
-      <c r="S196" s="337"/>
+      <c r="Q196" s="295"/>
+      <c r="R196" s="363"/>
+      <c r="S196" s="363"/>
       <c r="T196" s="55" t="s">
         <v>239</v>
       </c>
@@ -30127,14 +30132,14 @@
       </c>
       <c r="K217" s="229"/>
       <c r="L217" s="229"/>
-      <c r="M217" s="331"/>
-      <c r="N217" s="331"/>
-      <c r="O217" s="331"/>
-      <c r="P217" s="331"/>
-      <c r="Q217" s="331"/>
-      <c r="R217" s="331"/>
-      <c r="S217" s="331"/>
-      <c r="T217" s="331"/>
+      <c r="M217" s="366"/>
+      <c r="N217" s="366"/>
+      <c r="O217" s="366"/>
+      <c r="P217" s="366"/>
+      <c r="Q217" s="366"/>
+      <c r="R217" s="366"/>
+      <c r="S217" s="366"/>
+      <c r="T217" s="366"/>
     </row>
     <row r="218" spans="1:20" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="51" t="s">
@@ -30169,14 +30174,14 @@
       </c>
       <c r="K218" s="229"/>
       <c r="L218" s="229"/>
-      <c r="M218" s="331"/>
-      <c r="N218" s="331"/>
-      <c r="O218" s="331"/>
-      <c r="P218" s="331"/>
-      <c r="Q218" s="331"/>
-      <c r="R218" s="331"/>
-      <c r="S218" s="331"/>
-      <c r="T218" s="331"/>
+      <c r="M218" s="366"/>
+      <c r="N218" s="366"/>
+      <c r="O218" s="366"/>
+      <c r="P218" s="366"/>
+      <c r="Q218" s="366"/>
+      <c r="R218" s="366"/>
+      <c r="S218" s="366"/>
+      <c r="T218" s="366"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="51" t="s">
@@ -30238,14 +30243,14 @@
       <c r="A220" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="B220" s="332">
+      <c r="B220" s="364">
         <v>20506945934</v>
       </c>
-      <c r="C220" s="333" t="s">
+      <c r="C220" s="365" t="s">
         <v>312</v>
       </c>
       <c r="D220" s="1"/>
-      <c r="E220" s="334" t="s">
+      <c r="E220" s="345" t="s">
         <v>313</v>
       </c>
       <c r="F220" s="174">
@@ -30300,10 +30305,10 @@
       <c r="A221" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="B221" s="332"/>
-      <c r="C221" s="333"/>
+      <c r="B221" s="364"/>
+      <c r="C221" s="365"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="334"/>
+      <c r="E221" s="345"/>
       <c r="F221" s="174"/>
       <c r="G221" s="141"/>
       <c r="H221" s="198"/>
@@ -30669,10 +30674,10 @@
       <c r="P227" s="20">
         <v>45595</v>
       </c>
-      <c r="Q227" s="364" t="s">
+      <c r="Q227" s="334" t="s">
         <v>204</v>
       </c>
-      <c r="R227" s="365"/>
+      <c r="R227" s="335"/>
       <c r="S227" s="3"/>
       <c r="T227" s="1"/>
     </row>
@@ -30889,14 +30894,14 @@
         <f>+(J231*12%)</f>
         <v>6112.5887999999995</v>
       </c>
-      <c r="M231" s="295" t="s">
+      <c r="M231" s="319" t="s">
         <v>324</v>
       </c>
-      <c r="N231" s="296"/>
-      <c r="O231" s="296"/>
-      <c r="P231" s="296"/>
-      <c r="Q231" s="296"/>
-      <c r="R231" s="297"/>
+      <c r="N231" s="320"/>
+      <c r="O231" s="320"/>
+      <c r="P231" s="320"/>
+      <c r="Q231" s="320"/>
+      <c r="R231" s="321"/>
       <c r="S231" s="3"/>
       <c r="T231" s="1"/>
     </row>
@@ -31332,14 +31337,14 @@
       <c r="A240" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B240" s="338">
+      <c r="B240" s="354">
         <v>20543324915</v>
       </c>
-      <c r="C240" s="333" t="s">
+      <c r="C240" s="365" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="1"/>
-      <c r="E240" s="334" t="s">
+      <c r="E240" s="345" t="s">
         <v>333</v>
       </c>
       <c r="F240" s="174">
@@ -31386,10 +31391,10 @@
       <c r="A241" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="338"/>
-      <c r="C241" s="333"/>
+      <c r="B241" s="354"/>
+      <c r="C241" s="365"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="334"/>
+      <c r="E241" s="345"/>
       <c r="F241" s="174"/>
       <c r="G241" s="199"/>
       <c r="H241" s="198"/>
@@ -32143,14 +32148,14 @@
         <f>+(J254*12%)</f>
         <v>910.71880799999997</v>
       </c>
-      <c r="M254" s="295" t="s">
+      <c r="M254" s="319" t="s">
         <v>352</v>
       </c>
-      <c r="N254" s="296"/>
-      <c r="O254" s="296"/>
-      <c r="P254" s="296"/>
-      <c r="Q254" s="296"/>
-      <c r="R254" s="297"/>
+      <c r="N254" s="320"/>
+      <c r="O254" s="320"/>
+      <c r="P254" s="320"/>
+      <c r="Q254" s="320"/>
+      <c r="R254" s="321"/>
       <c r="S254" s="20"/>
       <c r="T254" s="1"/>
     </row>
@@ -32187,14 +32192,14 @@
       </c>
       <c r="K255" s="161"/>
       <c r="L255" s="161"/>
-      <c r="M255" s="295" t="s">
+      <c r="M255" s="319" t="s">
         <v>354</v>
       </c>
-      <c r="N255" s="296"/>
-      <c r="O255" s="296"/>
-      <c r="P255" s="296"/>
-      <c r="Q255" s="296"/>
-      <c r="R255" s="297"/>
+      <c r="N255" s="320"/>
+      <c r="O255" s="320"/>
+      <c r="P255" s="320"/>
+      <c r="Q255" s="320"/>
+      <c r="R255" s="321"/>
       <c r="S255" s="20"/>
       <c r="T255" s="1"/>
     </row>
@@ -32237,14 +32242,14 @@
         <f t="shared" ref="L256:L259" si="61">+(J256*12%)*G256</f>
         <v>2707.3285716959999</v>
       </c>
-      <c r="M256" s="295" t="s">
+      <c r="M256" s="319" t="s">
         <v>356</v>
       </c>
-      <c r="N256" s="296"/>
-      <c r="O256" s="296"/>
-      <c r="P256" s="296"/>
-      <c r="Q256" s="296"/>
-      <c r="R256" s="297"/>
+      <c r="N256" s="320"/>
+      <c r="O256" s="320"/>
+      <c r="P256" s="320"/>
+      <c r="Q256" s="320"/>
+      <c r="R256" s="321"/>
       <c r="S256" s="20"/>
       <c r="T256" s="1"/>
     </row>
@@ -33077,14 +33082,14 @@
         <f t="shared" si="66"/>
         <v>9248.4227519999986</v>
       </c>
-      <c r="M271" s="361" t="s">
+      <c r="M271" s="331" t="s">
         <v>372</v>
       </c>
-      <c r="N271" s="362"/>
-      <c r="O271" s="362"/>
-      <c r="P271" s="362"/>
-      <c r="Q271" s="362"/>
-      <c r="R271" s="363"/>
+      <c r="N271" s="332"/>
+      <c r="O271" s="332"/>
+      <c r="P271" s="332"/>
+      <c r="Q271" s="332"/>
+      <c r="R271" s="333"/>
       <c r="S271" s="24"/>
       <c r="T271" s="1"/>
     </row>
@@ -33995,14 +34000,14 @@
         <f>+(J288*12%)</f>
         <v>19648.801151999996</v>
       </c>
-      <c r="M288" s="361" t="s">
+      <c r="M288" s="331" t="s">
         <v>393</v>
       </c>
-      <c r="N288" s="362"/>
-      <c r="O288" s="362"/>
-      <c r="P288" s="362"/>
-      <c r="Q288" s="362"/>
-      <c r="R288" s="363"/>
+      <c r="N288" s="332"/>
+      <c r="O288" s="332"/>
+      <c r="P288" s="332"/>
+      <c r="Q288" s="332"/>
+      <c r="R288" s="333"/>
       <c r="S288" s="20"/>
       <c r="T288" s="1"/>
     </row>
@@ -34403,14 +34408,14 @@
       </c>
       <c r="K296" s="161"/>
       <c r="L296" s="161"/>
-      <c r="M296" s="295" t="s">
+      <c r="M296" s="319" t="s">
         <v>412</v>
       </c>
-      <c r="N296" s="296"/>
-      <c r="O296" s="296"/>
-      <c r="P296" s="296"/>
-      <c r="Q296" s="296"/>
-      <c r="R296" s="297"/>
+      <c r="N296" s="320"/>
+      <c r="O296" s="320"/>
+      <c r="P296" s="320"/>
+      <c r="Q296" s="320"/>
+      <c r="R296" s="321"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
     </row>
@@ -34794,6 +34799,203 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="221">
+    <mergeCell ref="M217:T217"/>
+    <mergeCell ref="M218:T218"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="J195:J196"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="Q195:Q196"/>
+    <mergeCell ref="R195:R196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="S187:S188"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="J193:J194"/>
+    <mergeCell ref="K193:K194"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="Q187:Q188"/>
+    <mergeCell ref="R187:R188"/>
+    <mergeCell ref="L193:L194"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="R193:R194"/>
+    <mergeCell ref="S193:S194"/>
+    <mergeCell ref="M231:R231"/>
+    <mergeCell ref="S195:S196"/>
+    <mergeCell ref="M173:R173"/>
+    <mergeCell ref="M175:R175"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="S155:S159"/>
+    <mergeCell ref="M161:R161"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="G155:G159"/>
+    <mergeCell ref="H155:H159"/>
+    <mergeCell ref="I155:I159"/>
+    <mergeCell ref="J155:J159"/>
+    <mergeCell ref="K155:K159"/>
+    <mergeCell ref="L155:L159"/>
+    <mergeCell ref="O170:O171"/>
+    <mergeCell ref="P170:P171"/>
+    <mergeCell ref="M136:R136"/>
+    <mergeCell ref="M146:R146"/>
+    <mergeCell ref="B155:B159"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="E155:E159"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="Q155:Q159"/>
+    <mergeCell ref="R155:R159"/>
+    <mergeCell ref="K86:K91"/>
+    <mergeCell ref="L86:L91"/>
+    <mergeCell ref="Q86:Q91"/>
+    <mergeCell ref="R86:R91"/>
+    <mergeCell ref="S86:S91"/>
+    <mergeCell ref="M111:R111"/>
+    <mergeCell ref="M85:R85"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="E86:E91"/>
+    <mergeCell ref="F86:F91"/>
+    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="H86:H91"/>
+    <mergeCell ref="I86:I91"/>
+    <mergeCell ref="J86:J91"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M65:R65"/>
+    <mergeCell ref="M66:R66"/>
+    <mergeCell ref="M67:R67"/>
+    <mergeCell ref="M68:R68"/>
+    <mergeCell ref="M69:R69"/>
+    <mergeCell ref="M70:R70"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="Q46:Q48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L35:L41"/>
+    <mergeCell ref="Q35:Q41"/>
+    <mergeCell ref="R35:R41"/>
+    <mergeCell ref="S35:S41"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="D35:D41"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="H35:H41"/>
+    <mergeCell ref="I35:I41"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J35:J41"/>
+    <mergeCell ref="K35:K41"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="S10:S13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
     <mergeCell ref="M254:R254"/>
     <mergeCell ref="M255:R255"/>
     <mergeCell ref="M256:R256"/>
@@ -34818,203 +35020,6 @@
     <mergeCell ref="M122:R122"/>
     <mergeCell ref="M131:R131"/>
     <mergeCell ref="M134:R134"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="S10:S13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J35:J41"/>
-    <mergeCell ref="K35:K41"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="L35:L41"/>
-    <mergeCell ref="Q35:Q41"/>
-    <mergeCell ref="R35:R41"/>
-    <mergeCell ref="S35:S41"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="D35:D41"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="H35:H41"/>
-    <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="S52:S53"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="Q46:Q48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M65:R65"/>
-    <mergeCell ref="M66:R66"/>
-    <mergeCell ref="M67:R67"/>
-    <mergeCell ref="M68:R68"/>
-    <mergeCell ref="M69:R69"/>
-    <mergeCell ref="M70:R70"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="K86:K91"/>
-    <mergeCell ref="L86:L91"/>
-    <mergeCell ref="Q86:Q91"/>
-    <mergeCell ref="R86:R91"/>
-    <mergeCell ref="S86:S91"/>
-    <mergeCell ref="M111:R111"/>
-    <mergeCell ref="M85:R85"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="E86:E91"/>
-    <mergeCell ref="F86:F91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="H86:H91"/>
-    <mergeCell ref="I86:I91"/>
-    <mergeCell ref="J86:J91"/>
-    <mergeCell ref="M136:R136"/>
-    <mergeCell ref="M146:R146"/>
-    <mergeCell ref="B155:B159"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="E155:E159"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="Q155:Q159"/>
-    <mergeCell ref="R155:R159"/>
-    <mergeCell ref="S155:S159"/>
-    <mergeCell ref="M161:R161"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="G155:G159"/>
-    <mergeCell ref="H155:H159"/>
-    <mergeCell ref="I155:I159"/>
-    <mergeCell ref="J155:J159"/>
-    <mergeCell ref="K155:K159"/>
-    <mergeCell ref="L155:L159"/>
-    <mergeCell ref="O170:O171"/>
-    <mergeCell ref="P170:P171"/>
-    <mergeCell ref="M173:R173"/>
-    <mergeCell ref="M175:R175"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="S187:S188"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="J193:J194"/>
-    <mergeCell ref="K193:K194"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="Q187:Q188"/>
-    <mergeCell ref="R187:R188"/>
-    <mergeCell ref="L193:L194"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="R193:R194"/>
-    <mergeCell ref="S193:S194"/>
-    <mergeCell ref="M231:R231"/>
-    <mergeCell ref="S195:S196"/>
-    <mergeCell ref="M217:T217"/>
-    <mergeCell ref="M218:T218"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="J195:J196"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="Q195:Q196"/>
-    <mergeCell ref="R195:R196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="H195:H196"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
